--- a/AAII_Financials/Quarterly/EYE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EYE_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
   <si>
     <t>EYE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,207 +665,232 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43827</v>
+      </c>
+      <c r="F7" s="2">
         <v>43736</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43645</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43554</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43463</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43372</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43099</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42917</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42826</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>469700</v>
+      </c>
+      <c r="E8" s="3">
+        <v>401800</v>
+      </c>
+      <c r="F8" s="3">
         <v>431900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>429500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>461200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>355900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>387400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>385500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>408000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>321800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>346100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>337500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>369900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>277100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>301200</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>218600</v>
+      </c>
+      <c r="E9" s="3">
+        <v>187500</v>
+      </c>
+      <c r="F9" s="3">
         <v>204500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>202500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>212000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>173500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>182600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>177100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>180500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>152400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>162400</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="3">
         <v>130300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>138700</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>251100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>214300</v>
+      </c>
+      <c r="F10" s="3">
         <v>227400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>227000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>249200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>182400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>204800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>208400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>227500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>169400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>183700</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="3">
         <v>146800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>162500</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -882,8 +907,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -926,8 +953,14 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -970,96 +1003,114 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F14" s="3">
         <v>13300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>1800</v>
-      </c>
-      <c r="F14" s="3">
-        <v>2100</v>
-      </c>
-      <c r="G14" s="3">
-        <v>15500</v>
       </c>
       <c r="H14" s="3">
         <v>2100</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>15500</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>3100</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>8000</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>7100</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E15" s="3">
+        <v>23700</v>
+      </c>
+      <c r="F15" s="3">
         <v>22300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>20800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>20400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>20300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>19300</v>
-      </c>
-      <c r="I15" s="3">
-        <v>17600</v>
-      </c>
-      <c r="J15" s="3">
-        <v>17900</v>
       </c>
       <c r="K15" s="3">
         <v>17600</v>
       </c>
       <c r="L15" s="3">
+        <v>17900</v>
+      </c>
+      <c r="M15" s="3">
+        <v>17600</v>
+      </c>
+      <c r="N15" s="3">
         <v>15400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>14600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>14400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>13800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1073,96 +1124,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>452800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>393400</v>
+      </c>
+      <c r="F17" s="3">
         <v>430600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>407700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>428800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>377800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>389500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>360600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>369100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>327600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>329500</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="3">
         <v>280500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>286900</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>8400</v>
+      </c>
+      <c r="F18" s="3">
         <v>1300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>21800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>32400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-21900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-2100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>24900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>38900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-5800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>16600</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-3400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1179,8 +1244,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1211,196 +1278,226 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>41700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>32000</v>
+      </c>
+      <c r="F21" s="3">
         <v>23700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>42500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>52800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-2300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>17300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>42600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>56700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>11800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>31900</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="3">
         <v>10400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>27500</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E22" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F22" s="3">
         <v>7900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>9000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>9100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>9300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>9400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>9400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>9300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>16400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>14900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>14600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>14200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>9700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-6500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>12700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>23300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-31200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-11500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>15500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>29500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-22200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>1700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>25500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-13100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F24" s="3">
         <v>-7700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>2500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>5900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-10900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-16700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>3100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>5100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-6100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>8500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-3400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1443,96 +1540,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F26" s="3">
         <v>1200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>10300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>17400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-20300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>5200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>12500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>24500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-16100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>1500</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-9700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F27" s="3">
         <v>1200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>10300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>17400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-20300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>5200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>12500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>24500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-16100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>1500</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-9700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1575,8 +1690,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1601,15 +1722,15 @@
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
         <v>42100</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1619,8 +1740,14 @@
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1663,8 +1790,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1707,8 +1840,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1739,64 +1878,76 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F33" s="3">
         <v>1200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>10300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>17400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-20300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>5200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>12500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>24500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>26000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>1500</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-9700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1839,101 +1990,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F35" s="3">
         <v>1200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>10300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>17400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-20300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>5200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>12500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>24500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>26000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>1500</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-9700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43827</v>
+      </c>
+      <c r="F38" s="2">
         <v>43736</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43645</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43554</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43463</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43372</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43099</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42917</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42826</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1950,8 +2119,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1968,52 +2139,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>263200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>39300</v>
+      </c>
+      <c r="F41" s="3">
         <v>94100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>82800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>72500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>17100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>48900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>34600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>58400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>4200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>27600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>24900</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2056,184 +2235,214 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>27600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>44500</v>
+      </c>
+      <c r="F43" s="3">
         <v>50700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>57400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>58000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>50700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>38900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>45100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>41700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>43200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>39100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>38200</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>111900</v>
+        <v>130400</v>
       </c>
       <c r="E44" s="3">
-        <v>105700</v>
+        <v>127600</v>
       </c>
       <c r="F44" s="3">
         <v>111900</v>
       </c>
       <c r="G44" s="3">
+        <v>105700</v>
+      </c>
+      <c r="H44" s="3">
+        <v>111900</v>
+      </c>
+      <c r="I44" s="3">
         <v>116000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>99300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>94900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>93700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>91200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>89400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>89400</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O44" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>23300</v>
+      </c>
+      <c r="F45" s="3">
         <v>22000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>25000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>27600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>30800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>24100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>24800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>24800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>23900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>22700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>22000</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>441200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>234600</v>
+      </c>
+      <c r="F46" s="3">
         <v>278600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>270900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>270100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>214700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>211100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>199400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>218600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>162500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>178800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>174400</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2276,96 +2485,114 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>693500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>714900</v>
+      </c>
+      <c r="F48" s="3">
         <v>716200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>715900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>695300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>355100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>340600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>328000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>311000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>302300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>290700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>281300</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1073200</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1075100</v>
+      </c>
+      <c r="F49" s="3">
         <v>1077000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>1078800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>1080600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>1082700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>1099900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>1102000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1104100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1106200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1108300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1110400</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2408,8 +2635,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2452,52 +2685,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E52" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F52" s="3">
         <v>6600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>6300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>7100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>8900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>9100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>10000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>10900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>11000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>11100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>10500</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2540,52 +2785,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2218700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2032700</v>
+      </c>
+      <c r="F54" s="3">
         <v>2078400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2071800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2053100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1661400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1660700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1639400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1644600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1581900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1588900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1576700</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2602,8 +2859,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2620,272 +2879,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>40800</v>
+      </c>
+      <c r="F57" s="3">
         <v>45300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>47100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>45100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>43600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>30900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>32800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>46100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>35700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>33600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>34400</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E58" s="3">
+        <v>13800</v>
+      </c>
+      <c r="F58" s="3">
         <v>13700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>8500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>8500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>7600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>7900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>7700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>7300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>7300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>9600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>9600</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>224000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>218600</v>
+      </c>
+      <c r="F59" s="3">
         <v>244800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>232700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>244100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>160400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>158500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>148800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>168200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>169500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>176000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>167900</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>287500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>273200</v>
+      </c>
+      <c r="F60" s="3">
         <v>303900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>288300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>297700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>211700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>197200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>189300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>221700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>211300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>219200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>211900</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O60" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>713200</v>
+      </c>
+      <c r="E61" s="3">
+        <v>555900</v>
+      </c>
+      <c r="F61" s="3">
         <v>584300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>579100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>578400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>570500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>566900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>566600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>562000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>562000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>912700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>913300</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>431900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>427200</v>
+      </c>
+      <c r="F62" s="3">
         <v>424800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>430000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>414400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>136000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>138400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>154000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>149600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>154100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>202400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>202000</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2928,8 +3225,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2972,8 +3275,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3016,52 +3325,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1432600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1256300</v>
+      </c>
+      <c r="F66" s="3">
         <v>1313000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1297400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1290500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>918200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>902500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>909900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>933300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>927300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1334300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1327200</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3078,8 +3399,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3122,8 +3445,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3166,8 +3495,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3210,8 +3545,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3254,52 +3595,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>116300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>107100</v>
+      </c>
+      <c r="F72" s="3">
         <v>103200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>102000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>91800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>74800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>100100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>94300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>81200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>32200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>8400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>6900</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3342,8 +3695,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3386,8 +3745,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3430,52 +3795,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>786200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>776400</v>
+      </c>
+      <c r="F76" s="3">
         <v>765500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>774400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>762600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>743200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>758200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>729600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>711300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>654600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>254600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>249500</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3518,101 +3895,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43827</v>
+      </c>
+      <c r="F80" s="2">
         <v>43736</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43645</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43554</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43463</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43372</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43099</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42917</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42826</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F81" s="3">
         <v>1200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>10300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>17400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-20300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>5200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>12500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>24500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>26000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>1500</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-9700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3629,52 +4024,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E83" s="3">
+        <v>23700</v>
+      </c>
+      <c r="F83" s="3">
         <v>22300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>20800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>20400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>19600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>15200</v>
-      </c>
-      <c r="I83" s="3">
-        <v>19700</v>
-      </c>
-      <c r="J83" s="3">
-        <v>20000</v>
       </c>
       <c r="K83" s="3">
         <v>19700</v>
       </c>
       <c r="L83" s="3">
+        <v>20000</v>
+      </c>
+      <c r="M83" s="3">
+        <v>19700</v>
+      </c>
+      <c r="N83" s="3">
         <v>21700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>14600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>14400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>13800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3717,8 +4120,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3761,8 +4170,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3805,8 +4220,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3849,8 +4270,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3893,52 +4320,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>86100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="F89" s="3">
         <v>51700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>36300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>83000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-9300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>35800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>2300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>77800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-6000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>28300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>21400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>46500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>6500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3955,52 +4394,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-24900</v>
+      </c>
+      <c r="F91" s="3">
         <v>-24400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-26100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-26000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-25700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-30100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-25900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-22800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-26100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-22900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-23500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-20700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-23300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-20200</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4043,8 +4490,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4087,52 +4540,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-24700</v>
+      </c>
+      <c r="F94" s="3">
         <v>-24100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-26000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-25800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-25500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-30100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-25900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-22700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-26100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-24400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-23400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-20700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-23200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-21000</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4149,8 +4614,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4185,16 +4652,22 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-171000</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4237,8 +4710,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4281,8 +4760,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4325,52 +4810,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>150600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="F100" s="3">
         <v>-16100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-1400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>2800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>8500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>8700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-1400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-3100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-2100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4413,48 +4910,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>223800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="F102" s="3">
         <v>11400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>10000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>55900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-32100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>14200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-24200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>54800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-23400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>2600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-5100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>25400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-18800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>4100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EYE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EYE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
   <si>
     <t>EYE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,245 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E7" s="2">
         <v>43918</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43827</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43736</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43645</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43554</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43463</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43372</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43099</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42917</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42826</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>260000</v>
+      </c>
+      <c r="E8" s="3">
         <v>469700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>401800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>431900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>429500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>461200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>355900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>387400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>385500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>408000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>321800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>346100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>337500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>369900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>277100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>301200</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>140800</v>
+      </c>
+      <c r="E9" s="3">
         <v>218600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>187500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>204500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>202500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>212000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>173500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>182600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>177100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>180500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>152400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>162400</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3">
         <v>130300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>138700</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>119200</v>
+      </c>
+      <c r="E10" s="3">
         <v>251100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>214300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>227400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>227000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>249200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>182400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>204800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>208400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>227500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>169400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>183700</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3">
         <v>146800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>162500</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -959,8 +973,11 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,108 +1026,117 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E14" s="3">
         <v>15800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>13300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>15500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2100</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>3100</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>8000</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>7100</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E15" s="3">
         <v>24800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>23700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>22300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>20800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>20400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>20300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>19300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>17600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>17900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>17600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>15400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>14600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>14400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>13800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1152,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>301600</v>
+      </c>
+      <c r="E17" s="3">
         <v>452800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>393400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>430600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>407700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>428800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>377800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>389500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>360600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>369100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>327600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>329500</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R17" s="3">
         <v>280500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>286900</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-41600</v>
+      </c>
+      <c r="E18" s="3">
         <v>16900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>8400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>21800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>32400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-21900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>24900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>38900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>16600</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R18" s="3">
         <v>-3400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1279,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1284,220 +1318,235 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>5</v>
+      <c r="O20" s="3">
+        <v>0</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
+      <c r="Q20" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="E21" s="3">
         <v>41700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>32000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>23700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>42500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>52800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>17300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>42600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>56700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>11800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>31900</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="3">
         <v>10400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>27500</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E22" s="3">
         <v>7500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>7400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>7900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>9000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>9100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>9300</v>
-      </c>
-      <c r="J22" s="3">
-        <v>9400</v>
       </c>
       <c r="K22" s="3">
         <v>9400</v>
       </c>
       <c r="L22" s="3">
+        <v>9400</v>
+      </c>
+      <c r="M22" s="3">
         <v>9300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>16400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>14900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>14600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>14200</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>9700</v>
       </c>
       <c r="R22" s="3">
         <v>9700</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>9700</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-57200</v>
+      </c>
+      <c r="E23" s="3">
         <v>9500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-6500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>12700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>23300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-31200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-11500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>15500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>29500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-22200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>25500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-13100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="E24" s="3">
         <v>-300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-3000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-7700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-10900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-16700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-6100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>8500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-3400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-43800</v>
+      </c>
+      <c r="E26" s="3">
         <v>9700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>10300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>17400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-20300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>5200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>12500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>24500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-16100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1500</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R26" s="3">
         <v>-9700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-43800</v>
+      </c>
+      <c r="E27" s="3">
         <v>9700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>10300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>17400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-20300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>5200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>12500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>24500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-16100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1500</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R27" s="3">
         <v>-9700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1728,12 +1789,12 @@
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
         <v>42100</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1913,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1884,70 +1954,76 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>5</v>
+      <c r="O32" s="3">
+        <v>0</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
+      <c r="Q32" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-43800</v>
+      </c>
+      <c r="E33" s="3">
         <v>9700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>10300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>17400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-20300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>5200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>12500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>24500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>26000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1500</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R33" s="3">
         <v>-9700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-43800</v>
+      </c>
+      <c r="E35" s="3">
         <v>9700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>10300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>17400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-20300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>5200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>12500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>24500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>26000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1500</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R35" s="3">
         <v>-9700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E38" s="2">
         <v>43918</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43827</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43736</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43645</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43554</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43463</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43372</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43099</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42917</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42826</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,58 +2227,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>256300</v>
+      </c>
+      <c r="E41" s="3">
         <v>263200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>39300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>94100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>82800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>72500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>17100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>48900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>34600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>58400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>27600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>24900</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R41" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,99 +2331,105 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>58500</v>
+      </c>
+      <c r="E43" s="3">
         <v>27600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>44500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>50700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>57400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>58000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>50700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>38900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>45100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>41700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>43200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>39100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>38200</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>117900</v>
+      </c>
+      <c r="E44" s="3">
         <v>130400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>127600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>111900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>105700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>111900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>116000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>99300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>94900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>93700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>91200</v>
-      </c>
-      <c r="N44" s="3">
-        <v>89400</v>
       </c>
       <c r="O44" s="3">
         <v>89400</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>5</v>
+      <c r="P44" s="3">
+        <v>89400</v>
       </c>
       <c r="Q44" s="3" t="s">
         <v>5</v>
@@ -2341,108 +2437,117 @@
       <c r="R44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E45" s="3">
         <v>20100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>23300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>22000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>25000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>27600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>30800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>24100</v>
-      </c>
-      <c r="K45" s="3">
-        <v>24800</v>
       </c>
       <c r="L45" s="3">
         <v>24800</v>
       </c>
       <c r="M45" s="3">
+        <v>24800</v>
+      </c>
+      <c r="N45" s="3">
         <v>23900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>22700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>22000</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>453100</v>
+      </c>
+      <c r="E46" s="3">
         <v>441200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>234600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>278600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>270900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>270100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>214700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>211100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>199400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>218600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>162500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>178800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>174400</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R46" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,108 +2596,117 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>681600</v>
+      </c>
+      <c r="E48" s="3">
         <v>693500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>714900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>716200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>715900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>695300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>355100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>340600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>328000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>311000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>302300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>290700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>281300</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1071400</v>
+      </c>
+      <c r="E49" s="3">
         <v>1073200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1075100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1077000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1078800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1080600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1082700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1099900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1102000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1104100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1106200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1108300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1110400</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,58 +2808,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E52" s="3">
         <v>10800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>8900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>9100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>10000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>10900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>11000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>11100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>10500</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2914,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2219000</v>
+      </c>
+      <c r="E54" s="3">
         <v>2218700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2032700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2078400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2071800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2053100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1661400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1660700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1639400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1644600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1581900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1588900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1576700</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R54" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,99 +3011,103 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>52400</v>
+      </c>
+      <c r="E57" s="3">
         <v>60000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>40800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>45300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>47100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>45100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>43600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>30900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>32800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>46100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>35700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>33600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>34400</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E58" s="3">
         <v>3500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>13800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>13700</v>
-      </c>
-      <c r="G58" s="3">
-        <v>8500</v>
       </c>
       <c r="H58" s="3">
         <v>8500</v>
       </c>
       <c r="I58" s="3">
+        <v>8500</v>
+      </c>
+      <c r="J58" s="3">
         <v>7600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>7900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7700</v>
-      </c>
-      <c r="L58" s="3">
-        <v>7300</v>
       </c>
       <c r="M58" s="3">
         <v>7300</v>
       </c>
       <c r="N58" s="3">
-        <v>9600</v>
+        <v>7300</v>
       </c>
       <c r="O58" s="3">
         <v>9600</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>5</v>
+      <c r="P58" s="3">
+        <v>9600</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>5</v>
@@ -2981,208 +3115,223 @@
       <c r="R58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>256200</v>
+      </c>
+      <c r="E59" s="3">
         <v>224000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>218600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>244800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>232700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>244100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>160400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>158500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>148800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>168200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>169500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>176000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>167900</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>311900</v>
+      </c>
+      <c r="E60" s="3">
         <v>287500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>273200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>303900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>288300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>297700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>211700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>197200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>189300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>221700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>211300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>219200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>211900</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R60" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>644900</v>
+      </c>
+      <c r="E61" s="3">
         <v>713200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>555900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>584300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>579100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>578400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>570500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>566900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>566600</v>
-      </c>
-      <c r="L61" s="3">
-        <v>562000</v>
       </c>
       <c r="M61" s="3">
         <v>562000</v>
       </c>
       <c r="N61" s="3">
+        <v>562000</v>
+      </c>
+      <c r="O61" s="3">
         <v>912700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>913300</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>441200</v>
+      </c>
+      <c r="E62" s="3">
         <v>431900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>427200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>424800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>430000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>414400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>136000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>138400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>154000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>149600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>154100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>202400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>202000</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3486,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1398100</v>
+      </c>
+      <c r="E66" s="3">
         <v>1432600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1256300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1313000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1297400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1290500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>918200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>902500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>909900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>933300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>927300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1334300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1327200</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R66" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3772,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>72500</v>
+      </c>
+      <c r="E72" s="3">
         <v>116300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>107100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>103200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>102000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>91800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>74800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>100100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>94300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>81200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>32200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>8400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>6900</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R72" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3984,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>820900</v>
+      </c>
+      <c r="E76" s="3">
         <v>786200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>776400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>765500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>774400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>762600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>743200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>758200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>729600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>711300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>654600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>254600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>249500</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R76" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E80" s="2">
         <v>43918</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43827</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43736</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43645</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43554</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43463</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43372</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43099</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42917</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42826</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-43800</v>
+      </c>
+      <c r="E81" s="3">
         <v>9700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>10300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>17400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-20300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>5200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>12500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>24500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>26000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1500</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="Q81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R81" s="3">
         <v>-9700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,58 +4224,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E83" s="3">
         <v>24800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>23700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>22300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>20800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>20400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>19600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>15200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>19700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>20000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>19700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>21700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>14600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>14400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>13800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="E89" s="3">
         <v>86100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-5900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>51700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>36300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>83000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-9300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>35800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>77800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-6000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>28300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>21400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>46500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>6500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,58 +4616,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-13100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-24900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-24400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-26100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-26000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-25700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-30100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-25900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-22800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-26100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-22900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-23500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-20700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-23300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-20200</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4773,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-12900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-24700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-24100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-26000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-25800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-25500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-30100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-25900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-22700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-26100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-24400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-23400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-20700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-23200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-21000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4658,16 +4892,19 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-171000</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,58 +5059,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E100" s="3">
         <v>150600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-24400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-16100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>8500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>8700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-3100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,54 +5165,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E102" s="3">
         <v>223800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-55000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>11400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>10000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>55900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-32100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>14200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-24200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>54800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-23400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-5100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>25400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-18800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>4100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EYE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EYE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
   <si>
     <t>EYE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,258 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E7" s="2">
         <v>44009</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43918</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43827</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43736</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43645</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43554</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43463</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43372</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43099</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42917</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42826</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>485400</v>
+      </c>
+      <c r="E8" s="3">
         <v>260000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>469700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>401800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>431900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>429500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>461200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>355900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>387400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>385500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>408000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>321800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>346100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>337500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>369900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>277100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>301200</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>210800</v>
+      </c>
+      <c r="E9" s="3">
         <v>140800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>218600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>187500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>204500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>202500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>212000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>173500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>182600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>177100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>180500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>152400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>162400</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R9" s="3">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="3">
         <v>130300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>138700</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>274600</v>
+      </c>
+      <c r="E10" s="3">
         <v>119200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>251100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>214300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>227400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>227000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>249200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>182400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>204800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>208400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>227500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>169400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>183700</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R10" s="3">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="3">
         <v>146800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>162500</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,8 +936,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -976,8 +990,11 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,114 +1046,123 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E14" s="3">
         <v>2400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>15800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>13300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>15500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2100</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>3100</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>8000</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>7100</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E15" s="3">
         <v>21900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>24800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>23700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>22300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>20800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>20400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>20300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>19300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>17600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>17900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>17600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>15400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>14600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>14400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>13800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1179,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>430600</v>
+      </c>
+      <c r="E17" s="3">
         <v>301600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>452800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>393400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>430600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>407700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>428800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>377800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>389500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>360600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>369100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>327600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>329500</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R17" s="3">
+      <c r="R17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S17" s="3">
         <v>280500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>286900</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>54800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-41600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>16900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>8400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>21800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>32400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-21900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>24900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>38900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>16600</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S18" s="3">
         <v>-3400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,8 +1313,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1321,232 +1355,247 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>5</v>
+      <c r="P20" s="3">
+        <v>0</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
+      <c r="R20" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>77000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-19700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>41700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>32000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>23700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>42500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>52800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>17300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>42600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>56700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>11800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>31900</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="3">
         <v>10400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>27500</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E22" s="3">
         <v>15600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>7500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>7400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>7900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>9000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>9100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>9300</v>
-      </c>
-      <c r="K22" s="3">
-        <v>9400</v>
       </c>
       <c r="L22" s="3">
         <v>9400</v>
       </c>
       <c r="M22" s="3">
+        <v>9400</v>
+      </c>
+      <c r="N22" s="3">
         <v>9300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>16400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>14900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>14600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>14200</v>
-      </c>
-      <c r="R22" s="3">
-        <v>9700</v>
       </c>
       <c r="S22" s="3">
         <v>9700</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>9700</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>42300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-57200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>9500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-6500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>12700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>23300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-31200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-11500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>15500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>29500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-22200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>25500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-13100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-13400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-3000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-7700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-10900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-16700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-6100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>8500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-3400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1647,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>35300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-43800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>9700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>10300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>17400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-20300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>12500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>24500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-16100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1500</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R26" s="3">
+      <c r="R26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S26" s="3">
         <v>-9700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>35300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-43800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>9700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>10300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>17400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-20300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>12500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>24500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-16100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1500</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R27" s="3">
+      <c r="R27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S27" s="3">
         <v>-9700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1815,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1792,12 +1853,12 @@
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
         <v>42100</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1810,8 +1871,11 @@
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1927,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,8 +1983,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1957,73 +2027,79 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>5</v>
+      <c r="P32" s="3">
+        <v>0</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
+      <c r="R32" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>35300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-43800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>9700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>10300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>17400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-20300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>12500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>24500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>26000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1500</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R33" s="3">
+      <c r="R33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S33" s="3">
         <v>-9700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2151,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>35300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-43800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>9700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>10300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>17400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-20300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>12500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>24500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>26000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1500</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R35" s="3">
+      <c r="R35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S35" s="3">
         <v>-9700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E38" s="2">
         <v>44009</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43918</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43827</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43736</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43645</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43554</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43463</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43372</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43099</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42917</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42826</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2292,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,61 +2314,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>377000</v>
+      </c>
+      <c r="E41" s="3">
         <v>256300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>263200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>39300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>94100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>82800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>72500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>17100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>48900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>34600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>58400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>27600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>24900</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S41" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2334,105 +2424,111 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>49700</v>
+      </c>
+      <c r="E43" s="3">
         <v>58500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>27600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>44500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>50700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>57400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>58000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>50700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>38900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>45100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>41700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>43200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>39100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>38200</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>111700</v>
+      </c>
+      <c r="E44" s="3">
         <v>117900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>130400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>127600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>111900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>105700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>111900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>116000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>99300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>94900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>93700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>91200</v>
-      </c>
-      <c r="O44" s="3">
-        <v>89400</v>
       </c>
       <c r="P44" s="3">
         <v>89400</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>5</v>
+      <c r="Q44" s="3">
+        <v>89400</v>
       </c>
       <c r="R44" s="3" t="s">
         <v>5</v>
@@ -2440,114 +2536,123 @@
       <c r="S44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E45" s="3">
         <v>20500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>20100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>23300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>22000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>25000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>27600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>30800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>24100</v>
-      </c>
-      <c r="L45" s="3">
-        <v>24800</v>
       </c>
       <c r="M45" s="3">
         <v>24800</v>
       </c>
       <c r="N45" s="3">
+        <v>24800</v>
+      </c>
+      <c r="O45" s="3">
         <v>23900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>22700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>22000</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>555400</v>
+      </c>
+      <c r="E46" s="3">
         <v>453100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>441200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>234600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>278600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>270900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>270100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>214700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>211100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>199400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>218600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>162500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>178800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>174400</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S46" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2599,114 +2704,123 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>666200</v>
+      </c>
+      <c r="E48" s="3">
         <v>681600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>693500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>714900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>716200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>715900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>695300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>355100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>340600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>328000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>311000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>302300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>290700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>281300</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1069500</v>
+      </c>
+      <c r="E49" s="3">
         <v>1071400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1073200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1075100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1077000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1078800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1080600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1082700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1099900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1102000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1104100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1106200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1108300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1110400</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2872,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,61 +2928,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E52" s="3">
         <v>12900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>10800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>8100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>6300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>8900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>9100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>10000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>10900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>11000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>11100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>10500</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3040,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2307500</v>
+      </c>
+      <c r="E54" s="3">
         <v>2219000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2218700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2032700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2078400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2071800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2053100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1661400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1660700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1639400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1644600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1581900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1588900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1576700</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S54" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3120,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,105 +3142,109 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>68600</v>
+      </c>
+      <c r="E57" s="3">
         <v>52400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>60000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>40800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>45300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>47100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>45100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>43600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>30900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>32800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>46100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>35700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>33600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>34400</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E58" s="3">
         <v>3300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>13800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>13700</v>
-      </c>
-      <c r="H58" s="3">
-        <v>8500</v>
       </c>
       <c r="I58" s="3">
         <v>8500</v>
       </c>
       <c r="J58" s="3">
+        <v>8500</v>
+      </c>
+      <c r="K58" s="3">
         <v>7600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7700</v>
-      </c>
-      <c r="M58" s="3">
-        <v>7300</v>
       </c>
       <c r="N58" s="3">
         <v>7300</v>
       </c>
       <c r="O58" s="3">
-        <v>9600</v>
+        <v>7300</v>
       </c>
       <c r="P58" s="3">
         <v>9600</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>5</v>
+      <c r="Q58" s="3">
+        <v>9600</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>5</v>
@@ -3118,220 +3252,235 @@
       <c r="S58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>283900</v>
+      </c>
+      <c r="E59" s="3">
         <v>256200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>224000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>218600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>244800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>232700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>244100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>160400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>158500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>148800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>168200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>169500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>176000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>167900</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>356000</v>
+      </c>
+      <c r="E60" s="3">
         <v>311900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>287500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>273200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>303900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>288300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>297700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>211700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>197200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>189300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>221700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>211300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>219200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>211900</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S60" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>648100</v>
+      </c>
+      <c r="E61" s="3">
         <v>644900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>713200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>555900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>584300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>579100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>578400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>570500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>566900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>566600</v>
-      </c>
-      <c r="M61" s="3">
-        <v>562000</v>
       </c>
       <c r="N61" s="3">
         <v>562000</v>
       </c>
       <c r="O61" s="3">
+        <v>562000</v>
+      </c>
+      <c r="P61" s="3">
         <v>912700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>913300</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>438400</v>
+      </c>
+      <c r="E62" s="3">
         <v>441200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>431900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>427200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>424800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>430000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>414400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>136000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>138400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>154000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>149600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>154100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>202400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>202000</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3532,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3588,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3644,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1442600</v>
+      </c>
+      <c r="E66" s="3">
         <v>1398100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1432600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1256300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1313000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1297400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1290500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>918200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>902500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>909900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>933300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>927300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1334300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1327200</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S66" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3724,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3778,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3834,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3890,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +3946,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>107800</v>
+      </c>
+      <c r="E72" s="3">
         <v>72500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>116300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>107100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>103200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>102000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>91800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>74800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>100100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>94300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>81200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>32200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>8400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>6900</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S72" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4058,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4114,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4170,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>865000</v>
+      </c>
+      <c r="E76" s="3">
         <v>820900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>786200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>776400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>765500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>774400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>762600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>743200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>758200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>729600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>711300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>654600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>254600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>249500</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S76" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4282,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E80" s="2">
         <v>44009</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43918</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43827</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43736</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43645</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43554</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43463</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43372</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43099</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42917</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42826</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>35300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-43800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>9700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>10300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>17400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-20300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>12500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>24500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>26000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1500</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R81" s="3">
+      <c r="R81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S81" s="3">
         <v>-9700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,61 +4423,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E83" s="3">
         <v>21900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>24800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>23700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>22300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>20800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>20400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>19600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>15200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>19700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>20000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>19700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>21700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>14600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>14400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>13800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4533,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4589,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4645,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4701,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4757,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>132300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-14600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>86100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-5900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>51700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>36300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>83000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-9300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>35800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>77800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-6000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>28300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>21400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>46500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>6500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,61 +4837,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-12700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-13100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-24900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-24400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-26100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-26000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-25700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-30100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-25900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-22800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-26100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-22900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-23500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-20700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-23300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-20200</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4947,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,61 +5003,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-12700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-12900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-24700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-24100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-26000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-25800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-25500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-30100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-25900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-22700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-26100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-24400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-23400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-20700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-23200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-21000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5083,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4895,16 +5129,19 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-171000</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5193,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5249,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,61 +5305,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E100" s="3">
         <v>20800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>150600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-24400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-16100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>8500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>8700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5168,57 +5417,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>120800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-6500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>223800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-55000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>11400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>10000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>55900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-32100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>14200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-24200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>54800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-23400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>25400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-18800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>4100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EYE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EYE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
   <si>
     <t>EYE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,258 +665,271 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44198</v>
+      </c>
+      <c r="E7" s="2">
         <v>44100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44009</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43918</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43827</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43736</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43645</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43554</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43463</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43372</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43099</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42917</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42826</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>496700</v>
+      </c>
+      <c r="E8" s="3">
         <v>485400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>260000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>469700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>401800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>431900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>429500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>461200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>355900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>387400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>385500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>408000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>321800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>346100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>337500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>369900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>277100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>301200</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>216500</v>
+      </c>
+      <c r="E9" s="3">
         <v>210800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>140800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>218600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>187500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>204500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>202500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>212000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>173500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>182600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>177100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>180500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>152400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>162400</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S9" s="3">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T9" s="3">
         <v>130300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>138700</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>280200</v>
+      </c>
+      <c r="E10" s="3">
         <v>274600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>119200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>251100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>214300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>227400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>227000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>249200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>182400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>204800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>208400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>227500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>169400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>183700</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S10" s="3">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T10" s="3">
         <v>146800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>162500</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -937,8 +950,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -993,8 +1007,11 @@
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1049,120 +1066,129 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E14" s="3">
         <v>7200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>15800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>13300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>15500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2100</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>3100</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>8000</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>7100</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E15" s="3">
         <v>22200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>21900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>24800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>23700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>22300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>20800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>20400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>20300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>19300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>17600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>17900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>17600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>15400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>14600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>14400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>13800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1180,120 +1206,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>439800</v>
+      </c>
+      <c r="E17" s="3">
         <v>430600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>301600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>452800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>393400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>430600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>407700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>428800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>377800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>389500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>360600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>369100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>327600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>329500</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S17" s="3">
+      <c r="S17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T17" s="3">
         <v>280500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>286900</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>56900</v>
+      </c>
+      <c r="E18" s="3">
         <v>54800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-41600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>16900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>8400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>21800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>32400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-21900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>24900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>38900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-5800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>16600</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T18" s="3">
         <v>-3400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1314,8 +1347,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1358,244 +1392,259 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>5</v>
+      <c r="Q20" s="3">
+        <v>0</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
+      <c r="S20" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>79500</v>
+      </c>
+      <c r="E21" s="3">
         <v>77000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-19700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>41700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>32000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>23700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>42500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>52800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>17300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>42600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>56700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>11800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>31900</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T21" s="3">
         <v>10400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>27500</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E22" s="3">
         <v>12500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>15600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>7500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>7400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>7900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>9000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>9100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>9300</v>
-      </c>
-      <c r="L22" s="3">
-        <v>9400</v>
       </c>
       <c r="M22" s="3">
         <v>9400</v>
       </c>
       <c r="N22" s="3">
+        <v>9400</v>
+      </c>
+      <c r="O22" s="3">
         <v>9300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>16400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>14900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>14600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>14200</v>
-      </c>
-      <c r="S22" s="3">
-        <v>9700</v>
       </c>
       <c r="T22" s="3">
         <v>9700</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>9700</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>44100</v>
+      </c>
+      <c r="E23" s="3">
         <v>42300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-57200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>9500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-6500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>12700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>23300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-31200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-11500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>15500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>29500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-22200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>25500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-13100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E24" s="3">
         <v>7000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-13400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-3000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-7700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>5900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-10900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-16700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>5100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-6100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>8500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-3400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1650,120 +1699,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>35100</v>
+      </c>
+      <c r="E26" s="3">
         <v>35300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-43800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>9700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>10300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>17400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-20300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>12500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>24500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-16100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1500</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S26" s="3">
+      <c r="S26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T26" s="3">
         <v>-9700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>35100</v>
+      </c>
+      <c r="E27" s="3">
         <v>35300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-43800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>9700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>10300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>17400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-20300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>12500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>24500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-16100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1500</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S27" s="3">
+      <c r="S27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T27" s="3">
         <v>-9700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1818,8 +1876,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1856,12 +1917,12 @@
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3">
         <v>42100</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1874,8 +1935,11 @@
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1930,8 +1994,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1986,8 +2053,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2030,76 +2100,82 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>5</v>
+      <c r="Q32" s="3">
+        <v>0</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
+      <c r="S32" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>35100</v>
+      </c>
+      <c r="E33" s="3">
         <v>35300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-43800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>9700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>10300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>17400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-20300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>5200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>12500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>24500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>26000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1500</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S33" s="3">
+      <c r="S33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T33" s="3">
         <v>-9700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2154,125 +2230,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>35100</v>
+      </c>
+      <c r="E35" s="3">
         <v>35300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-43800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>9700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>10300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>17400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-20300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>5200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>12500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>24500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>26000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1500</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S35" s="3">
+      <c r="S35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T35" s="3">
         <v>-9700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44198</v>
+      </c>
+      <c r="E38" s="2">
         <v>44100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44009</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43918</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43827</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43736</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43645</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43554</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43463</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43372</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43099</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42917</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42826</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2293,8 +2378,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2315,64 +2401,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>373900</v>
+      </c>
+      <c r="E41" s="3">
         <v>377000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>256300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>263200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>39300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>94100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>82800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>72500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>17100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>48900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>34600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>58400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>27600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>24900</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T41" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2427,111 +2517,117 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>58000</v>
+      </c>
+      <c r="E43" s="3">
         <v>49700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>58500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>27600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>44500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>50700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>57400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>58000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>50700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>38900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>45100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>41700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>43200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>39100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>38200</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>111300</v>
+      </c>
+      <c r="E44" s="3">
         <v>111700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>117900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>130400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>127600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>111900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>105700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>111900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>116000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>99300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>94900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>93700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>91200</v>
-      </c>
-      <c r="P44" s="3">
-        <v>89400</v>
       </c>
       <c r="Q44" s="3">
         <v>89400</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>5</v>
+      <c r="R44" s="3">
+        <v>89400</v>
       </c>
       <c r="S44" s="3" t="s">
         <v>5</v>
@@ -2539,120 +2635,129 @@
       <c r="T44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E45" s="3">
         <v>17100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>20500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>20100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>23300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>22000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>25000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>27600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>30800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>24100</v>
-      </c>
-      <c r="M45" s="3">
-        <v>24800</v>
       </c>
       <c r="N45" s="3">
         <v>24800</v>
       </c>
       <c r="O45" s="3">
+        <v>24800</v>
+      </c>
+      <c r="P45" s="3">
         <v>23900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>22700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>22000</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>566700</v>
+      </c>
+      <c r="E46" s="3">
         <v>555400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>453100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>441200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>234600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>278600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>270900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>270100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>214700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>211100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>199400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>218600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>162500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>178800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>174400</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T46" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2707,120 +2812,129 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>681400</v>
+      </c>
+      <c r="E48" s="3">
         <v>666200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>681600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>693500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>714900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>716200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>715900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>695300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>355100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>340600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>328000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>311000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>302300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>290700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>281300</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1067700</v>
+      </c>
+      <c r="E49" s="3">
         <v>1069500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1071400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1073200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1075100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1077000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1078800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1080600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1082700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1099900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1102000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1104100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1106200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1108300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1110400</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2875,8 +2989,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2931,64 +3048,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E52" s="3">
         <v>16300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>12900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>10800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>8100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>6600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>6300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>9100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>10000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>10900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>11000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>11100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>10500</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3043,64 +3166,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2333500</v>
+      </c>
+      <c r="E54" s="3">
         <v>2307500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2219000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2218700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2032700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2078400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2071800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2053100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1661400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1660700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1639400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1644600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1581900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1588900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1576700</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T54" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3121,8 +3250,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3143,111 +3273,115 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>64900</v>
+      </c>
+      <c r="E57" s="3">
         <v>68600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>52400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>60000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>40800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>45300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>47100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>45100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>43600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>30900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>32800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>46100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>35700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>33600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>34400</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E58" s="3">
         <v>3500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>13800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>13700</v>
-      </c>
-      <c r="I58" s="3">
-        <v>8500</v>
       </c>
       <c r="J58" s="3">
         <v>8500</v>
       </c>
       <c r="K58" s="3">
+        <v>8500</v>
+      </c>
+      <c r="L58" s="3">
         <v>7600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7700</v>
-      </c>
-      <c r="N58" s="3">
-        <v>7300</v>
       </c>
       <c r="O58" s="3">
         <v>7300</v>
       </c>
       <c r="P58" s="3">
-        <v>9600</v>
+        <v>7300</v>
       </c>
       <c r="Q58" s="3">
         <v>9600</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>5</v>
+      <c r="R58" s="3">
+        <v>9600</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>5</v>
@@ -3255,232 +3389,247 @@
       <c r="T58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>260200</v>
+      </c>
+      <c r="E59" s="3">
         <v>283900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>256200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>224000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>218600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>244800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>232700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>244100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>160400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>158500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>148800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>168200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>169500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>176000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>167900</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>328700</v>
+      </c>
+      <c r="E60" s="3">
         <v>356000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>311900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>287500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>273200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>303900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>288300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>297700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>211700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>197200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>189300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>221700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>211300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>219200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>211900</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T60" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>651800</v>
+      </c>
+      <c r="E61" s="3">
         <v>648100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>644900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>713200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>555900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>584300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>579100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>578400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>570500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>566900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>566600</v>
-      </c>
-      <c r="N61" s="3">
-        <v>562000</v>
       </c>
       <c r="O61" s="3">
         <v>562000</v>
       </c>
       <c r="P61" s="3">
+        <v>562000</v>
+      </c>
+      <c r="Q61" s="3">
         <v>912700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>913300</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>446600</v>
+      </c>
+      <c r="E62" s="3">
         <v>438400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>441200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>431900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>427200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>424800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>430000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>414400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>136000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>138400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>154000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>149600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>154100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>202400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>202000</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3535,8 +3684,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3591,8 +3743,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3647,64 +3802,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1427000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1442600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1398100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1432600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1256300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1313000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1297400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1290500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>918200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>902500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>909900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>933300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>927300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1334300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1327200</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T66" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3725,8 +3886,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3781,8 +3943,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3837,8 +4002,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3893,8 +4061,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3949,64 +4120,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>142900</v>
+      </c>
+      <c r="E72" s="3">
         <v>107800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>72500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>116300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>107100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>103200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>102000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>91800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>74800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>100100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>94300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>81200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>32200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>8400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>6900</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T72" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4061,8 +4238,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4117,8 +4297,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4173,64 +4356,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>906500</v>
+      </c>
+      <c r="E76" s="3">
         <v>865000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>820900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>786200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>776400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>765500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>774400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>762600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>743200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>758200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>729600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>711300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>654600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>254600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>249500</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T76" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4285,125 +4474,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44198</v>
+      </c>
+      <c r="E80" s="2">
         <v>44100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44009</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43918</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43827</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43736</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43645</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43554</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43463</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43372</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43099</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42917</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42826</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>35100</v>
+      </c>
+      <c r="E81" s="3">
         <v>35300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-43800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>9700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>10300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>17400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-20300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>5200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>12500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>24500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>26000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1500</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S81" s="3">
+      <c r="S81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T81" s="3">
         <v>-9700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4424,64 +4622,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E83" s="3">
         <v>22200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>21900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>24800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>23700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>22300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>20800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>20400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>19600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>15200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>19700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>20000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>19700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>21700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>14600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>14400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>13800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4536,8 +4738,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4592,8 +4797,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4648,8 +4856,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4704,8 +4915,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4760,64 +4974,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>31300</v>
+      </c>
+      <c r="E89" s="3">
         <v>132300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-14600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>86100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-5900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>51700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>36300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>83000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-9300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>35800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>77800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-6000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>28300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>21400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>46500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>6500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4838,64 +5058,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-15000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-12700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-13100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-24900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-24400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-26100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-26000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-25700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-30100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-25900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-22800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-26100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-22900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-23500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-20700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-23300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-20200</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4950,8 +5174,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5006,64 +5233,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-35900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-15000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-12700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-12900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-24700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-24100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-26000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-25800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-25500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-30100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-25900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-22700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-26100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-24400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-23400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-20700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-23200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-21000</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5084,8 +5317,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5132,16 +5366,19 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-171000</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5196,8 +5433,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5252,8 +5492,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5308,64 +5551,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E100" s="3">
         <v>3500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>20800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>150600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-24400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-16100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>8500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>8700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-3100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5420,60 +5669,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E102" s="3">
         <v>120800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-6500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>223800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-55000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>11400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>10000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>55900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-32100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>14200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-24200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>54800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-23400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-5100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>25400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-18800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>4100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EYE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EYE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
   <si>
     <t>EYE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,271 +665,283 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E7" s="2">
         <v>44198</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44009</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43918</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43827</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43736</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43645</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43554</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43463</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43372</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43099</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42917</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42826</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>534200</v>
+      </c>
+      <c r="E8" s="3">
         <v>496700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>485400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>260000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>469700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>401800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>431900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>429500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>461200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>355900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>387400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>385500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>408000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>321800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>346100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>337500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>369900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>277100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>301200</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>224700</v>
+      </c>
+      <c r="E9" s="3">
         <v>216500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>210800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>140800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>218600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>187500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>204500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>202500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>212000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>173500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>182600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>177100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>180500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>152400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>162400</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T9" s="3">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="3">
         <v>130300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>138700</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>309500</v>
+      </c>
+      <c r="E10" s="3">
         <v>280200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>274600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>119200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>251100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>214300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>227400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>227000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>249200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>182400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>204800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>208400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>227500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>169400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>183700</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T10" s="3">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="3">
         <v>146800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>162500</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -951,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1010,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1069,126 +1085,135 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E14" s="3">
         <v>1100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>7200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>15800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>13300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>15500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2100</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>3100</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>8000</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>7100</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E15" s="3">
         <v>22600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>22200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>21900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>24800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>23700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>22300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>20800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>20400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>20300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>19300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>17600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>17900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>17600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>15400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>14600</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>14400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>13800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1207,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>472700</v>
+      </c>
+      <c r="E17" s="3">
         <v>439800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>430600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>301600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>452800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>393400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>430600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>407700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>428800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>377800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>389500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>360600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>369100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>327600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>329500</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T17" s="3">
+      <c r="T17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U17" s="3">
         <v>280500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>286900</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>61500</v>
+      </c>
+      <c r="E18" s="3">
         <v>56900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>54800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-41600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>16900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>8400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>21800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>32400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-21900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>24900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>38900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>16600</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U18" s="3">
         <v>-3400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1348,8 +1380,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1395,256 +1428,271 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>5</v>
+      <c r="R20" s="3">
+        <v>0</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
+      <c r="T20" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>85000</v>
+      </c>
+      <c r="E21" s="3">
         <v>79500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>77000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-19700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>41700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>32000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>23700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>42500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>52800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>17300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>42600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>56700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>11800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>31900</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U21" s="3">
         <v>10400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>27500</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E22" s="3">
         <v>12800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>12500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>15600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>7500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>7400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>7900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>9000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>9100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>9300</v>
-      </c>
-      <c r="M22" s="3">
-        <v>9400</v>
       </c>
       <c r="N22" s="3">
         <v>9400</v>
       </c>
       <c r="O22" s="3">
+        <v>9400</v>
+      </c>
+      <c r="P22" s="3">
         <v>9300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>16400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>14900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>14600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>14200</v>
-      </c>
-      <c r="T22" s="3">
-        <v>9700</v>
       </c>
       <c r="U22" s="3">
         <v>9700</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>9700</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>55100</v>
+      </c>
+      <c r="E23" s="3">
         <v>44100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>42300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-57200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>9500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-6500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>12700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>23300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-31200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-11500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>15500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>29500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-22200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>25500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-13100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E24" s="3">
         <v>9100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>7000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-13400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-3000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-7700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-10900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-16700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>5100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>8500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-3400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1702,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>43400</v>
+      </c>
+      <c r="E26" s="3">
         <v>35100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>35300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-43800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>9700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>10300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>17400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-20300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>12500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>24500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-16100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1500</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T26" s="3">
+      <c r="T26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U26" s="3">
         <v>-9700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>43400</v>
+      </c>
+      <c r="E27" s="3">
         <v>35100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>35300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-43800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>9700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>10300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>17400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-20300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>5200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>12500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>24500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-16100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1500</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T27" s="3">
+      <c r="T27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U27" s="3">
         <v>-9700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1879,31 +1936,34 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
@@ -1920,12 +1980,12 @@
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3">
         <v>42100</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1938,8 +1998,11 @@
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1997,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2056,8 +2122,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2103,79 +2172,85 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>5</v>
+      <c r="R32" s="3">
+        <v>0</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
+      <c r="T32" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>43400</v>
+      </c>
+      <c r="E33" s="3">
         <v>35100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>35300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-43800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>9700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>10300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>17400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-20300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>5200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>12500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>24500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>26000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1500</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S33" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T33" s="3">
+      <c r="T33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U33" s="3">
         <v>-9700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2233,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>43400</v>
+      </c>
+      <c r="E35" s="3">
         <v>35100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>35300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-43800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>9700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>10300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>17400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-20300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>5200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>12500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>24500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>26000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1500</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S35" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T35" s="3">
+      <c r="T35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U35" s="3">
         <v>-9700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E38" s="2">
         <v>44198</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44009</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43918</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43827</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43736</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43645</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43554</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43463</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43372</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43099</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42917</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42826</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2379,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2402,67 +2487,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>453800</v>
+      </c>
+      <c r="E41" s="3">
         <v>373900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>377000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>256300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>263200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>39300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>94100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>82800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>72500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>17100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>48900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>34600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>58400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>27600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>24900</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="U41" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2520,117 +2609,123 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E43" s="3">
         <v>58000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>49700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>58500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>27600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>44500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>50700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>57400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>58000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>50700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>38900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>45100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>41700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>43200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>39100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>38200</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T43" s="3" t="s">
         <v>5</v>
       </c>
       <c r="U43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>119500</v>
+      </c>
+      <c r="E44" s="3">
         <v>111300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>111700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>117900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>130400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>127600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>111900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>105700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>111900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>116000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>99300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>94900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>93700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>91200</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>89400</v>
       </c>
       <c r="R44" s="3">
         <v>89400</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>5</v>
+      <c r="S44" s="3">
+        <v>89400</v>
       </c>
       <c r="T44" s="3" t="s">
         <v>5</v>
@@ -2638,126 +2733,135 @@
       <c r="U44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E45" s="3">
         <v>23500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>17100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>20500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>20100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>23300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>22000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>25000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>27600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>30800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>24100</v>
-      </c>
-      <c r="N45" s="3">
-        <v>24800</v>
       </c>
       <c r="O45" s="3">
         <v>24800</v>
       </c>
       <c r="P45" s="3">
+        <v>24800</v>
+      </c>
+      <c r="Q45" s="3">
         <v>23900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>22700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>22000</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T45" s="3" t="s">
         <v>5</v>
       </c>
       <c r="U45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>657000</v>
+      </c>
+      <c r="E46" s="3">
         <v>566700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>555400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>453100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>441200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>234600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>278600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>270900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>270100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>214700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>211100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>199400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>218600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>162500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>178800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>174400</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>5</v>
       </c>
       <c r="U46" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2815,126 +2919,135 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>679800</v>
+      </c>
+      <c r="E48" s="3">
         <v>681400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>666200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>681600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>693500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>714900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>716200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>715900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>695300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>355100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>340600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>328000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>311000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>302300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>290700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>281300</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="U48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1065800</v>
+      </c>
+      <c r="E49" s="3">
         <v>1067700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1069500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1071400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1073200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1075100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1077000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1078800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1080600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1082700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1099900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1102000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1104100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1106200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1108300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1110400</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="U49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2992,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3051,67 +3167,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E52" s="3">
         <v>17700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>16300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>12900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>10800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>8100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>6600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>6300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>9100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>10000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>10900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>11000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>11100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>10500</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="U52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3169,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2419800</v>
+      </c>
+      <c r="E54" s="3">
         <v>2333500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2307500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2219000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2218700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2032700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2078400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2071800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2053100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1661400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1660700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1639400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1644600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1581900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1588900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1576700</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>5</v>
       </c>
       <c r="U54" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3251,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3274,117 +3403,121 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>79800</v>
+      </c>
+      <c r="E57" s="3">
         <v>64900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>68600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>52400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>60000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>40800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>45300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>47100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>45100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>43600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>30900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>32800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>46100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>35700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>33600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>34400</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="U57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E58" s="3">
         <v>3600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>13800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>13700</v>
-      </c>
-      <c r="J58" s="3">
-        <v>8500</v>
       </c>
       <c r="K58" s="3">
         <v>8500</v>
       </c>
       <c r="L58" s="3">
+        <v>8500</v>
+      </c>
+      <c r="M58" s="3">
         <v>7600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7700</v>
-      </c>
-      <c r="O58" s="3">
-        <v>7300</v>
       </c>
       <c r="P58" s="3">
         <v>7300</v>
       </c>
       <c r="Q58" s="3">
-        <v>9600</v>
+        <v>7300</v>
       </c>
       <c r="R58" s="3">
         <v>9600</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>5</v>
+      <c r="S58" s="3">
+        <v>9600</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>5</v>
@@ -3392,244 +3525,259 @@
       <c r="U58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>275900</v>
+      </c>
+      <c r="E59" s="3">
         <v>260200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>283900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>256200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>224000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>218600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>244800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>232700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>244100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>160400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>158500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>148800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>168200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>169500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>176000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>167900</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="U59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>359800</v>
+      </c>
+      <c r="E60" s="3">
         <v>328700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>356000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>311900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>287500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>273200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>303900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>288300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>297700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>211700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>197200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>189300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>221700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>211300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>219200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>211900</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T60" s="3" t="s">
         <v>5</v>
       </c>
       <c r="U60" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>733700</v>
+      </c>
+      <c r="E61" s="3">
         <v>651800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>648100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>644900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>713200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>555900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>584300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>579100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>578400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>570500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>566900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>566600</v>
-      </c>
-      <c r="O61" s="3">
-        <v>562000</v>
       </c>
       <c r="P61" s="3">
         <v>562000</v>
       </c>
       <c r="Q61" s="3">
+        <v>562000</v>
+      </c>
+      <c r="R61" s="3">
         <v>912700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>913300</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>438800</v>
+      </c>
+      <c r="E62" s="3">
         <v>446600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>438400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>441200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>431900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>427200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>424800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>430000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>414400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>136000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>138400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>154000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>149600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>154100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>202400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>202000</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3687,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3746,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3805,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1532300</v>
+      </c>
+      <c r="E66" s="3">
         <v>1427000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1442600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1398100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1432600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1256300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1313000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1297400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1290500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>918200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>902500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>909900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>933300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>927300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1334300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1327200</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="U66" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3887,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3946,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4005,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4064,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4123,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>193600</v>
+      </c>
+      <c r="E72" s="3">
         <v>142900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>107800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>72500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>116300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>107100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>103200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>102000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>91800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>74800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>100100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>94300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>81200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>32200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>8400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>6900</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="U72" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4241,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4300,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4359,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>887500</v>
+      </c>
+      <c r="E76" s="3">
         <v>906500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>865000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>820900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>786200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>776400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>765500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>774400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>762600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>743200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>758200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>729600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>711300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>654600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>254600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>249500</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>5</v>
       </c>
       <c r="U76" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4477,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E80" s="2">
         <v>44198</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44009</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43918</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43827</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43736</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43645</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43554</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43463</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43372</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43099</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42917</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42826</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>43400</v>
+      </c>
+      <c r="E81" s="3">
         <v>35100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>35300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-43800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>9700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>10300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>17400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-20300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>5200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>12500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>24500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>26000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1500</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S81" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T81" s="3">
+      <c r="T81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U81" s="3">
         <v>-9700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4623,67 +4820,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E83" s="3">
         <v>22600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>22200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>21900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>24800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>23700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>22300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>20800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>20400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>19600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>15200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>19700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>20000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>19700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>21700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>14600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>14400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>13800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4741,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4800,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4859,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4918,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4977,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>97700</v>
+      </c>
+      <c r="E89" s="3">
         <v>31300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>132300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-14600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>86100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-5900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>51700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>36300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>83000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-9300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>35800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>77800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>28300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>21400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>46500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>6500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5059,67 +5278,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-36000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-15000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-12700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-13100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-24900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-24400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-26100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-26000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-25700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-30100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-25900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-22800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-26100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-22900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-23500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-20700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-23300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-20200</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5177,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5236,67 +5462,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-35900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-15000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-12700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-12900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-24700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-24100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-26000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-25800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-25500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-30100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-25900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-22700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-26100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-24400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-23400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-20700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-23200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-21000</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5318,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5369,16 +5602,19 @@
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-171000</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5436,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5495,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5554,67 +5796,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E100" s="3">
         <v>1400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>3500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>20800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>150600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-24400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-16100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>8500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>8700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-3100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5672,63 +5920,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>80200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>120800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-6500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>223800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-55000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>11400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>10000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>55900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-32100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>14200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-24200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>54800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-23400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-5100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>25400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-18800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>4100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EYE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EYE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
   <si>
     <t>EYE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,283 +665,295 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E7" s="2">
         <v>44289</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44198</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44009</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43918</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43827</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43736</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43645</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43554</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43463</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43372</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43099</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42917</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42826</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>549500</v>
+      </c>
+      <c r="E8" s="3">
         <v>534200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>496700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>485400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>260000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>469700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>401800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>431900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>429500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>461200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>355900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>387400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>385500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>408000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>321800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>346100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>337500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>369900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>277100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>301200</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>235900</v>
+      </c>
+      <c r="E9" s="3">
         <v>224700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>216500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>210800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>140800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>218600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>187500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>204500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>202500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>212000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>173500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>182600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>177100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>180500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>152400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>162400</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U9" s="3">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V9" s="3">
         <v>130300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>138700</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>313600</v>
+      </c>
+      <c r="E10" s="3">
         <v>309500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>280200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>274600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>119200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>251100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>214300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>227400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>227000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>249200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>182400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>204800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>208400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>227500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>169400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>183700</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U10" s="3">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V10" s="3">
         <v>146800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>162500</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1026,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,132 +1104,141 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>800</v>
+      </c>
+      <c r="E14" s="3">
         <v>1400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>7200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>15800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>13300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>15500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2100</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>3100</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>8000</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>7100</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E15" s="3">
         <v>23600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>22600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>22200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>21900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>24800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>23700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>22300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>20800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>20400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>20300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>19300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>17600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>17900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>17600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>15400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>14600</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>14400</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>13800</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>494700</v>
+      </c>
+      <c r="E17" s="3">
         <v>472700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>439800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>430600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>301600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>452800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>393400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>430600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>407700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>428800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>377800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>389500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>360600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>369100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>327600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>329500</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U17" s="3">
+      <c r="U17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V17" s="3">
         <v>280500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>286900</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>54800</v>
+      </c>
+      <c r="E18" s="3">
         <v>61500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>56900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>54800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-41600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>16900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>8400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>21800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>32400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-21900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>24900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>38900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-5800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>16600</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U18" s="3">
+      <c r="U18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V18" s="3">
         <v>-3400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1431,268 +1464,283 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>5</v>
+      <c r="S20" s="3">
+        <v>0</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
+      <c r="U20" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>78900</v>
+      </c>
+      <c r="E21" s="3">
         <v>85000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>79500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>77000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-19700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>41700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>32000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>23700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>42500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>52800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>17300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>42600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>56700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>11800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>31900</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V21" s="3">
         <v>10400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>27500</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E22" s="3">
         <v>6300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>12800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>12500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>15600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>7500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>7400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>7900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>9000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>9100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>9300</v>
-      </c>
-      <c r="N22" s="3">
-        <v>9400</v>
       </c>
       <c r="O22" s="3">
         <v>9400</v>
       </c>
       <c r="P22" s="3">
+        <v>9400</v>
+      </c>
+      <c r="Q22" s="3">
         <v>9300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>16400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>14900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>14600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>14200</v>
-      </c>
-      <c r="U22" s="3">
-        <v>9700</v>
       </c>
       <c r="V22" s="3">
         <v>9700</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>9700</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>44600</v>
+      </c>
+      <c r="E23" s="3">
         <v>55100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>44100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>42300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-57200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>9500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-6500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>12700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>23300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-31200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-11500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>15500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>29500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-22200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>25500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-13100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E24" s="3">
         <v>11700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>9100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>7000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-13400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-3000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-7700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-10900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-16700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-6100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>8500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-3400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>37600</v>
+      </c>
+      <c r="E26" s="3">
         <v>43400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>35100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>35300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-43800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>9700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>10300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>17400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-20300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>5200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>12500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>24500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-16100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1500</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U26" s="3">
+      <c r="U26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V26" s="3">
         <v>-9700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>37600</v>
+      </c>
+      <c r="E27" s="3">
         <v>43400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>35100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>35300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-43800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>9700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>10300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>17400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-20300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>5200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>12500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>24500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-16100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1500</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U27" s="3">
+      <c r="U27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V27" s="3">
         <v>-9700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1965,8 +2025,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
@@ -1983,12 +2043,12 @@
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3">
         <v>42100</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2001,8 +2061,11 @@
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2175,82 +2244,88 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>5</v>
+      <c r="S32" s="3">
+        <v>0</v>
       </c>
       <c r="T32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
+      <c r="U32" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>37600</v>
+      </c>
+      <c r="E33" s="3">
         <v>43400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>35100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>35300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-43800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>9700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>10300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>17400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-20300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>5200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>12500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>24500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>26000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1500</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T33" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U33" s="3">
+      <c r="U33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V33" s="3">
         <v>-9700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>37600</v>
+      </c>
+      <c r="E35" s="3">
         <v>43400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>35100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>35300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-43800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>9700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>10300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>17400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-20300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>5200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>12500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>24500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>26000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1500</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T35" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U35" s="3">
+      <c r="U35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V35" s="3">
         <v>-9700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E38" s="2">
         <v>44289</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44198</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44009</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43918</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43827</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43736</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43645</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43554</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43463</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43372</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43099</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42917</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42826</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>408300</v>
+      </c>
+      <c r="E41" s="3">
         <v>453800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>373900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>377000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>256300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>263200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>39300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>94100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>82800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>72500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>17100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>48900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>34600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>58400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>27600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>24900</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V41" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,123 +2701,129 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>54700</v>
+      </c>
+      <c r="E43" s="3">
         <v>60000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>58000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>49700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>58500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>27600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>44500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>50700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>57400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>58000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>50700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>38900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>45100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>41700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>43200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>39100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>38200</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U43" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>120900</v>
+      </c>
+      <c r="E44" s="3">
         <v>119500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>111300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>111700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>117900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>130400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>127600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>111900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>105700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>111900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>116000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>99300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>94900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>93700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>91200</v>
-      </c>
-      <c r="R44" s="3">
-        <v>89400</v>
       </c>
       <c r="S44" s="3">
         <v>89400</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>5</v>
+      <c r="T44" s="3">
+        <v>89400</v>
       </c>
       <c r="U44" s="3" t="s">
         <v>5</v>
@@ -2736,132 +2831,141 @@
       <c r="V44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E45" s="3">
         <v>23600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>23500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>17100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>20500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>20100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>23300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>22000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>25000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>27600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>30800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>24100</v>
-      </c>
-      <c r="O45" s="3">
-        <v>24800</v>
       </c>
       <c r="P45" s="3">
         <v>24800</v>
       </c>
       <c r="Q45" s="3">
+        <v>24800</v>
+      </c>
+      <c r="R45" s="3">
         <v>23900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>22700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>22000</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U45" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>608400</v>
+      </c>
+      <c r="E46" s="3">
         <v>657000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>566700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>555400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>453100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>441200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>234600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>278600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>270900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>270100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>214700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>211100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>199400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>218600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>162500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>178800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>174400</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U46" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V46" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2922,132 +3026,141 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>679200</v>
+      </c>
+      <c r="E48" s="3">
         <v>679800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>681400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>666200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>681600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>693500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>714900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>716200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>715900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>695300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>355100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>340600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>328000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>311000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>302300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>290700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>281300</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1063900</v>
+      </c>
+      <c r="E49" s="3">
         <v>1065800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1067700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1069500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1071400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1073200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1075100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1077000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1078800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1080600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1082700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1099900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1102000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1104100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1106200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1108300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1110400</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E52" s="3">
         <v>17300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>17700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>16300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>12900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>10800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>8100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>6600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>9100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>10000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>10900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>11000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>11100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>10500</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2369200</v>
+      </c>
+      <c r="E54" s="3">
         <v>2419800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2333500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2307500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2219000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2218700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2032700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2078400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2071800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2053100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1661400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1660700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1639400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1644600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1581900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1588900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1576700</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U54" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V54" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,123 +3533,127 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>77700</v>
+      </c>
+      <c r="E57" s="3">
         <v>79800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>64900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>68600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>52400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>60000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>40800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>45300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>47100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>45100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>43600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>30900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>32800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>46100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>35700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>33600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>34400</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E58" s="3">
         <v>4200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>13800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>13700</v>
-      </c>
-      <c r="K58" s="3">
-        <v>8500</v>
       </c>
       <c r="L58" s="3">
         <v>8500</v>
       </c>
       <c r="M58" s="3">
+        <v>8500</v>
+      </c>
+      <c r="N58" s="3">
         <v>7600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7700</v>
-      </c>
-      <c r="P58" s="3">
-        <v>7300</v>
       </c>
       <c r="Q58" s="3">
         <v>7300</v>
       </c>
       <c r="R58" s="3">
-        <v>9600</v>
+        <v>7300</v>
       </c>
       <c r="S58" s="3">
         <v>9600</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>5</v>
+      <c r="T58" s="3">
+        <v>9600</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>5</v>
@@ -3528,256 +3661,271 @@
       <c r="V58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>288500</v>
+      </c>
+      <c r="E59" s="3">
         <v>275900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>260200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>283900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>256200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>224000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>218600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>244800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>232700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>244100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>160400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>158500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>148800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>168200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>169500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>176000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>167900</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>370500</v>
+      </c>
+      <c r="E60" s="3">
         <v>359800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>328700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>356000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>311900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>287500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>273200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>303900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>288300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>297700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>211700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>197200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>189300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>221700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>211300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>219200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>211900</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U60" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V60" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>616200</v>
+      </c>
+      <c r="E61" s="3">
         <v>733700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>651800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>648100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>644900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>713200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>555900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>584300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>579100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>578400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>570500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>566900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>566600</v>
-      </c>
-      <c r="P61" s="3">
-        <v>562000</v>
       </c>
       <c r="Q61" s="3">
         <v>562000</v>
       </c>
       <c r="R61" s="3">
+        <v>562000</v>
+      </c>
+      <c r="S61" s="3">
         <v>912700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>913300</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>444200</v>
+      </c>
+      <c r="E62" s="3">
         <v>438800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>446600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>438400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>441200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>431900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>427200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>424800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>430000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>414400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>136000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>138400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>154000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>149600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>154100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>202400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>202000</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1430900</v>
+      </c>
+      <c r="E66" s="3">
         <v>1532300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1427000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1442600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1398100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1432600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1256300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1313000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1297400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1290500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>918200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>902500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>909900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>933300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>927300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1334300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1327200</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V66" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>231200</v>
+      </c>
+      <c r="E72" s="3">
         <v>193600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>142900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>107800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>72500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>116300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>107100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>103200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>102000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>91800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>74800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>100100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>94300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>81200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>32200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>8400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>6900</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V72" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>938300</v>
+      </c>
+      <c r="E76" s="3">
         <v>887500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>906500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>865000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>820900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>786200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>776400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>765500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>774400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>762600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>743200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>758200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>729600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>711300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>654600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>254600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>249500</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V76" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E80" s="2">
         <v>44289</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44198</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44009</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43918</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43827</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43736</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43645</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43554</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43463</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43372</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43099</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42917</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42826</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>37600</v>
+      </c>
+      <c r="E81" s="3">
         <v>43400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>35100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>35300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-43800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>9700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>10300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>17400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-20300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>5200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>12500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>24500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>26000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1500</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T81" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U81" s="3">
+      <c r="U81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V81" s="3">
         <v>-9700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E83" s="3">
         <v>23600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>22600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>22200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>21900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>24800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>23700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>22300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>20800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>20400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>19600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>15200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>19700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>20000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>19700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>21700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>14600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>14400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>13800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>92200</v>
+      </c>
+      <c r="E89" s="3">
         <v>97700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>31300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>132300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-14600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>86100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-5900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>51700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>36300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>83000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-9300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>35800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>77800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-6000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>28300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>21400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>46500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>6500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-16400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-36000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-15000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-12700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-13100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-24900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-24400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-26100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-26000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-25700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-30100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-25900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-22800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-26100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-22900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-23500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-20700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-23300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-20200</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-16400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-35900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-15000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-12700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-12900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-24700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-24100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-26000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-25800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-25500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-30100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-25900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-22700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-26100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-24400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-23400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-20700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-23200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-21000</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5605,16 +5838,19 @@
         <v>0</v>
       </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-171000</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,70 +6041,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-115400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>3500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>20800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>150600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-24400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-16100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>8500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>8700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-3100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-45700</v>
+      </c>
+      <c r="E102" s="3">
         <v>80200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>120800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-6500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>223800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-55000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>11400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>10000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>55900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-32100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>14200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-24200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>54800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-23400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-5100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>25400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-18800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>4100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EYE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EYE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
   <si>
     <t>EYE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,307 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E7" s="2">
         <v>44380</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44289</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44198</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44009</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43918</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43827</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43736</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43645</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43554</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43463</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43372</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43099</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42917</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42826</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>518000</v>
+      </c>
+      <c r="E8" s="3">
         <v>549500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>534200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>496700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>485400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>260000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>469700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>401800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>431900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>429500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>461200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>355900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>387400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>385500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>408000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>321800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>346100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>337500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>369900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>277100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>301200</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>226500</v>
+      </c>
+      <c r="E9" s="3">
         <v>235900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>224700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>216500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>210800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>140800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>218600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>187500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>204500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>202500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>212000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>173500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>182600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>177100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>180500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>152400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>162400</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="3">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W9" s="3">
         <v>130300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>138700</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>291500</v>
+      </c>
+      <c r="E10" s="3">
         <v>313600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>309500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>280200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>274600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>119200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>251100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>214300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>227400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>227000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>249200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>182400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>204800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>208400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>227500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>169400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>183700</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V10" s="3">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W10" s="3">
         <v>146800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>162500</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +989,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1055,11 @@
       <c r="W12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,138 +1123,147 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>700</v>
+      </c>
+      <c r="E14" s="3">
         <v>800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>7200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>15800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>13300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>15500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2100</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>3100</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>8000</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>7100</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>25100</v>
+      </c>
+      <c r="E15" s="3">
         <v>24000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>23600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>22600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>22200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>21900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>24800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>23700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>22300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>20800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>20400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>20300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>19300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>17600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>17900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>17600</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>15400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>14600</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>14400</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>13800</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1284,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>467300</v>
+      </c>
+      <c r="E17" s="3">
         <v>494700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>472700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>439800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>430600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>301600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>452800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>393400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>430600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>407700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>428800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>377800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>389500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>360600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>369100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>327600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>329500</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V17" s="3">
+      <c r="V17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W17" s="3">
         <v>280500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>286900</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>50700</v>
+      </c>
+      <c r="E18" s="3">
         <v>54800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>61500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>56900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>54800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-41600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>16900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>8400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>21800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>32400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-21900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>24900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>38900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-5800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>16600</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V18" s="3">
+      <c r="V18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W18" s="3">
         <v>-3400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1446,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1467,280 +1500,295 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>5</v>
+      <c r="T20" s="3">
+        <v>0</v>
       </c>
       <c r="U20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
+      <c r="V20" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>75800</v>
+      </c>
+      <c r="E21" s="3">
         <v>78900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>85000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>79500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>77000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-19700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>41700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>32000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>23700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>42500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>52800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>17300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>42600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>56700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>11800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>31900</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W21" s="3">
         <v>10400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>27500</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E22" s="3">
         <v>10200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>6300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>12800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>12500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>15600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>7500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>7400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>7900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>9000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>9100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>9300</v>
-      </c>
-      <c r="O22" s="3">
-        <v>9400</v>
       </c>
       <c r="P22" s="3">
         <v>9400</v>
       </c>
       <c r="Q22" s="3">
+        <v>9400</v>
+      </c>
+      <c r="R22" s="3">
         <v>9300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>16400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>14900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>14600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>14200</v>
-      </c>
-      <c r="V22" s="3">
-        <v>9700</v>
       </c>
       <c r="W22" s="3">
         <v>9700</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>9700</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E23" s="3">
         <v>44600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>55100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>44100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>42300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-57200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>9500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>12700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>23300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-31200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-11500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>15500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>29500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-22200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>25500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-13100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E24" s="3">
         <v>7000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>11700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>9100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>7000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-13400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-3000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-7700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-10900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-16700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>5100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-6100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>8500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-3400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1852,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E26" s="3">
         <v>37600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>43400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>35100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>35300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-43800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>9700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>10300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>17400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-20300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>5200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>12500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>24500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-16100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1500</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V26" s="3">
+      <c r="V26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W26" s="3">
         <v>-9700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E27" s="3">
         <v>37600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>43400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>35100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>35300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-43800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>9700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>10300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>17400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-20300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>5200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>12500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>24500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-16100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1500</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V27" s="3">
+      <c r="V27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W27" s="3">
         <v>-9700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2056,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2028,8 +2088,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
@@ -2046,12 +2106,12 @@
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3">
         <v>42100</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2064,8 +2124,11 @@
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2192,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2260,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2247,85 +2316,91 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>5</v>
+      <c r="T32" s="3">
+        <v>0</v>
       </c>
       <c r="U32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
+      <c r="V32" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E33" s="3">
         <v>37600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>43400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>35100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>35300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-43800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>9700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>10300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>17400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-20300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>5200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>12500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>24500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>26000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1500</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U33" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V33" s="3">
+      <c r="V33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W33" s="3">
         <v>-9700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2464,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E35" s="3">
         <v>37600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>43400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>35100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>35300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-43800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>9700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>10300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>17400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-20300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>5200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>12500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>24500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>26000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1500</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U35" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V35" s="3">
+      <c r="V35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W35" s="3">
         <v>-9700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E38" s="2">
         <v>44380</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44289</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44198</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44009</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43918</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43827</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43736</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43645</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43554</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43463</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43372</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43099</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42917</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42826</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2633,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2659,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>439100</v>
+      </c>
+      <c r="E41" s="3">
         <v>408300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>453800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>373900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>377000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>256300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>263200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>39300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>94100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>82800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>72500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>17100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>48900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>34600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>58400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>27600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>24900</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="W41" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,129 +2793,135 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>54100</v>
+      </c>
+      <c r="E43" s="3">
         <v>54700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>60000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>58000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>49700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>58500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>27600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>44500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>50700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>57400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>58000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>50700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>38900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>45100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>41700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>43200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>39100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>38200</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V43" s="3" t="s">
         <v>5</v>
       </c>
       <c r="W43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>124600</v>
+      </c>
+      <c r="E44" s="3">
         <v>120900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>119500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>111300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>111700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>117900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>130400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>127600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>111900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>105700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>111900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>116000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>99300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>94900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>93700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>91200</v>
-      </c>
-      <c r="S44" s="3">
-        <v>89400</v>
       </c>
       <c r="T44" s="3">
         <v>89400</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>5</v>
+      <c r="U44" s="3">
+        <v>89400</v>
       </c>
       <c r="V44" s="3" t="s">
         <v>5</v>
@@ -2834,138 +2929,147 @@
       <c r="W44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>28600</v>
+      </c>
+      <c r="E45" s="3">
         <v>24500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>23600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>23500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>17100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>20500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>20100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>23300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>22000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>25000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>27600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>30800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>24100</v>
-      </c>
-      <c r="P45" s="3">
-        <v>24800</v>
       </c>
       <c r="Q45" s="3">
         <v>24800</v>
       </c>
       <c r="R45" s="3">
+        <v>24800</v>
+      </c>
+      <c r="S45" s="3">
         <v>23900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>22700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>22000</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V45" s="3" t="s">
         <v>5</v>
       </c>
       <c r="W45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>646400</v>
+      </c>
+      <c r="E46" s="3">
         <v>608400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>657000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>566700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>555400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>453100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>441200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>234600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>278600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>270900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>270100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>214700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>211100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>199400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>218600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>162500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>178800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>174400</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V46" s="3" t="s">
         <v>5</v>
       </c>
       <c r="W46" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,138 +3133,147 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>678200</v>
+      </c>
+      <c r="E48" s="3">
         <v>679200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>679800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>681400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>666200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>681600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>693500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>714900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>716200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>715900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>695300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>355100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>340600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>328000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>311000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>302300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>290700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>281300</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="W48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1062100</v>
+      </c>
+      <c r="E49" s="3">
         <v>1063900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1065800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1067700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1069500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1071400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1073200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1075100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1077000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1078800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1080600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1082700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1099900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1102000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1104100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1106200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1108300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1110400</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="W49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3337,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3405,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E52" s="3">
         <v>17700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>17300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>17700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>16300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>12900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>10800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>8100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>8900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>9100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>10000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>10900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>11000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>11100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>10500</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="W52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3541,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2405500</v>
+      </c>
+      <c r="E54" s="3">
         <v>2369200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2419800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2333500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2307500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2219000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2218700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2032700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2078400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2071800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2053100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1661400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1660700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1639400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1644600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1581900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1588900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1576700</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V54" s="3" t="s">
         <v>5</v>
       </c>
       <c r="W54" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3637,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,129 +3663,133 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>76100</v>
+      </c>
+      <c r="E57" s="3">
         <v>77700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>79800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>64900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>68600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>52400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>60000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>40800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>45300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>47100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>45100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>43600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>30900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>32800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>46100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>35700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>33600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>34400</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="W57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E58" s="3">
         <v>4300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>13800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>13700</v>
-      </c>
-      <c r="L58" s="3">
-        <v>8500</v>
       </c>
       <c r="M58" s="3">
         <v>8500</v>
       </c>
       <c r="N58" s="3">
+        <v>8500</v>
+      </c>
+      <c r="O58" s="3">
         <v>7600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>7700</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>7300</v>
       </c>
       <c r="R58" s="3">
         <v>7300</v>
       </c>
       <c r="S58" s="3">
-        <v>9600</v>
+        <v>7300</v>
       </c>
       <c r="T58" s="3">
         <v>9600</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>5</v>
+      <c r="U58" s="3">
+        <v>9600</v>
       </c>
       <c r="V58" s="3" t="s">
         <v>5</v>
@@ -3664,268 +3797,283 @@
       <c r="W58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>268300</v>
+      </c>
+      <c r="E59" s="3">
         <v>288500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>275900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>260200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>283900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>256200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>224000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>218600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>244800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>232700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>244100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>160400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>158500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>148800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>168200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>169500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>176000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>167900</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="W59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>348800</v>
+      </c>
+      <c r="E60" s="3">
         <v>370500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>359800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>328700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>356000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>311900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>287500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>273200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>303900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>288300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>297700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>211700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>197200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>189300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>221700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>211300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>219200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>211900</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V60" s="3" t="s">
         <v>5</v>
       </c>
       <c r="W60" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>615600</v>
+      </c>
+      <c r="E61" s="3">
         <v>616200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>733700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>651800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>648100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>644900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>713200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>555900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>584300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>579100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>578400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>570500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>566900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>566600</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>562000</v>
       </c>
       <c r="R61" s="3">
         <v>562000</v>
       </c>
       <c r="S61" s="3">
+        <v>562000</v>
+      </c>
+      <c r="T61" s="3">
         <v>912700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>913300</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>452500</v>
+      </c>
+      <c r="E62" s="3">
         <v>444200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>438800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>446600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>438400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>441200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>431900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>427200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>424800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>430000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>414400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>136000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>138400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>154000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>149600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>154100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>202400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>202000</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="W62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4137,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4205,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4273,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1416900</v>
+      </c>
+      <c r="E66" s="3">
         <v>1430900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1532300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1427000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1442600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1398100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1432600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1256300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1313000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1297400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1290500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>918200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>902500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>909900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>933300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>927300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1334300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1327200</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="W66" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4369,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4435,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4503,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4571,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4639,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>272200</v>
+      </c>
+      <c r="E72" s="3">
         <v>231200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>193600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>142900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>107800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>72500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>116300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>107100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>103200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>102000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>91800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>74800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>100100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>94300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>81200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>32200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>8400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>6900</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="W72" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4775,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4843,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4911,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>988600</v>
+      </c>
+      <c r="E76" s="3">
         <v>938300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>887500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>906500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>865000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>820900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>786200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>776400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>765500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>774400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>762600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>743200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>758200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>729600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>711300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>654600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>254600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>249500</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V76" s="3" t="s">
         <v>5</v>
       </c>
       <c r="W76" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5047,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E80" s="2">
         <v>44380</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44289</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44198</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44009</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43918</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43827</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43736</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43645</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43554</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43463</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43372</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43099</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42917</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42826</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E81" s="3">
         <v>37600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>43400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>35100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>35300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-43800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>9700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>10300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>17400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-20300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>5200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>12500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>24500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>26000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1500</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U81" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V81" s="3">
+      <c r="V81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W81" s="3">
         <v>-9700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5216,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>25100</v>
+      </c>
+      <c r="E83" s="3">
         <v>24000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>23600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>22600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>22200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>21900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>24800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>23700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>22300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>20800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>20400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>19600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>15200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>19700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>20000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>19700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>21700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>14600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>14400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>13800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5350,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5418,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5486,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5554,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5622,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E89" s="3">
         <v>92200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>97700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>31300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>132300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-14600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>86100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-5900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>51700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>36300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>83000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-9300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>35800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>77800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-6000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>28300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>21400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>46500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>6500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5718,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-22400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-16400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-36000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-15000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-12700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-13100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-24900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-24400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-26100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-26000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-25700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-30100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-25900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-22800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-26100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-22900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-23500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-20700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-23300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-20200</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5852,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5920,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-22400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-16400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-35900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-15000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-12700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-12900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-24700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-24100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-26000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-25800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-25500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-30100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-25900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-22700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-26100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-24400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-23400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-20700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-23200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-21000</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6016,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5841,16 +6074,19 @@
         <v>0</v>
       </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-171000</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6150,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6218,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,73 +6286,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-115400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>3500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>20800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>150600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-24400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-16100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>8500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>8700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-3100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-2100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,69 +6422,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>30800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-45700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>80200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>120800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-6500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>223800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-55000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>11400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>10000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>55900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-32100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>14200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-24200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>54800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-23400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-5100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>25400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-18800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>4100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EYE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EYE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
   <si>
     <t>EYE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,307 +665,319 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E7" s="2">
         <v>44471</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44380</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44289</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44198</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44009</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43918</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43827</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43736</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43645</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43554</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43463</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43372</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43099</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42917</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42826</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>477900</v>
+      </c>
+      <c r="E8" s="3">
         <v>518000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>549500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>534200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>496700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>485400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>260000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>469700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>401800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>431900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>429500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>461200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>355900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>387400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>385500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>408000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>321800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>346100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>337500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>369900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>277100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>301200</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>217700</v>
+      </c>
+      <c r="E9" s="3">
         <v>226500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>235900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>224700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>216500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>210800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>140800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>218600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>187500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>204500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>202500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>212000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>173500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>182600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>177100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>180500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>152400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>162400</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W9" s="3">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X9" s="3">
         <v>130300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>138700</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>260200</v>
+      </c>
+      <c r="E10" s="3">
         <v>291500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>313600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>309500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>280200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>274600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>119200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>251100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>214300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>227400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>227000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>249200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>182400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>204800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>208400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>227500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>169400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>183700</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W10" s="3">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X10" s="3">
         <v>146800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>162500</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -990,8 +1002,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1058,8 +1071,11 @@
       <c r="X12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1126,144 +1142,153 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E14" s="3">
         <v>700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>7200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>15800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>13300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>15500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2100</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>3100</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>8000</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>7100</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E15" s="3">
         <v>25100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>24000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>23600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>22600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>22200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>21900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>24800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>23700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>22300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>20800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>20400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>20300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>19300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>17600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>17900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>17600</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>15400</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>14600</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>14400</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>13800</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1285,144 +1310,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>469900</v>
+      </c>
+      <c r="E17" s="3">
         <v>467300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>494700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>472700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>439800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>430600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>301600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>452800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>393400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>430600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>407700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>428800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>377800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>389500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>360600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>369100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>327600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>329500</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W17" s="3">
+      <c r="W17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X17" s="3">
         <v>280500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>286900</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E18" s="3">
         <v>50700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>54800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>61500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>56900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>54800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-41600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>16900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>8400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>21800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>32400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-21900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>24900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>38900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-5800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>16600</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W18" s="3">
+      <c r="W18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X18" s="3">
         <v>-3400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1447,8 +1479,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1503,292 +1536,307 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>5</v>
+      <c r="U20" s="3">
+        <v>0</v>
       </c>
       <c r="V20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
+      <c r="W20" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>32500</v>
+      </c>
+      <c r="E21" s="3">
         <v>75800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>78900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>85000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>79500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>77000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-19700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>41700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>32000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>23700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>42500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>52800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>17300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>42600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>56700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>11800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>31900</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X21" s="3">
         <v>10400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>27500</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E22" s="3">
         <v>5700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>10200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>6300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>12800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>12500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>15600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>7500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>7400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>7900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>9000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>9100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>9300</v>
-      </c>
-      <c r="P22" s="3">
-        <v>9400</v>
       </c>
       <c r="Q22" s="3">
         <v>9400</v>
       </c>
       <c r="R22" s="3">
+        <v>9400</v>
+      </c>
+      <c r="S22" s="3">
         <v>9300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>16400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>14900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>14600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>14200</v>
-      </c>
-      <c r="W22" s="3">
-        <v>9700</v>
       </c>
       <c r="X22" s="3">
         <v>9700</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>9700</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E23" s="3">
         <v>45000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>44600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>55100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>44100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>42300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-57200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>9500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>12700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>23300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-31200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-11500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>15500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>29500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-22200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>25500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-13100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E24" s="3">
         <v>4000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>7000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>11700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>9100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>7000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-13400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-3000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-7700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>5900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-10900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-16700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>5100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-6100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>8500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-3400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1855,144 +1903,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E26" s="3">
         <v>41000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>37600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>43400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>35100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>35300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-43800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>9700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>10300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>17400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-20300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>5200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>12500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>24500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-16100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1500</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W26" s="3">
+      <c r="W26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X26" s="3">
         <v>-9700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E27" s="3">
         <v>41000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>37600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>43400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>35100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>35300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-43800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>9700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>10300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>17400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-20300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>5200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>12500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>24500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-16100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1500</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W27" s="3">
+      <c r="W27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X27" s="3">
         <v>-9700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2059,8 +2116,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2091,8 +2151,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
@@ -2109,12 +2169,12 @@
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="3">
         <v>42100</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2127,8 +2187,11 @@
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2195,8 +2258,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2263,8 +2329,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2319,88 +2388,94 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>5</v>
+      <c r="U32" s="3">
+        <v>0</v>
       </c>
       <c r="V32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
+      <c r="W32" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E33" s="3">
         <v>41000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>37600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>43400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>35100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>35300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-43800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>9700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>10300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>17400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-20300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>5200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>12500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>24500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>26000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1500</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V33" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W33" s="3">
+      <c r="W33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X33" s="3">
         <v>-9700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2467,149 +2542,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E35" s="3">
         <v>41000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>37600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>43400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>35100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>35300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-43800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>9700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>10300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>17400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-20300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>5200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>12500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>24500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>26000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1500</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V35" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W35" s="3">
+      <c r="W35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X35" s="3">
         <v>-9700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E38" s="2">
         <v>44471</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44380</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44289</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44198</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44009</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43918</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43827</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43736</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43645</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43554</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43463</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43372</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43099</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42917</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42826</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2634,8 +2718,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2660,76 +2745,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>305800</v>
+      </c>
+      <c r="E41" s="3">
         <v>439100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>408300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>453800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>373900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>377000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>256300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>263200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>39300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>94100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>82800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>72500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>17100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>48900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>34600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>58400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>27600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>24900</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="X41" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2796,135 +2885,141 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>55700</v>
+      </c>
+      <c r="E43" s="3">
         <v>54100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>54700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>60000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>58000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>49700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>58500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>27600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>44500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>50700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>57400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>58000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>50700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>38900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>45100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>41700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>43200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>39100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>38200</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W43" s="3" t="s">
         <v>5</v>
       </c>
       <c r="X43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>123700</v>
+      </c>
+      <c r="E44" s="3">
         <v>124600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>120900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>119500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>111300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>111700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>117900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>130400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>127600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>111900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>105700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>111900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>116000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>99300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>94900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>93700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>91200</v>
-      </c>
-      <c r="T44" s="3">
-        <v>89400</v>
       </c>
       <c r="U44" s="3">
         <v>89400</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>5</v>
+      <c r="V44" s="3">
+        <v>89400</v>
       </c>
       <c r="W44" s="3" t="s">
         <v>5</v>
@@ -2932,144 +3027,153 @@
       <c r="X44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>29400</v>
+      </c>
+      <c r="E45" s="3">
         <v>28600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>24500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>23600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>23500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>17100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>20500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>20100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>23300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>22000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>25000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>27600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>30800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>24100</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>24800</v>
       </c>
       <c r="R45" s="3">
         <v>24800</v>
       </c>
       <c r="S45" s="3">
+        <v>24800</v>
+      </c>
+      <c r="T45" s="3">
         <v>23900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>22700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>22000</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W45" s="3" t="s">
         <v>5</v>
       </c>
       <c r="X45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>514600</v>
+      </c>
+      <c r="E46" s="3">
         <v>646400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>608400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>657000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>566700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>555400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>453100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>441200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>234600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>278600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>270900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>270100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>214700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>211100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>199400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>218600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>162500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>178800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>174400</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W46" s="3" t="s">
         <v>5</v>
       </c>
       <c r="X46" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3136,144 +3240,153 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>701300</v>
+      </c>
+      <c r="E48" s="3">
         <v>678200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>679200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>679800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>681400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>666200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>681600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>693500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>714900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>716200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>715900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>695300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>355100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>340600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>328000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>311000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>302300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>290700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>281300</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="X48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1060200</v>
+      </c>
+      <c r="E49" s="3">
         <v>1062100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1063900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1065800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1067700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1069500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1071400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1073200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1075100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1077000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1078800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1080600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1082700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1099900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1102000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1104100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1106200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1108300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1110400</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="X49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3340,8 +3453,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3408,76 +3524,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E52" s="3">
         <v>18900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>17700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>17300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>17700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>16300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>12900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>10800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>8900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>9100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>10000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>10900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>11000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>11100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>10500</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="X52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3544,76 +3666,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2293100</v>
+      </c>
+      <c r="E54" s="3">
         <v>2405500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2369200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2419800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2333500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2307500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2219000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2218700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2032700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2078400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2071800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2053100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1661400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1660700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1639400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1644600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1581900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1588900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1576700</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W54" s="3" t="s">
         <v>5</v>
       </c>
       <c r="X54" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3638,8 +3766,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3664,135 +3793,139 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>64300</v>
+      </c>
+      <c r="E57" s="3">
         <v>76100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>77700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>79800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>64900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>68600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>52400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>60000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>40800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>45300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>47100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>45100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>43600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>30900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>32800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>46100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>35700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>33600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>34400</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="X57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E58" s="3">
         <v>4400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>13800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>13700</v>
-      </c>
-      <c r="M58" s="3">
-        <v>8500</v>
       </c>
       <c r="N58" s="3">
         <v>8500</v>
       </c>
       <c r="O58" s="3">
+        <v>8500</v>
+      </c>
+      <c r="P58" s="3">
         <v>7600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>7900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>7700</v>
-      </c>
-      <c r="R58" s="3">
-        <v>7300</v>
       </c>
       <c r="S58" s="3">
         <v>7300</v>
       </c>
       <c r="T58" s="3">
-        <v>9600</v>
+        <v>7300</v>
       </c>
       <c r="U58" s="3">
         <v>9600</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>5</v>
+      <c r="V58" s="3">
+        <v>9600</v>
       </c>
       <c r="W58" s="3" t="s">
         <v>5</v>
@@ -3800,280 +3933,295 @@
       <c r="X58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>275500</v>
+      </c>
+      <c r="E59" s="3">
         <v>268300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>288500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>275900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>260200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>283900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>256200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>224000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>218600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>244800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>232700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>244100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>160400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>158500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>148800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>168200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>169500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>176000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>167900</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="X59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>343800</v>
+      </c>
+      <c r="E60" s="3">
         <v>348800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>370500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>359800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>328700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>356000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>311900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>287500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>273200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>303900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>288300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>297700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>211700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>197200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>189300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>221700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>211300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>219200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>211900</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W60" s="3" t="s">
         <v>5</v>
       </c>
       <c r="X60" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>566100</v>
+      </c>
+      <c r="E61" s="3">
         <v>615600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>616200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>733700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>651800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>648100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>644900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>713200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>555900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>584300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>579100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>578400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>570500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>566900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>566600</v>
-      </c>
-      <c r="R61" s="3">
-        <v>562000</v>
       </c>
       <c r="S61" s="3">
         <v>562000</v>
       </c>
       <c r="T61" s="3">
+        <v>562000</v>
+      </c>
+      <c r="U61" s="3">
         <v>912700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>913300</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>457200</v>
+      </c>
+      <c r="E62" s="3">
         <v>452500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>444200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>438800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>446600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>438400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>441200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>431900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>427200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>424800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>430000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>414400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>136000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>138400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>154000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>149600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>154100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>202400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>202000</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="X62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4140,8 +4288,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4208,8 +4359,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4276,76 +4430,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1367100</v>
+      </c>
+      <c r="E66" s="3">
         <v>1416900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1430900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1532300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1427000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1442600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1398100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1432600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1256300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1313000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1297400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1290500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>918200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>902500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>909900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>933300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>927300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1334300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1327200</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="X66" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4370,8 +4530,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4438,8 +4599,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4506,8 +4670,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4574,8 +4741,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4642,76 +4812,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>278400</v>
+      </c>
+      <c r="E72" s="3">
         <v>272200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>231200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>193600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>142900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>107800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>72500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>116300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>107100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>103200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>102000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>91800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>74800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>100100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>94300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>81200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>32200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>8400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>6900</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="X72" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4778,8 +4954,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4846,8 +5025,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4914,76 +5096,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>926000</v>
+      </c>
+      <c r="E76" s="3">
         <v>988600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>938300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>887500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>906500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>865000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>820900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>786200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>776400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>765500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>774400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>762600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>743200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>758200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>729600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>711300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>654600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>254600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>249500</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W76" s="3" t="s">
         <v>5</v>
       </c>
       <c r="X76" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5050,149 +5238,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E80" s="2">
         <v>44471</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44380</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44289</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44198</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44009</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43918</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43827</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43736</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43645</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43554</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43463</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43372</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43099</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42917</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42826</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E81" s="3">
         <v>41000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>37600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>43400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>35100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>35300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-43800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>9700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>10300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>17400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-20300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>5200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>12500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>24500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>26000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1500</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V81" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W81" s="3">
+      <c r="W81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X81" s="3">
         <v>-9700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5217,76 +5414,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E83" s="3">
         <v>25100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>24000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>23600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>22600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>22200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>21900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>24800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>23700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>22300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>20800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>20400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>19600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>15200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>19700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>20000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>19700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>21700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>14600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>14400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>13800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5353,8 +5554,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5421,8 +5625,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5489,8 +5696,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5557,8 +5767,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5625,76 +5838,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>25100</v>
+      </c>
+      <c r="E89" s="3">
         <v>44000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>92200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>97700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>31300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>132300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-14600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>86100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-5900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>51700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>36300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>83000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-9300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>35800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>77800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-6000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>28300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>21400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>46500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>6500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5719,76 +5938,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-36600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-20100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-22400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-16400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-36000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-15000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-12700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-13100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-24900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-24400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-26100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-26000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-25700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-30100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-25900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-22800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-26100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-22900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-23500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-20700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-23300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-20200</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5855,8 +6078,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5923,76 +6149,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-36500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-17700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-22400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-16400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-35900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-15000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-12700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-12900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-24700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-24100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-26000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-25800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-25500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-30100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-25900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-22700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-26100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-24400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-23400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-20700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-23200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-21000</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6017,8 +6249,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6077,16 +6310,19 @@
         <v>0</v>
       </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-171000</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6153,8 +6389,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6221,8 +6460,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6289,76 +6531,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-122300</v>
+      </c>
+      <c r="E100" s="3">
         <v>4500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-115400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>3500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>20800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>150600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-24400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-16100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>8500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>8700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-3100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-2100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6425,72 +6673,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-133600</v>
+      </c>
+      <c r="E102" s="3">
         <v>30800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-45700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>80200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>120800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-6500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>223800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-55000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>11400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>10000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>55900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-32100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>14200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-24200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>54800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-23400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-5100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>25400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-18800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>4100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EYE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EYE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="92">
   <si>
     <t>EYE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,319 +665,331 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E7" s="2">
         <v>44562</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44471</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44380</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44289</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44198</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44009</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43918</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43827</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43736</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43645</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43554</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43463</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43372</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43099</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42917</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42826</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>527700</v>
+      </c>
+      <c r="E8" s="3">
         <v>477900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>518000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>549500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>534200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>496700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>485400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>260000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>469700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>401800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>431900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>429500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>461200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>355900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>387400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>385500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>408000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>321800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>346100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>337500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>369900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>277100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>301200</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>236000</v>
+      </c>
+      <c r="E9" s="3">
         <v>217700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>226500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>235900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>224700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>216500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>210800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>140800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>218600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>187500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>204500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>202500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>212000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>173500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>182600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>177100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>180500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>152400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>162400</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X9" s="3">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y9" s="3">
         <v>130300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>138700</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>291700</v>
+      </c>
+      <c r="E10" s="3">
         <v>260200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>291500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>313600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>309500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>280200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>274600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>119200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>251100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>214300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>227400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>227000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>249200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>182400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>204800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>208400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>227500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>169400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>183700</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X10" s="3">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y10" s="3">
         <v>146800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>162500</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1003,8 +1015,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1074,8 +1087,11 @@
       <c r="Y12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1145,150 +1161,159 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>600</v>
+      </c>
+      <c r="E14" s="3">
         <v>3000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>7200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>15800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>13300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>15500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2100</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>3100</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>8000</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>7100</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E15" s="3">
         <v>24500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>25100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>24000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>23600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>22600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>22200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>21900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>24800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>23700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>22300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>20800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>20400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>20300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>19300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>17600</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>17900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>17600</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>15400</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>14600</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>14400</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>13800</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1311,150 +1336,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>490400</v>
+      </c>
+      <c r="E17" s="3">
         <v>469900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>467300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>494700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>472700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>439800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>430600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>301600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>452800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>393400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>430600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>407700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>428800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>377800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>389500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>360600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>369100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>327600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>329500</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X17" s="3">
+      <c r="X17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y17" s="3">
         <v>280500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>286900</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>37300</v>
+      </c>
+      <c r="E18" s="3">
         <v>8000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>50700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>54800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>61500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>56900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>54800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-41600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>16900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>8400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>21800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>32400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-21900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>24900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>38900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-5800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>16600</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X18" s="3">
+      <c r="X18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-3400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1480,13 +1512,14 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>7300</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1539,304 +1572,319 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>5</v>
+      <c r="V20" s="3">
+        <v>0</v>
       </c>
       <c r="W20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
+      <c r="X20" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>69800</v>
+      </c>
+      <c r="E21" s="3">
         <v>32500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>75800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>78900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>85000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>79500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>77000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-19700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>41700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>32000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>23700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>42500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>52800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>17300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>42600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>56700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>11800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>31900</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y21" s="3">
         <v>10400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>27500</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E22" s="3">
         <v>3400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>5700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>10200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>6300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>12800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>12500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>15600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>7500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>7400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>7900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>9000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>9100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>9300</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>9400</v>
       </c>
       <c r="R22" s="3">
         <v>9400</v>
       </c>
       <c r="S22" s="3">
+        <v>9400</v>
+      </c>
+      <c r="T22" s="3">
         <v>9300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>16400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>14900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>14600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>14200</v>
-      </c>
-      <c r="X22" s="3">
-        <v>9700</v>
       </c>
       <c r="Y22" s="3">
         <v>9700</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>9700</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>41500</v>
+      </c>
+      <c r="E23" s="3">
         <v>4600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>45000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>44600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>55100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>44100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>42300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-57200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>9500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-6500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>12700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>23300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-31200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-11500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>15500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>29500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-22200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>25500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-13100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>7000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>11700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>9100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>7000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-13400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-3000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-7700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>5900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-10900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-16700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>3100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>5100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-6100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>8500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-3400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1906,150 +1954,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>30100</v>
+      </c>
+      <c r="E26" s="3">
         <v>6200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>41000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>37600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>43400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>35100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>35300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-43800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>9700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>10300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>17400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-20300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>5200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>12500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>24500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-16100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1500</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X26" s="3">
+      <c r="X26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-9700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>30100</v>
+      </c>
+      <c r="E27" s="3">
         <v>6200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>41000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>37600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>43400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>35100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>35300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-43800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>9700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>10300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>17400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-20300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>5200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>12500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>24500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-16100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1500</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X27" s="3">
+      <c r="X27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-9700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2119,8 +2176,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2154,8 +2214,8 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
@@ -2172,12 +2232,12 @@
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U29" s="3">
         <v>42100</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2190,8 +2250,11 @@
       <c r="Y29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2261,8 +2324,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2332,13 +2398,16 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-7300</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2391,91 +2460,97 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>5</v>
+      <c r="V32" s="3">
+        <v>0</v>
       </c>
       <c r="W32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
+      <c r="X32" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>30100</v>
+      </c>
+      <c r="E33" s="3">
         <v>6200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>41000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>37600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>43400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>35100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>35300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-43800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>9700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>10300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>17400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-20300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>5200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>12500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>24500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>26000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1500</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W33" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X33" s="3">
+      <c r="X33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-9700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2545,155 +2620,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>30100</v>
+      </c>
+      <c r="E35" s="3">
         <v>6200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>41000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>37600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>43400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>35100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>35300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-43800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>9700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>10300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>17400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-20300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>5200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>12500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>24500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>26000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1500</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W35" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X35" s="3">
+      <c r="X35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-9700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E38" s="2">
         <v>44562</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44471</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44380</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44289</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44198</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44009</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43918</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43827</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43736</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43645</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43554</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43463</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43372</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43099</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42917</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42826</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2719,8 +2803,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2746,79 +2831,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>314600</v>
+      </c>
+      <c r="E41" s="3">
         <v>305800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>439100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>408300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>453800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>373900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>377000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>256300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>263200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>39300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>94100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>82800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>72500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>17100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>48900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>34600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>58400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>27600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>24900</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Y41" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2888,141 +2977,147 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>62200</v>
+      </c>
+      <c r="E43" s="3">
         <v>55700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>54100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>54700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>60000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>58000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>49700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>58500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>27600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>44500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>50700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>57400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>58000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>50700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>38900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>45100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>41700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>43200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>39100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>38200</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X43" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Y43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>127400</v>
+      </c>
+      <c r="E44" s="3">
         <v>123700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>124600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>120900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>119500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>111300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>111700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>117900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>130400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>127600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>111900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>105700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>111900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>116000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>99300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>94900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>93700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>91200</v>
-      </c>
-      <c r="U44" s="3">
-        <v>89400</v>
       </c>
       <c r="V44" s="3">
         <v>89400</v>
       </c>
-      <c r="W44" s="3" t="s">
-        <v>5</v>
+      <c r="W44" s="3">
+        <v>89400</v>
       </c>
       <c r="X44" s="3" t="s">
         <v>5</v>
@@ -3030,150 +3125,159 @@
       <c r="Y44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>28300</v>
+      </c>
+      <c r="E45" s="3">
         <v>29400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>28600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>24500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>23600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>23500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>17100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>20500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>20100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>23300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>22000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>25000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>27600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>30800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>24100</v>
-      </c>
-      <c r="R45" s="3">
-        <v>24800</v>
       </c>
       <c r="S45" s="3">
         <v>24800</v>
       </c>
       <c r="T45" s="3">
+        <v>24800</v>
+      </c>
+      <c r="U45" s="3">
         <v>23900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>22700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>22000</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X45" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Y45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>532600</v>
+      </c>
+      <c r="E46" s="3">
         <v>514600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>646400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>608400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>657000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>566700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>555400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>453100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>441200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>234600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>278600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>270900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>270100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>214700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>211100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>199400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>218600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>162500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>178800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>174400</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X46" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Y46" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3243,150 +3347,159 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>712300</v>
+      </c>
+      <c r="E48" s="3">
         <v>701300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>678200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>679200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>679800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>681400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>666200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>681600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>693500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>714900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>716200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>715900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>695300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>355100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>340600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>328000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>311000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>302300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>290700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>281300</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Y48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1058300</v>
+      </c>
+      <c r="E49" s="3">
         <v>1060200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1062100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1063900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1065800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1067700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1069500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1071400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1073200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1075100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1077000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1078800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1080600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1082700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1099900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1102000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1104100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1106200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1108300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1110400</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Y49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3456,8 +3569,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3527,79 +3643,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>22300</v>
+      </c>
+      <c r="E52" s="3">
         <v>17000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>18900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>17700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>17300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>17700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>16300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>12900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>10800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>8900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>9100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>10000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>10900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>11000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>11100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>10500</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Y52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3669,79 +3791,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2325500</v>
+      </c>
+      <c r="E54" s="3">
         <v>2293100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2405500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2369200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2419800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2333500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2307500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2219000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2218700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2032700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2078400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2071800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2053100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1661400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1660700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1639400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1644600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1581900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1588900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1576700</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X54" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Y54" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3767,8 +3895,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3794,141 +3923,145 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>69400</v>
+      </c>
+      <c r="E57" s="3">
         <v>64300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>76100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>77700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>79800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>64900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>68600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>52400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>60000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>40800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>45300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>47100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>45100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>43600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>30900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>32800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>46100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>35700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>33600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>34400</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Y57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E58" s="3">
         <v>4000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>13800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>13700</v>
-      </c>
-      <c r="N58" s="3">
-        <v>8500</v>
       </c>
       <c r="O58" s="3">
         <v>8500</v>
       </c>
       <c r="P58" s="3">
+        <v>8500</v>
+      </c>
+      <c r="Q58" s="3">
         <v>7600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>7900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7700</v>
-      </c>
-      <c r="S58" s="3">
-        <v>7300</v>
       </c>
       <c r="T58" s="3">
         <v>7300</v>
       </c>
       <c r="U58" s="3">
-        <v>9600</v>
+        <v>7300</v>
       </c>
       <c r="V58" s="3">
         <v>9600</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>5</v>
+      <c r="W58" s="3">
+        <v>9600</v>
       </c>
       <c r="X58" s="3" t="s">
         <v>5</v>
@@ -3936,292 +4069,307 @@
       <c r="Y58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>271300</v>
+      </c>
+      <c r="E59" s="3">
         <v>275500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>268300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>288500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>275900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>260200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>283900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>256200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>224000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>218600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>244800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>232700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>244100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>160400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>158500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>148800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>168200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>169500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>176000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>167900</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Y59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>345400</v>
+      </c>
+      <c r="E60" s="3">
         <v>343800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>348800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>370500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>359800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>328700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>356000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>311900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>287500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>273200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>303900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>288300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>297700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>211700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>197200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>189300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>221700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>211300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>219200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>211900</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X60" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Y60" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>564700</v>
+      </c>
+      <c r="E61" s="3">
         <v>566100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>615600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>616200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>733700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>651800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>648100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>644900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>713200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>555900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>584300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>579100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>578400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>570500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>566900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>566600</v>
-      </c>
-      <c r="S61" s="3">
-        <v>562000</v>
       </c>
       <c r="T61" s="3">
         <v>562000</v>
       </c>
       <c r="U61" s="3">
+        <v>562000</v>
+      </c>
+      <c r="V61" s="3">
         <v>912700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>913300</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>464700</v>
+      </c>
+      <c r="E62" s="3">
         <v>457200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>452500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>444200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>438800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>446600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>438400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>441200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>431900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>427200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>424800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>430000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>414400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>136000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>138400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>154000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>149600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>154100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>202400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>202000</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Y62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4291,8 +4439,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4362,8 +4513,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4433,79 +4587,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1374800</v>
+      </c>
+      <c r="E66" s="3">
         <v>1367100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1416900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1430900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1532300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1427000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1442600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1398100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1432600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1256300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1313000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1297400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1290500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>918200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>902500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>909900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>933300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>927300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1334300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1327200</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Y66" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4531,8 +4691,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4602,8 +4763,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4673,8 +4837,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4744,8 +4911,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4815,79 +4985,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>308500</v>
+      </c>
+      <c r="E72" s="3">
         <v>278400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>272200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>231200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>193600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>142900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>107800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>72500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>116300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>107100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>103200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>102000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>91800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>74800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>100100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>94300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>81200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>32200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>8400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>6900</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Y72" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4957,8 +5133,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5028,8 +5207,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5099,79 +5281,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>950700</v>
+      </c>
+      <c r="E76" s="3">
         <v>926000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>988600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>938300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>887500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>906500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>865000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>820900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>786200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>776400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>765500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>774400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>762600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>743200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>758200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>729600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>711300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>654600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>254600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>249500</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X76" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Y76" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5241,155 +5429,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E80" s="2">
         <v>44562</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44471</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44380</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44289</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44198</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44009</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43918</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43827</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43736</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43645</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43554</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43463</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43372</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43099</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42917</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42826</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>30100</v>
+      </c>
+      <c r="E81" s="3">
         <v>6200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>41000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>37600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>43400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>35100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>35300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-43800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>9700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>10300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>17400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-20300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>5200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>12500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>24500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>26000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1500</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W81" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X81" s="3">
+      <c r="X81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-9700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5415,79 +5612,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E83" s="3">
         <v>24500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>25100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>24000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>23600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>22600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>22200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>21900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>24800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>23700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>22300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>20800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>20400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>19600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>15200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>19700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>20000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>19700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>21700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>14600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>14400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>13800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5557,8 +5758,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5628,8 +5832,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5699,8 +5906,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5770,8 +5980,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5841,79 +6054,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>47100</v>
+      </c>
+      <c r="E89" s="3">
         <v>25100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>44000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>92200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>97700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>31300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>132300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-14600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>86100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-5900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>51700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>36300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>83000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>35800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>77800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-6000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>28300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>21400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>46500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>6500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5939,79 +6158,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-28100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-36600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-20100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-22400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-16400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-36000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-15000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-12700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-13100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-24900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-24400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-26100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-26000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-25700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-30100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-25900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-22800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-26100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-22900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-23500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-20700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-23300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-20200</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6081,8 +6304,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6152,79 +6378,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-28100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-36500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-17700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-22400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-16400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-35900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-15000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-12700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-12900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-24700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-24100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-26000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-25800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-25500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-30100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-25900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-22700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-26100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-24400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-23400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-20700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-23200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-21000</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6250,8 +6482,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6313,16 +6546,19 @@
         <v>0</v>
       </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-171000</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6392,8 +6628,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6463,8 +6702,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6534,79 +6776,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-122300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>4500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-115400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>3500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>20800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>150600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-24400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-16100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>8500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>8700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-3100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6676,75 +6924,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-133600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>30800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-45700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>80200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>120800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-6500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>223800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-55000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>11400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>10000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>55900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-32100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>14200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-24200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>54800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-23400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>2600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-5100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>25400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-18800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>4100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EYE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EYE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
   <si>
     <t>EYE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,331 +665,343 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E7" s="2">
         <v>44653</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44562</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44471</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44380</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44289</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44198</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44009</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43918</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43827</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43736</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43645</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43554</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43463</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43372</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43099</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42917</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42826</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>509600</v>
+      </c>
+      <c r="E8" s="3">
         <v>527700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>477900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>518000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>549500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>534200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>496700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>485400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>260000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>469700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>401800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>431900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>429500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>461200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>355900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>387400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>385500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>408000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>321800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>346100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>337500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>369900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>277100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>301200</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>234600</v>
+      </c>
+      <c r="E9" s="3">
         <v>236000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>217700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>226500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>235900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>224700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>216500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>210800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>140800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>218600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>187500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>204500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>202500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>212000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>173500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>182600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>177100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>180500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>152400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>162400</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z9" s="3">
         <v>130300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>138700</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>275000</v>
+      </c>
+      <c r="E10" s="3">
         <v>291700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>260200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>291500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>313600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>309500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>280200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>274600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>119200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>251100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>214300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>227400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>227000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>249200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>182400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>204800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>208400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>227500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>169400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>183700</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z10" s="3">
         <v>146800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>162500</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1016,8 +1028,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1090,8 +1103,11 @@
       <c r="Z12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1164,82 +1180,88 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E14" s="3">
         <v>600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>3000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>7200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>15800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>13300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>15500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2100</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>3100</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>8000</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>7100</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1247,73 +1269,76 @@
         <v>25200</v>
       </c>
       <c r="E15" s="3">
+        <v>25200</v>
+      </c>
+      <c r="F15" s="3">
         <v>24500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>25100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>24000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>23600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>22600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>22200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>21900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>24800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>23700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>22300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>20800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>20400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>20300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>19300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>17600</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>17900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>17600</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>15400</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>14600</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>14400</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>13800</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1337,156 +1362,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>491200</v>
+      </c>
+      <c r="E17" s="3">
         <v>490400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>469900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>467300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>494700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>472700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>439800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>430600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>301600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>452800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>393400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>430600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>407700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>428800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>377800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>389500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>360600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>369100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>327600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>329500</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Y17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z17" s="3">
         <v>280500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>286900</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E18" s="3">
         <v>37300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>8000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>50700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>54800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>61500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>56900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>54800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-41600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>16900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>8400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>21800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>32400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-21900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>24900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>38900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-5800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>16600</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Y18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-3400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1513,16 +1545,17 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>7300</v>
+        <v>-300</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>7800</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1575,316 +1608,331 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>5</v>
+      <c r="W20" s="3">
+        <v>0</v>
       </c>
       <c r="X20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
+      <c r="Y20" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>69800</v>
+        <v>43300</v>
       </c>
       <c r="E21" s="3">
+        <v>70300</v>
+      </c>
+      <c r="F21" s="3">
         <v>32500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>75800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>78900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>85000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>79500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>77000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-19700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>41700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>32000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>23700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>42500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>52800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>17300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>42600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>56700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>11800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>31900</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z21" s="3">
         <v>10400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>27500</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3100</v>
+        <v>3700</v>
       </c>
       <c r="E22" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F22" s="3">
         <v>3400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>5700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>10200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>6300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>12800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>12500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>15600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>7500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>7400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>7900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>9000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>9100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>9300</v>
-      </c>
-      <c r="R22" s="3">
-        <v>9400</v>
       </c>
       <c r="S22" s="3">
         <v>9400</v>
       </c>
       <c r="T22" s="3">
+        <v>9400</v>
+      </c>
+      <c r="U22" s="3">
         <v>9300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>16400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>14900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>14600</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>14200</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>9700</v>
       </c>
       <c r="Z22" s="3">
         <v>9700</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>9700</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E23" s="3">
         <v>41500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>4600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>45000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>44600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>55100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>44100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>42300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-57200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>9500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-6500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>12700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>23300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-31200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-11500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>15500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>29500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-22200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>25500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-13100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E24" s="3">
         <v>11300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>4000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>7000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>11700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>9100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>7000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-13400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-3000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-7700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-10900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-16700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>3100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>5100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-6100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>8500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-3400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1957,156 +2005,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E26" s="3">
         <v>30100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>6200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>41000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>37600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>43400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>35100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>35300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-43800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>9700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>10300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>17400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-20300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>5200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>12500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>24500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-16100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1500</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Y26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-9700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E27" s="3">
         <v>30100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>6200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>41000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>37600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>43400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>35100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>35300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-43800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>9700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>10300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>17400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-20300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>5200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>12500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>24500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-16100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1500</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Y27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-9700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2179,8 +2236,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2217,8 +2277,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
@@ -2235,12 +2295,12 @@
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V29" s="3">
         <v>42100</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2253,8 +2313,11 @@
       <c r="Z29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2327,8 +2390,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2401,16 +2467,19 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-7300</v>
+        <v>300</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-7800</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2463,94 +2532,100 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>5</v>
+      <c r="W32" s="3">
+        <v>0</v>
       </c>
       <c r="X32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
+      <c r="Y32" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E33" s="3">
         <v>30100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>6200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>41000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>37600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>43400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>35100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>35300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-43800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>9700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>10300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>17400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-20300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>5200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>12500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>24500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>26000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1500</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X33" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Y33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-9700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2623,161 +2698,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E35" s="3">
         <v>30100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>6200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>41000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>37600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>43400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>35100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>35300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-43800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>9700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>10300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>17400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-20300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>5200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>12500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>24500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>26000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1500</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X35" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Y35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-9700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E38" s="2">
         <v>44653</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44562</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44471</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44380</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44289</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44198</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44009</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43918</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43827</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43736</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43645</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43554</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43463</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43372</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43099</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42917</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42826</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2804,8 +2888,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2832,82 +2917,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>254400</v>
+      </c>
+      <c r="E41" s="3">
         <v>314600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>305800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>439100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>408300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>453800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>373900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>377000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>256300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>263200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>39300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>94100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>82800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>72500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>17100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>48900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>34600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>58400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>27600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>24900</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Z41" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2980,147 +3069,153 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>63800</v>
+      </c>
+      <c r="E43" s="3">
         <v>62200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>55700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>54100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>54700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>60000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>58000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>49700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>58500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>27600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>44500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>50700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>57400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>58000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>50700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>38900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>45100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>41700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>43200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>39100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>38200</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y43" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Z43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>129500</v>
+      </c>
+      <c r="E44" s="3">
         <v>127400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>123700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>124600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>120900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>119500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>111300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>111700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>117900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>130400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>127600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>111900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>105700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>111900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>116000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>99300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>94900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>93700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>91200</v>
-      </c>
-      <c r="V44" s="3">
-        <v>89400</v>
       </c>
       <c r="W44" s="3">
         <v>89400</v>
       </c>
-      <c r="X44" s="3" t="s">
-        <v>5</v>
+      <c r="X44" s="3">
+        <v>89400</v>
       </c>
       <c r="Y44" s="3" t="s">
         <v>5</v>
@@ -3128,156 +3223,165 @@
       <c r="Z44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>32800</v>
+      </c>
+      <c r="E45" s="3">
         <v>28300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>29400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>28600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>24500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>23600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>23500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>17100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>20500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>20100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>23300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>22000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>25000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>27600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>30800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>24100</v>
-      </c>
-      <c r="S45" s="3">
-        <v>24800</v>
       </c>
       <c r="T45" s="3">
         <v>24800</v>
       </c>
       <c r="U45" s="3">
+        <v>24800</v>
+      </c>
+      <c r="V45" s="3">
         <v>23900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>22700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>22000</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y45" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Z45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>480500</v>
+      </c>
+      <c r="E46" s="3">
         <v>532600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>514600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>646400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>608400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>657000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>566700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>555400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>453100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>441200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>234600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>278600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>270900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>270100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>214700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>211100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>199400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>218600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>162500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>178800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>174400</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y46" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Z46" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3350,156 +3454,165 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>723000</v>
+      </c>
+      <c r="E48" s="3">
         <v>712300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>701300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>678200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>679200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>679800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>681400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>666200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>681600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>693500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>714900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>716200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>715900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>695300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>355100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>340600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>328000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>311000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>302300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>290700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>281300</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Z48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1056400</v>
+      </c>
+      <c r="E49" s="3">
         <v>1058300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1060200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1062100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1063900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1065800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1067700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1069500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1071400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1073200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1075100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1077000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1078800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1080600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1082700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1099900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1102000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1104100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1106200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1108300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1110400</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Z49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3572,8 +3685,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3646,82 +3762,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E52" s="3">
         <v>22300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>17000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>18900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>17700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>17300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>17700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>16300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>12900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>10800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>8900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>9100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>10000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>10900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>11000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>11100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>10500</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Z52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3794,82 +3916,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2278300</v>
+      </c>
+      <c r="E54" s="3">
         <v>2325500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2293100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2405500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2369200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2419800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2333500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2307500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2219000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2218700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2032700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2078400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2071800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2053100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1661400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1660700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1639400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1644600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1581900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1588900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1576700</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y54" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Z54" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3896,8 +4024,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3924,82 +4053,86 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>70000</v>
+      </c>
+      <c r="E57" s="3">
         <v>69400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>64300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>76100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>77700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>79800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>64900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>68600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>52400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>60000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>40800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>45300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>47100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>45100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>43600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>30900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>32800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>46100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>35700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>33600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>34400</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Z57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4007,64 +4140,64 @@
         <v>4700</v>
       </c>
       <c r="E58" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F58" s="3">
         <v>4000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>13800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>13700</v>
-      </c>
-      <c r="O58" s="3">
-        <v>8500</v>
       </c>
       <c r="P58" s="3">
         <v>8500</v>
       </c>
       <c r="Q58" s="3">
+        <v>8500</v>
+      </c>
+      <c r="R58" s="3">
         <v>7600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>7700</v>
-      </c>
-      <c r="T58" s="3">
-        <v>7300</v>
       </c>
       <c r="U58" s="3">
         <v>7300</v>
       </c>
       <c r="V58" s="3">
-        <v>9600</v>
+        <v>7300</v>
       </c>
       <c r="W58" s="3">
         <v>9600</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>5</v>
+      <c r="X58" s="3">
+        <v>9600</v>
       </c>
       <c r="Y58" s="3" t="s">
         <v>5</v>
@@ -4072,304 +4205,319 @@
       <c r="Z58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>279100</v>
+      </c>
+      <c r="E59" s="3">
         <v>271300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>275500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>268300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>288500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>275900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>260200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>283900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>256200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>224000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>218600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>244800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>232700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>244100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>160400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>158500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>148800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>168200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>169500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>176000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>167900</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Z59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>353800</v>
+      </c>
+      <c r="E60" s="3">
         <v>345400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>343800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>348800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>370500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>359800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>328700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>356000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>311900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>287500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>273200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>303900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>288300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>297700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>211700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>197200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>189300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>221700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>211300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>219200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>211900</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y60" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Z60" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>564200</v>
+      </c>
+      <c r="E61" s="3">
         <v>564700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>566100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>615600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>616200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>733700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>651800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>648100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>644900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>713200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>555900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>584300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>579100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>578400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>570500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>566900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>566600</v>
-      </c>
-      <c r="T61" s="3">
-        <v>562000</v>
       </c>
       <c r="U61" s="3">
         <v>562000</v>
       </c>
       <c r="V61" s="3">
+        <v>562000</v>
+      </c>
+      <c r="W61" s="3">
         <v>912700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>913300</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
       <c r="Y61" s="3">
         <v>0</v>
       </c>
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>468700</v>
+      </c>
+      <c r="E62" s="3">
         <v>464700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>457200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>452500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>444200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>438800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>446600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>438400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>441200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>431900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>427200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>424800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>430000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>414400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>136000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>138400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>154000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>149600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>154100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>202400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>202000</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Z62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4442,8 +4590,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4516,8 +4667,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4590,82 +4744,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1386700</v>
+      </c>
+      <c r="E66" s="3">
         <v>1374800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1367100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1416900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1430900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1532300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1427000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1442600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1398100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1432600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1256300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1313000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1297400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1290500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>918200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>902500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>909900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>933300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>927300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1334300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1327200</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Z66" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4692,8 +4852,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4766,8 +4927,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4840,8 +5004,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4914,8 +5081,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4988,82 +5158,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>318300</v>
+      </c>
+      <c r="E72" s="3">
         <v>308500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>278400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>272200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>231200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>193600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>142900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>107800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>72500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>116300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>107100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>103200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>102000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>91800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>74800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>100100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>94300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>81200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>32200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>8400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>6900</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Z72" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5136,8 +5312,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5210,8 +5389,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5284,82 +5466,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>891700</v>
+      </c>
+      <c r="E76" s="3">
         <v>950700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>926000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>988600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>938300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>887500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>906500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>865000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>820900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>786200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>776400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>765500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>774400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>762600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>743200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>758200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>729600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>711300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>654600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>254600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>249500</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y76" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Z76" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5432,161 +5620,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E80" s="2">
         <v>44653</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44562</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44471</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44380</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44289</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44198</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44009</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43918</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43827</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43736</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43645</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43554</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43463</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43372</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43099</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42917</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42826</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E81" s="3">
         <v>30100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>6200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>41000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>37600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>43400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>35100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>35300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-43800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>9700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>10300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>17400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-20300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>5200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>12500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>24500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>26000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1500</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X81" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Y81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-9700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5613,8 +5810,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5622,73 +5820,76 @@
         <v>25200</v>
       </c>
       <c r="E83" s="3">
+        <v>25200</v>
+      </c>
+      <c r="F83" s="3">
         <v>24500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>25100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>24000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>23600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>22600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>22200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>21900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>24800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>23700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>22300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>20800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>20400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>19600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>15200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>19700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>20000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>19700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>21700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>14600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>14400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>13800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5761,8 +5962,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5835,8 +6039,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5909,8 +6116,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5983,8 +6193,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6057,82 +6270,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>40900</v>
+      </c>
+      <c r="E89" s="3">
         <v>47100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>25100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>44000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>92200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>97700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>31300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>132300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-14600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>86100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-5900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>51700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>36300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>83000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-9300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>35800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>77800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-6000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>28300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>21400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>46500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>6500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6159,82 +6378,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-27600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-28100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-36600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-20100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-22400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-16400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-36000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-15000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-12700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-13100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-24900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-24400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-26100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-26000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-25700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-30100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-25900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-22800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-26100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-22900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-23500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-20700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-23300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-20200</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6307,8 +6530,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6381,82 +6607,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-27600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-28100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-36500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-17700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-22400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-16400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-35900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-15000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-12700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-12900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-24700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-24100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-26000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-25800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-25500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-30100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-25900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-22700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-26100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-24400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-23400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-20700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-23200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-21000</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6483,8 +6715,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6549,16 +6782,19 @@
         <v>0</v>
       </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-171000</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6631,8 +6867,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6705,8 +6944,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6779,82 +7021,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-73700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-9900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-122300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>4500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-115400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>3500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>20800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>150600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-24400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-16100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>8500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>8700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-3100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-2100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6927,78 +7175,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-60400</v>
+      </c>
+      <c r="E102" s="3">
         <v>9100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-133600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>30800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-45700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>80200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>120800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-6500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>223800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-55000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>11400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>10000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>55900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-32100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>14200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-24200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>54800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-23400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>2600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-5100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>25400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-18800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>4100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EYE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EYE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
   <si>
     <t>EYE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,343 +665,355 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E7" s="2">
         <v>44744</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44653</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44562</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44471</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44380</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44289</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44198</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44009</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43918</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43827</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43736</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43645</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43554</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43463</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43372</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43099</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42917</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42826</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>499200</v>
+      </c>
+      <c r="E8" s="3">
         <v>509600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>527700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>477900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>518000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>549500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>534200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>496700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>485400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>260000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>469700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>401800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>431900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>429500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>461200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>355900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>387400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>385500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>408000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>321800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>346100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>337500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>369900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>277100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>301200</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>232800</v>
+      </c>
+      <c r="E9" s="3">
         <v>234600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>236000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>217700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>226500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>235900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>224700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>216500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>210800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>140800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>218600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>187500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>204500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>202500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>212000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>173500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>182600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>177100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>180500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>152400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>162400</v>
       </c>
-      <c r="X9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA9" s="3">
         <v>130300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>138700</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>266400</v>
+      </c>
+      <c r="E10" s="3">
         <v>275000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>291700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>260200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>291500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>313600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>309500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>280200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>274600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>119200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>251100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>214300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>227400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>227000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>249200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>182400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>204800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>208400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>227500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>169400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>183700</v>
       </c>
-      <c r="X10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA10" s="3">
         <v>146800</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>162500</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1029,8 +1041,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1106,8 +1119,11 @@
       <c r="AA12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1183,162 +1199,171 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E14" s="3">
         <v>3700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>3000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>7200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>15800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>13300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>15500</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2100</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>3100</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>8000</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
       <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>7100</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>25200</v>
+        <v>24900</v>
       </c>
       <c r="E15" s="3">
         <v>25200</v>
       </c>
       <c r="F15" s="3">
+        <v>25200</v>
+      </c>
+      <c r="G15" s="3">
         <v>24500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>25100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>24000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>23600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>22600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>22200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>21900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>24800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>23700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>22300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>20800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>20400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>20300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>19300</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>17600</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>17900</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>17600</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>15400</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>14600</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>14400</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>13800</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1363,162 +1388,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>483800</v>
+      </c>
+      <c r="E17" s="3">
         <v>491200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>490400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>469900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>467300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>494700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>472700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>439800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>430600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>301600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>452800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>393400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>430600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>407700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>428800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>377800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>389500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>360600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>369100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>327600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>329500</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="Z17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA17" s="3">
         <v>280500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>286900</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E18" s="3">
         <v>18400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>37300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>8000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>50700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>54800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>61500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>56900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>54800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-41600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>16900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>8400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>21800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>32400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-21900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>24900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>38900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-5800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>16600</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="Z18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-3400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1546,20 +1578,21 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>7800</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1611,97 +1644,103 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>5</v>
+      <c r="X20" s="3">
+        <v>0</v>
       </c>
       <c r="Y20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z20" s="3">
-        <v>0</v>
+      <c r="Z20" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>45900</v>
+      </c>
+      <c r="E21" s="3">
         <v>43300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>70300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>32500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>75800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>78900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>85000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>79500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>77000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-19700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>41700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>32000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>23700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>42500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>52800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>17300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>42600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>56700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>11800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>31900</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="Z21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA21" s="3">
         <v>10400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>27500</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1709,230 +1748,239 @@
         <v>3700</v>
       </c>
       <c r="E22" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F22" s="3">
         <v>3600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>5700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>10200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>6300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>12800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>12500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>15600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>7500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>7400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>7900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>9000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>9100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>9300</v>
-      </c>
-      <c r="S22" s="3">
-        <v>9400</v>
       </c>
       <c r="T22" s="3">
         <v>9400</v>
       </c>
       <c r="U22" s="3">
+        <v>9400</v>
+      </c>
+      <c r="V22" s="3">
         <v>9300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>16400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>14900</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>14600</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>14200</v>
-      </c>
-      <c r="Z22" s="3">
-        <v>9700</v>
       </c>
       <c r="AA22" s="3">
         <v>9700</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>9700</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E23" s="3">
         <v>14400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>41500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>45000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>44600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>55100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>44100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>42300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-57200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>9500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-6500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>12700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>23300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-31200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-11500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>15500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>29500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-22200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>25500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-13100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E24" s="3">
         <v>4700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>11300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>4000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>7000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>11700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>9100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>7000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-13400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-3000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-7700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>5900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-10900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-16700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>3100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>5100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-6100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>8500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-3400</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2008,162 +2056,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E26" s="3">
         <v>9700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>30100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>6200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>41000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>37600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>43400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>35100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>35300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-43800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>9700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>10300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>17400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-20300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>5200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>12500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>24500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-16100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1500</v>
       </c>
-      <c r="X26" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="Z26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-9700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E27" s="3">
         <v>9700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>30100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>6200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>41000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>37600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>43400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>35100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>35300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-43800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>9700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>10300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>17400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-20300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>5200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>12500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>24500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-16100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1500</v>
       </c>
-      <c r="X27" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="Z27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-9700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2239,8 +2296,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2280,8 +2340,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
@@ -2298,12 +2358,12 @@
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W29" s="3">
         <v>42100</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2316,8 +2376,11 @@
       <c r="AA29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2393,8 +2456,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2470,20 +2536,23 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E32" s="3">
         <v>300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-7800</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2535,97 +2604,103 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>5</v>
+      <c r="X32" s="3">
+        <v>0</v>
       </c>
       <c r="Y32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z32" s="3">
-        <v>0</v>
+      <c r="Z32" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E33" s="3">
         <v>9700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>30100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>6200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>41000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>37600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>43400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>35100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>35300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-43800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>9700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>10300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>17400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-20300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>5200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>12500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>24500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>26000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1500</v>
       </c>
-      <c r="X33" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y33" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="Z33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-9700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2701,167 +2776,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E35" s="3">
         <v>9700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>30100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>6200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>41000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>37600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>43400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>35100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>35300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-43800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>9700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>10300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>17400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-20300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>5200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>12500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>24500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>26000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1500</v>
       </c>
-      <c r="X35" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y35" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="Z35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-9700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E38" s="2">
         <v>44744</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44653</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44562</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44471</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44380</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44289</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44198</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44009</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43918</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43827</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43736</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43645</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43554</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43463</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43372</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43099</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42917</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42826</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2889,8 +2973,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2918,85 +3003,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>256200</v>
+      </c>
+      <c r="E41" s="3">
         <v>254400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>314600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>305800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>439100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>408300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>453800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>373900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>377000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>256300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>263200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>39300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>94100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>82800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>72500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>17100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>48900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>34600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>58400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>27600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>24900</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AA41" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3072,8 +3161,11 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3081,144 +3173,147 @@
         <v>63800</v>
       </c>
       <c r="E43" s="3">
+        <v>63800</v>
+      </c>
+      <c r="F43" s="3">
         <v>62200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>55700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>54100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>54700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>60000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>58000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>49700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>58500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>27600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>44500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>50700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>57400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>58000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>50700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>38900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>45100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>41700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>43200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>39100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>38200</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z43" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AA43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>122000</v>
+      </c>
+      <c r="E44" s="3">
         <v>129500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>127400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>123700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>124600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>120900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>119500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>111300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>111700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>117900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>130400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>127600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>111900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>105700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>111900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>116000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>99300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>94900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>93700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>91200</v>
-      </c>
-      <c r="W44" s="3">
-        <v>89400</v>
       </c>
       <c r="X44" s="3">
         <v>89400</v>
       </c>
-      <c r="Y44" s="3" t="s">
-        <v>5</v>
+      <c r="Y44" s="3">
+        <v>89400</v>
       </c>
       <c r="Z44" s="3" t="s">
         <v>5</v>
@@ -3226,162 +3321,171 @@
       <c r="AA44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E45" s="3">
         <v>32800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>28300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>29400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>28600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>24500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>23600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>23500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>17100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>20500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>20100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>23300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>22000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>25000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>27600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>30800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>24100</v>
-      </c>
-      <c r="T45" s="3">
-        <v>24800</v>
       </c>
       <c r="U45" s="3">
         <v>24800</v>
       </c>
       <c r="V45" s="3">
+        <v>24800</v>
+      </c>
+      <c r="W45" s="3">
         <v>23900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>22700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>22000</v>
       </c>
-      <c r="Y45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z45" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AA45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>477100</v>
+      </c>
+      <c r="E46" s="3">
         <v>480500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>532600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>514600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>646400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>608400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>657000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>566700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>555400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>453100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>441200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>234600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>278600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>270900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>270100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>214700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>211100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>199400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>218600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>162500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>178800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>174400</v>
       </c>
-      <c r="Y46" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z46" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AA46" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3457,162 +3561,171 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>738300</v>
+      </c>
+      <c r="E48" s="3">
         <v>723000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>712300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>701300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>678200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>679200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>679800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>681400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>666200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>681600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>693500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>714900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>716200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>715900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>695300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>355100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>340600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>328000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>311000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>302300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>290700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>281300</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AA48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1054600</v>
+      </c>
+      <c r="E49" s="3">
         <v>1056400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1058300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1060200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1062100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1063900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1065800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1067700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1069500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1071400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1073200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1075100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1077000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1078800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1080600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1082700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1099900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1102000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1104100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1106200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1108300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1110400</v>
       </c>
-      <c r="Y49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AA49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3688,8 +3801,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3765,85 +3881,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E52" s="3">
         <v>18500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>22300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>17000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>18900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>17700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>17300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>17700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>16300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>12900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>10800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>8100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>6300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>8900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>9100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>10000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>10900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>11000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>11100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>10500</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AA52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3919,85 +4041,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2291700</v>
+      </c>
+      <c r="E54" s="3">
         <v>2278300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2325500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2293100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2405500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2369200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2419800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2333500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2307500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2219000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2218700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2032700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2078400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2071800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2053100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1661400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1660700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1639400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1644600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1581900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1588900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1576700</v>
       </c>
-      <c r="Y54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z54" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AA54" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4025,8 +4153,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4054,153 +4183,157 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>69000</v>
+      </c>
+      <c r="E57" s="3">
         <v>70000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>69400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>64300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>76100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>77700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>79800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>64900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>68600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>52400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>60000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>40800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>45300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>47100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>45100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>43600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>30900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>32800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>46100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>35700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>33600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>34400</v>
       </c>
-      <c r="Y57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AA57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4700</v>
+        <v>4000</v>
       </c>
       <c r="E58" s="3">
         <v>4700</v>
       </c>
       <c r="F58" s="3">
+        <v>4700</v>
+      </c>
+      <c r="G58" s="3">
         <v>4000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>13800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>13700</v>
-      </c>
-      <c r="P58" s="3">
-        <v>8500</v>
       </c>
       <c r="Q58" s="3">
         <v>8500</v>
       </c>
       <c r="R58" s="3">
+        <v>8500</v>
+      </c>
+      <c r="S58" s="3">
         <v>7600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>7900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>7700</v>
-      </c>
-      <c r="U58" s="3">
-        <v>7300</v>
       </c>
       <c r="V58" s="3">
         <v>7300</v>
       </c>
       <c r="W58" s="3">
-        <v>9600</v>
+        <v>7300</v>
       </c>
       <c r="X58" s="3">
         <v>9600</v>
       </c>
-      <c r="Y58" s="3" t="s">
-        <v>5</v>
+      <c r="Y58" s="3">
+        <v>9600</v>
       </c>
       <c r="Z58" s="3" t="s">
         <v>5</v>
@@ -4208,162 +4341,171 @@
       <c r="AA58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>263700</v>
+      </c>
+      <c r="E59" s="3">
         <v>279100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>271300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>275500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>268300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>288500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>275900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>260200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>283900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>256200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>224000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>218600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>244800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>232700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>244100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>160400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>158500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>148800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>168200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>169500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>176000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>167900</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AA59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>336600</v>
+      </c>
+      <c r="E60" s="3">
         <v>353800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>345400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>343800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>348800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>370500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>359800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>328700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>356000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>311900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>287500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>273200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>303900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>288300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>297700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>211700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>197200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>189300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>221700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>211300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>219200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>211900</v>
       </c>
-      <c r="Y60" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z60" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AA60" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4371,153 +4513,159 @@
         <v>564200</v>
       </c>
       <c r="E61" s="3">
+        <v>564200</v>
+      </c>
+      <c r="F61" s="3">
         <v>564700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>566100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>615600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>616200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>733700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>651800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>648100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>644900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>713200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>555900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>584300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>579100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>578400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>570500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>566900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>566600</v>
-      </c>
-      <c r="U61" s="3">
-        <v>562000</v>
       </c>
       <c r="V61" s="3">
         <v>562000</v>
       </c>
       <c r="W61" s="3">
+        <v>562000</v>
+      </c>
+      <c r="X61" s="3">
         <v>912700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>913300</v>
       </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
       <c r="Z61" s="3">
         <v>0</v>
       </c>
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>484000</v>
+      </c>
+      <c r="E62" s="3">
         <v>468700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>464700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>457200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>452500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>444200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>438800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>446600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>438400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>441200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>431900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>427200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>424800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>430000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>414400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>136000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>138400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>154000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>149600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>154100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>202400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>202000</v>
       </c>
-      <c r="Y62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AA62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4593,8 +4741,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4670,8 +4821,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4747,85 +4901,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1384800</v>
+      </c>
+      <c r="E66" s="3">
         <v>1386700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1374800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1367100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1416900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1430900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1532300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1427000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1442600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1398100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1432600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1256300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1313000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1297400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1290500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>918200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>902500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>909900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>933300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>927300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1334300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1327200</v>
       </c>
-      <c r="Y66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AA66" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4853,8 +5013,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4930,8 +5091,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5007,8 +5171,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5084,8 +5251,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5161,85 +5331,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>329800</v>
+      </c>
+      <c r="E72" s="3">
         <v>318300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>308500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>278400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>272200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>231200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>193600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>142900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>107800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>72500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>116300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>107100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>103200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>102000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>91800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>74800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>100100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>94300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>81200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>32200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>8400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>6900</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AA72" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5315,8 +5491,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5392,8 +5571,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5469,85 +5651,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>906900</v>
+      </c>
+      <c r="E76" s="3">
         <v>891700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>950700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>926000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>988600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>938300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>887500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>906500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>865000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>820900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>786200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>776400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>765500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>774400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>762600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>743200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>758200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>729600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>711300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>654600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>254600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>249500</v>
       </c>
-      <c r="Y76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z76" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AA76" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5623,167 +5811,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E80" s="2">
         <v>44744</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44653</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44562</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44471</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44380</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44289</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44198</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44009</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43918</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43827</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43736</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43645</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43554</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43463</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43372</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43099</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42917</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42826</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E81" s="3">
         <v>9700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>30100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>6200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>41000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>37600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>43400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>35100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>35300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-43800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>9700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>10300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>17400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-20300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>5200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>12500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>24500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>26000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1500</v>
       </c>
-      <c r="X81" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y81" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="Z81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-9700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5811,85 +6008,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>25200</v>
+        <v>24900</v>
       </c>
       <c r="E83" s="3">
         <v>25200</v>
       </c>
       <c r="F83" s="3">
+        <v>25200</v>
+      </c>
+      <c r="G83" s="3">
         <v>24500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>25100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>24000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>23600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>22600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>22200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>21900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>24800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>23700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>22300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>20800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>20400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>19600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>15200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>19700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>20000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>19700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>21700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>14600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>14400</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>13800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5965,8 +6166,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6042,8 +6246,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6119,8 +6326,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6196,8 +6406,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6273,85 +6486,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>33300</v>
+      </c>
+      <c r="E89" s="3">
         <v>40900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>47100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>25100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>44000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>92200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>97700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>31300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>132300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-14600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>86100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-5900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>51700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>36300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>83000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-9300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>35800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>77800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-6000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>28300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>21400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>46500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>6500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6379,85 +6598,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-27600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-28100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-36600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-20100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-22400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-16400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-36000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-15000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-12700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-13100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-24900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-24400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-26100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-26000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-25700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-30100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-25900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-22800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-26100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-22900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-23500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-20700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-23300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-20200</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6533,8 +6756,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6610,85 +6836,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-27600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-28100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-36500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-17700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-22400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-16400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-35900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-15000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-12700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-12900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-24700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-24100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-26000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-25800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-25500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-30100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-25900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-22700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-26100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-24400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-23400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-20700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-23200</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-21000</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6716,8 +6948,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6785,16 +7018,19 @@
         <v>0</v>
       </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-171000</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6870,8 +7106,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6947,8 +7186,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7024,85 +7266,91 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-73700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-9900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-122300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>4500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-115400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>20800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>150600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-24400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-16100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>8500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>8700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-3100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7178,81 +7426,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-60400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>9100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-133600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>30800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-45700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>80200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>120800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-6500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>223800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-55000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>11400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>10000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>55900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-32100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>14200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-24200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>54800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-23400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>2600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-5100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>25400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-18800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>4100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EYE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EYE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="92">
   <si>
     <t>EYE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,355 +665,368 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44835</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44744</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44653</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44562</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44471</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44380</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44289</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44198</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44009</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43918</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43827</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43736</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43645</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43554</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43463</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43372</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43099</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42917</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42826</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>468900</v>
+      </c>
+      <c r="E8" s="3">
         <v>499200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>509600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>527700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>477900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>518000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>549500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>534200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>496700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>485400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>260000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>469700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>401800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>431900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>429500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>461200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>355900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>387400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>385500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>408000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>321800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>346100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>337500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>369900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>277100</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>301200</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>222200</v>
+      </c>
+      <c r="E9" s="3">
         <v>232800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>234600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>236000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>217700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>226500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>235900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>224700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>216500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>210800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>140800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>218600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>187500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>204500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>202500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>212000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>173500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>182600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>177100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>180500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>152400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>162400</v>
       </c>
-      <c r="Y9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB9" s="3">
         <v>130300</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>138700</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>246700</v>
+      </c>
+      <c r="E10" s="3">
         <v>266400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>275000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>291700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>260200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>291500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>313600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>309500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>280200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>274600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>119200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>251100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>214300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>227400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>227000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>249200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>182400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>204800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>208400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>227500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>169400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>183700</v>
       </c>
-      <c r="Y10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB10" s="3">
         <v>146800</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>162500</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1055,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1122,8 +1136,11 @@
       <c r="AB12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1202,168 +1219,177 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>500</v>
+      </c>
+      <c r="E14" s="3">
         <v>1500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>3700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>3000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>7200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>15800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>13300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>15500</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>2100</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>3100</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>8000</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
       <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
         <v>7100</v>
       </c>
-      <c r="AB14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E15" s="3">
         <v>24900</v>
-      </c>
-      <c r="E15" s="3">
-        <v>25200</v>
       </c>
       <c r="F15" s="3">
         <v>25200</v>
       </c>
       <c r="G15" s="3">
+        <v>25200</v>
+      </c>
+      <c r="H15" s="3">
         <v>24500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>25100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>24000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>23600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>22600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>22200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>21900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>24800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>23700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>22300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>20800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>20400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>20300</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>19300</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>17600</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>17900</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>17600</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>15400</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>14600</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>14400</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>13800</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1389,168 +1415,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>478700</v>
+      </c>
+      <c r="E17" s="3">
         <v>483800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>491200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>490400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>469900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>467300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>494700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>472700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>439800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>430600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>301600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>452800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>393400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>430600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>407700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>428800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>377800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>389500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>360600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>369100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>327600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>329500</v>
       </c>
-      <c r="Y17" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AA17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB17" s="3">
         <v>280500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>286900</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E18" s="3">
         <v>15400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>18400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>37300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>8000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>50700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>54800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>61500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>56900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>54800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-41600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>16900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>8400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>21800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>32400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-21900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>24900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>38900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-5800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>16600</v>
       </c>
-      <c r="Y18" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AA18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB18" s="3">
         <v>-3400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1579,31 +1612,32 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E20" s="3">
         <v>5700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>7800</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>-2700</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>-5000</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>-9400</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1647,340 +1681,355 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-      <c r="Y20" s="3" t="s">
-        <v>5</v>
+      <c r="Y20" s="3">
+        <v>0</v>
       </c>
       <c r="Z20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AA20" s="3">
-        <v>0</v>
+      <c r="AA20" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E21" s="3">
         <v>45900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>43300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>70300</v>
       </c>
-      <c r="G21" s="3">
-        <v>32500</v>
-      </c>
       <c r="H21" s="3">
-        <v>75800</v>
+        <v>29700</v>
       </c>
       <c r="I21" s="3">
-        <v>78900</v>
+        <v>70700</v>
       </c>
       <c r="J21" s="3">
+        <v>69500</v>
+      </c>
+      <c r="K21" s="3">
         <v>85000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>79500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>77000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-19700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>41700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>32000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>23700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>42500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>52800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>17300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>42600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>56700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>11800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>31900</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AA21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB21" s="3">
         <v>10400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>27500</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="E22" s="3">
         <v>3700</v>
       </c>
       <c r="F22" s="3">
+        <v>3700</v>
+      </c>
+      <c r="G22" s="3">
         <v>3600</v>
       </c>
-      <c r="G22" s="3">
-        <v>3400</v>
-      </c>
       <c r="H22" s="3">
-        <v>5700</v>
+        <v>700</v>
       </c>
       <c r="I22" s="3">
-        <v>10200</v>
+        <v>700</v>
       </c>
       <c r="J22" s="3">
+        <v>800</v>
+      </c>
+      <c r="K22" s="3">
         <v>6300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>12800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>12500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>15600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>7500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>7400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>7900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>9000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>9100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>9300</v>
-      </c>
-      <c r="T22" s="3">
-        <v>9400</v>
       </c>
       <c r="U22" s="3">
         <v>9400</v>
       </c>
       <c r="V22" s="3">
+        <v>9400</v>
+      </c>
+      <c r="W22" s="3">
         <v>9300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>16400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>14900</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>14600</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>14200</v>
-      </c>
-      <c r="AA22" s="3">
-        <v>9700</v>
       </c>
       <c r="AB22" s="3">
         <v>9700</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>9700</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E23" s="3">
         <v>17300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>14400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>41500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>4600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>45000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>44600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>55100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>44100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>42300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-57200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>9500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>12700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>23300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-31200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-11500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>15500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>29500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-22200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>25500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-13100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E24" s="3">
         <v>5800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>11300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>4000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>7000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>11700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>9100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>7000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-13400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-3000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>5900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-10900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-16700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>3100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>5100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-6100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>8500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-3400</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2059,168 +2108,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E26" s="3">
         <v>11500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>9700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>30100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>6200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>41000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>37600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>43400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>35100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>35300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-43800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>9700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>10300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>17400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-20300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>5200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>12500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>24500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-16100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1500</v>
       </c>
-      <c r="Y26" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AA26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB26" s="3">
         <v>-9700</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E27" s="3">
         <v>11500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>9700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>30100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>6200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>41000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>37600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>43400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>35100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>35300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-43800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>9700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>10300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>17400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-20300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>5200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>12500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>24500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-16100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1500</v>
       </c>
-      <c r="Y27" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AA27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB27" s="3">
         <v>-9700</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2299,8 +2357,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2343,8 +2404,8 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
@@ -2361,12 +2422,12 @@
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X29" s="3">
         <v>42100</v>
       </c>
-      <c r="X29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2379,8 +2440,11 @@
       <c r="AB29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2459,8 +2523,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2539,31 +2606,34 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-5700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-7800</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>9400</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -2607,100 +2677,106 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-      <c r="Y32" s="3" t="s">
-        <v>5</v>
+      <c r="Y32" s="3">
+        <v>0</v>
       </c>
       <c r="Z32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AA32" s="3">
-        <v>0</v>
+      <c r="AA32" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E33" s="3">
         <v>11500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>9700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>30100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>6200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>41000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>37600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>43400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>35100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>35300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-43800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>9700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>10300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>17400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-20300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>5200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>12500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>24500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>26000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1500</v>
       </c>
-      <c r="Y33" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z33" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AA33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB33" s="3">
         <v>-9700</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2779,173 +2855,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E35" s="3">
         <v>11500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>9700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>30100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>6200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>41000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>37600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>43400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>35100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>35300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-43800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>9700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>10300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>17400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-20300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>5200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>12500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>24500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>26000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1500</v>
       </c>
-      <c r="Y35" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z35" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AA35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB35" s="3">
         <v>-9700</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44835</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44744</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44653</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44562</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44471</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44380</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44289</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44198</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44009</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43918</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43827</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43736</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43645</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43554</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43463</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43372</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43099</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42917</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42826</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2974,8 +3059,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3004,88 +3090,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>229400</v>
+      </c>
+      <c r="E41" s="3">
         <v>256200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>254400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>314600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>305800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>439100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>408300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>453800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>373900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>377000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>256300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>263200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>39300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>94100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>82800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>72500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>17100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>48900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>34600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>58400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>27600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>24900</v>
       </c>
-      <c r="Z41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AB41" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3164,159 +3254,165 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>63800</v>
+        <v>79900</v>
       </c>
       <c r="E43" s="3">
         <v>63800</v>
       </c>
       <c r="F43" s="3">
+        <v>63800</v>
+      </c>
+      <c r="G43" s="3">
         <v>62200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>55700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>54100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>54700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>60000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>58000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>49700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>58500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>27600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>44500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>50700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>57400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>58000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>50700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>38900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>45100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>41700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>43200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>39100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>38200</v>
       </c>
-      <c r="Z43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA43" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AB43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>123200</v>
+      </c>
+      <c r="E44" s="3">
         <v>122000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>129500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>127400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>123700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>124600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>120900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>119500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>111300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>111700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>117900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>130400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>127600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>111900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>105700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>111900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>116000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>99300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>94900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>93700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>91200</v>
-      </c>
-      <c r="X44" s="3">
-        <v>89400</v>
       </c>
       <c r="Y44" s="3">
         <v>89400</v>
       </c>
-      <c r="Z44" s="3" t="s">
-        <v>5</v>
+      <c r="Z44" s="3">
+        <v>89400</v>
       </c>
       <c r="AA44" s="3" t="s">
         <v>5</v>
@@ -3324,168 +3420,177 @@
       <c r="AB44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>41400</v>
+      </c>
+      <c r="E45" s="3">
         <v>35000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>32800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>28300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>29400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>28600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>24500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>23600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>23500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>17100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>20500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>20100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>23300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>22000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>25000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>27600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>30800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>24100</v>
-      </c>
-      <c r="U45" s="3">
-        <v>24800</v>
       </c>
       <c r="V45" s="3">
         <v>24800</v>
       </c>
       <c r="W45" s="3">
+        <v>24800</v>
+      </c>
+      <c r="X45" s="3">
         <v>23900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>22700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>22000</v>
       </c>
-      <c r="Z45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA45" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AB45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>473800</v>
+      </c>
+      <c r="E46" s="3">
         <v>477100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>480500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>532600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>514600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>646400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>608400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>657000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>566700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>555400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>453100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>441200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>234600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>278600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>270900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>270100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>214700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>211100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>199400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>218600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>162500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>178800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>174400</v>
       </c>
-      <c r="Z46" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA46" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AB46" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3564,168 +3669,177 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>742600</v>
+      </c>
+      <c r="E48" s="3">
         <v>738300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>723000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>712300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>701300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>678200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>679200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>679800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>681400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>666200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>681600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>693500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>714900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>716200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>715900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>695300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>355100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>340600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>328000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>311000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>302300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>290700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>281300</v>
       </c>
-      <c r="Z48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AB48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1052800</v>
+      </c>
+      <c r="E49" s="3">
         <v>1054600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1056400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1058300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1060200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1062100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1063900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1065800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1067700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1069500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1071400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1073200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1075100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1077000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1078800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1080600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1082700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1099900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1102000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1104100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1106200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1108300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1110400</v>
       </c>
-      <c r="Z49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AB49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3804,8 +3918,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3884,88 +4001,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E52" s="3">
         <v>21800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>18500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>22300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>17000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>18900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>17700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>17300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>17700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>16300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>12900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>10800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>8100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>6600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>6300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>7100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>8900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>9100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>10000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>10900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>11000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>11100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>10500</v>
       </c>
-      <c r="Z52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AB52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4044,88 +4167,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2291200</v>
+      </c>
+      <c r="E54" s="3">
         <v>2291700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2278300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2325500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2293100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2405500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2369200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2419800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2333500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2307500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2219000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2218700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2032700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2078400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2071800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2053100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1661400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1660700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1639400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1644600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1581900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1588900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1576700</v>
       </c>
-      <c r="Z54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA54" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AB54" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4154,8 +4283,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4184,159 +4314,163 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>65300</v>
+      </c>
+      <c r="E57" s="3">
         <v>69000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>70000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>69400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>64300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>76100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>77700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>79800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>64900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>68600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>52400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>60000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>40800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>45300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>47100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>45100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>43600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>30900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>32800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>46100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>35700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>33600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>34400</v>
       </c>
-      <c r="Z57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AB57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E58" s="3">
         <v>4000</v>
-      </c>
-      <c r="E58" s="3">
-        <v>4700</v>
       </c>
       <c r="F58" s="3">
         <v>4700</v>
       </c>
       <c r="G58" s="3">
+        <v>4700</v>
+      </c>
+      <c r="H58" s="3">
         <v>4000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>13800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>13700</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>8500</v>
       </c>
       <c r="R58" s="3">
         <v>8500</v>
       </c>
       <c r="S58" s="3">
+        <v>8500</v>
+      </c>
+      <c r="T58" s="3">
         <v>7600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>7900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>7700</v>
-      </c>
-      <c r="V58" s="3">
-        <v>7300</v>
       </c>
       <c r="W58" s="3">
         <v>7300</v>
       </c>
       <c r="X58" s="3">
-        <v>9600</v>
+        <v>7300</v>
       </c>
       <c r="Y58" s="3">
         <v>9600</v>
       </c>
-      <c r="Z58" s="3" t="s">
-        <v>5</v>
+      <c r="Z58" s="3">
+        <v>9600</v>
       </c>
       <c r="AA58" s="3" t="s">
         <v>5</v>
@@ -4344,328 +4478,343 @@
       <c r="AB58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>274900</v>
+      </c>
+      <c r="E59" s="3">
         <v>263700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>279100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>271300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>275500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>268300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>288500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>275900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>260200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>283900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>256200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>224000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>218600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>244800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>232700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>244100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>160400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>158500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>148800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>168200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>169500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>176000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>167900</v>
       </c>
-      <c r="Z59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AB59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>344300</v>
+      </c>
+      <c r="E60" s="3">
         <v>336600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>353800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>345400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>343800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>348800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>370500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>359800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>328700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>356000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>311900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>287500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>273200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>303900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>288300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>297700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>211700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>197200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>189300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>221700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>211300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>219200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>211900</v>
       </c>
-      <c r="Z60" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA60" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AB60" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>564200</v>
+        <v>563400</v>
       </c>
       <c r="E61" s="3">
         <v>564200</v>
       </c>
       <c r="F61" s="3">
+        <v>564200</v>
+      </c>
+      <c r="G61" s="3">
         <v>564700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>566100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>615600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>616200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>733700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>651800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>648100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>644900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>713200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>555900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>584300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>579100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>578400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>570500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>566900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>566600</v>
-      </c>
-      <c r="V61" s="3">
-        <v>562000</v>
       </c>
       <c r="W61" s="3">
         <v>562000</v>
       </c>
       <c r="X61" s="3">
+        <v>562000</v>
+      </c>
+      <c r="Y61" s="3">
         <v>912700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>913300</v>
       </c>
-      <c r="Z61" s="3">
-        <v>0</v>
-      </c>
       <c r="AA61" s="3">
         <v>0</v>
       </c>
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>482500</v>
+      </c>
+      <c r="E62" s="3">
         <v>484000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>468700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>464700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>457200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>452500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>444200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>438800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>446600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>438400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>441200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>431900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>427200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>424800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>430000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>414400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>136000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>138400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>154000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>149600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>154100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>202400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>202000</v>
       </c>
-      <c r="Z62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AB62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4744,8 +4893,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4824,8 +4976,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4904,88 +5059,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1390100</v>
+      </c>
+      <c r="E66" s="3">
         <v>1384800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1386700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1374800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1367100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1416900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1430900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1532300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1427000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1442600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1398100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1432600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1256300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1313000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1297400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1290500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>918200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>902500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>909900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>933300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>927300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1334300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1327200</v>
       </c>
-      <c r="Z66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AB66" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5014,8 +5175,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5094,8 +5256,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5174,8 +5339,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5254,8 +5422,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5334,88 +5505,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>320500</v>
+      </c>
+      <c r="E72" s="3">
         <v>329800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>318300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>308500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>278400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>272200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>231200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>193600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>142900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>107800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>72500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>116300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>107100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>103200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>102000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>91800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>74800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>100100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>94300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>81200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>32200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>8400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>6900</v>
       </c>
-      <c r="Z72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AB72" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5494,8 +5671,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5574,8 +5754,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5654,88 +5837,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>901100</v>
+      </c>
+      <c r="E76" s="3">
         <v>906900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>891700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>950700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>926000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>988600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>938300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>887500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>906500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>865000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>820900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>786200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>776400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>765500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>774400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>762600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>743200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>758200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>729600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>711300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>654600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>254600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>249500</v>
       </c>
-      <c r="Z76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA76" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AB76" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5814,173 +6003,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44835</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44744</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44653</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44562</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44471</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44380</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44289</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44198</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44009</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43918</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43827</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43736</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43645</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43554</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43463</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43372</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43099</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42917</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42826</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E81" s="3">
         <v>11500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>9700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>30100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>6200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>41000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>37600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>43400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>35100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>35300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-43800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>9700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>10300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>17400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-20300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>5200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>12500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>24500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>26000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1500</v>
       </c>
-      <c r="Y81" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z81" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AA81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB81" s="3">
         <v>-9700</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6009,88 +6207,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E83" s="3">
         <v>24900</v>
-      </c>
-      <c r="E83" s="3">
-        <v>25200</v>
       </c>
       <c r="F83" s="3">
         <v>25200</v>
       </c>
       <c r="G83" s="3">
+        <v>25200</v>
+      </c>
+      <c r="H83" s="3">
         <v>24500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>25100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>24000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>23600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>22600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>22200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>21900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>24800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>23700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>22300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>20800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>20400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>19600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>15200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>19700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>20000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>19700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>21700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>14600</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>14400</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>13800</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6169,8 +6371,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6249,8 +6454,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6329,8 +6537,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6409,8 +6620,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6489,88 +6703,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E89" s="3">
         <v>33300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>40900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>47100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>25100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>44000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>92200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>97700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>31300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>132300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-14600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>86100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-5900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>51700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>36300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>83000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-9300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>35800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>77800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-6000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>28300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>21400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>46500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>6500</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6599,88 +6819,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-27400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-30400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-27600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-28100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-36600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-20100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-22400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-16400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-36000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-15000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-12700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-13100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-24900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-24400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-26100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-26000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-25700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-30100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-25900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-22800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-26100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-22900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-23500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-20700</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-23300</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-20200</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6759,8 +6983,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6839,88 +7066,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-24800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-30400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-27600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-28100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-36500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-17700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-22400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-16400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-35900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-15000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-12700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-12900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-24700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-24100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-26000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-25800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-25500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-30100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-25900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-22700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-26100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-24400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-23400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-20700</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-23200</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-21000</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6949,8 +7182,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7021,16 +7255,19 @@
         <v>0</v>
       </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-171000</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7109,8 +7346,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7189,8 +7429,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7269,88 +7512,94 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-73700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-9900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-122300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>4500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-115400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>20800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>150600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-24400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-16100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>8500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>8700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-3100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-2100</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7429,84 +7678,90 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="E102" s="3">
         <v>1900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-60400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>9100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-133600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>30800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-45700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>80200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>120800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-6500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>223800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-55000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>11400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>10000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>55900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-32100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>14200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-24200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>54800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-23400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>2600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-5100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>25400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-18800</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>4100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EYE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EYE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="92">
   <si>
     <t>EYE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,368 +665,381 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44835</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44744</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44653</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44562</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44471</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44380</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44289</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44198</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44009</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43918</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43827</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43736</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43645</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43554</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43463</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43372</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43099</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42917</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42826</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>562400</v>
+      </c>
+      <c r="E8" s="3">
         <v>468900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>499200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>509600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>527700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>477900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>518000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>549500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>534200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>496700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>485400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>260000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>469700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>401800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>431900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>429500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>461200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>355900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>387400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>385500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>408000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>321800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>346100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>337500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>369900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>277100</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>301200</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>254100</v>
+      </c>
+      <c r="E9" s="3">
         <v>222200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>232800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>234600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>236000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>217700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>226500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>235900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>224700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>216500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>210800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>140800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>218600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>187500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>204500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>202500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>212000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>173500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>182600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>177100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>180500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>152400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>162400</v>
       </c>
-      <c r="Z9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AB9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC9" s="3">
         <v>130300</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>138700</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>308300</v>
+      </c>
+      <c r="E10" s="3">
         <v>246700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>266400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>275000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>291700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>260200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>291500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>313600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>309500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>280200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>274600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>119200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>251100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>214300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>227400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>227000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>249200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>182400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>204800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>208400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>227500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>169400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>183700</v>
       </c>
-      <c r="Z10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AB10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC10" s="3">
         <v>146800</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>162500</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1056,8 +1069,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1139,8 +1153,11 @@
       <c r="AC12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1222,174 +1239,183 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>400</v>
+      </c>
+      <c r="E14" s="3">
         <v>500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>3700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>3000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>7200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>15800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>13300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>15500</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>2100</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>3100</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
       <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>8000</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
       <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
         <v>7100</v>
       </c>
-      <c r="AC14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E15" s="3">
         <v>24700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>24900</v>
-      </c>
-      <c r="F15" s="3">
-        <v>25200</v>
       </c>
       <c r="G15" s="3">
         <v>25200</v>
       </c>
       <c r="H15" s="3">
+        <v>25200</v>
+      </c>
+      <c r="I15" s="3">
         <v>24500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>25100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>24000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>23600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>22600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>22200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>21900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>24800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>23700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>22300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>20800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>20400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>20300</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>19300</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>17600</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>17900</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>17600</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>15400</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>14600</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>14400</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>13800</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1416,174 +1442,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>529100</v>
+      </c>
+      <c r="E17" s="3">
         <v>478700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>483800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>491200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>490400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>469900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>467300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>494700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>472700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>439800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>430600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>301600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>452800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>393400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>430600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>407700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>428800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>377800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>389500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>360600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>369100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>327600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>329500</v>
       </c>
-      <c r="Z17" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AB17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC17" s="3">
         <v>280500</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>286900</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>33300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-9800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>15400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>18400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>37300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>8000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>50700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>54800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>61500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>56900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>54800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-41600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>16900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>8400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>21800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>32400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-21900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-2100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>24900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>38900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-5800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>16600</v>
       </c>
-      <c r="Z18" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AB18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC18" s="3">
         <v>-3400</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1613,35 +1646,36 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E20" s="3">
         <v>1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>5700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>7800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-5000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-9400</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1684,352 +1718,367 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-      <c r="Z20" s="3" t="s">
-        <v>5</v>
+      <c r="Z20" s="3">
+        <v>0</v>
       </c>
       <c r="AA20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB20" s="3">
-        <v>0</v>
+      <c r="AB20" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>56800</v>
+      </c>
+      <c r="E21" s="3">
         <v>15900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>45900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>43300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>70300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>29700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>70700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>69500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>85000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>79500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>77000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-19700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>41700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>32000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>23700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>42500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>52800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-2300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>17300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>42600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>56700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>11800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>31900</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AB21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC21" s="3">
         <v>10400</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>27500</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E22" s="3">
         <v>3600</v>
-      </c>
-      <c r="E22" s="3">
-        <v>3700</v>
       </c>
       <c r="F22" s="3">
         <v>3700</v>
       </c>
       <c r="G22" s="3">
+        <v>3700</v>
+      </c>
+      <c r="H22" s="3">
         <v>3600</v>
-      </c>
-      <c r="H22" s="3">
-        <v>700</v>
       </c>
       <c r="I22" s="3">
         <v>700</v>
       </c>
       <c r="J22" s="3">
+        <v>700</v>
+      </c>
+      <c r="K22" s="3">
         <v>800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>6300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>12800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>12500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>15600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>7500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>7400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>7900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>9000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>9100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>9300</v>
-      </c>
-      <c r="U22" s="3">
-        <v>9400</v>
       </c>
       <c r="V22" s="3">
         <v>9400</v>
       </c>
       <c r="W22" s="3">
+        <v>9400</v>
+      </c>
+      <c r="X22" s="3">
         <v>9300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>16400</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>14900</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>14600</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>14200</v>
-      </c>
-      <c r="AB22" s="3">
-        <v>9700</v>
       </c>
       <c r="AC22" s="3">
         <v>9700</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>9700</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>28400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-12400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>17300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>14400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>41500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>4600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>45000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>44600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>55100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>44100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>42300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-57200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>9500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-6500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>12700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>23300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-31200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-11500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>15500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>29500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-22200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>25500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-13100</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-3100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>4700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>11300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-1600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>4000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>7000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>11700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>9100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>7000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-13400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-7700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>5900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-10900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-16700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>3100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>5100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-6100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>8500</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-3400</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2111,174 +2160,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-9300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>11500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>9700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>30100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>6200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>41000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>37600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>43400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>35100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>35300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-43800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>9700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>10300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>17400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-20300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>5200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>12500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>24500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-16100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1500</v>
       </c>
-      <c r="Z26" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AB26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC26" s="3">
         <v>-9700</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-9300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>11500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>9700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>30100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>6200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>41000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>37600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>43400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>35100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>35300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-43800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>9700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>10300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>17400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-20300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>5200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>12500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>24500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-16100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1500</v>
       </c>
-      <c r="Z27" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AB27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC27" s="3">
         <v>-9700</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2360,8 +2418,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2407,8 +2468,8 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
@@ -2425,12 +2486,12 @@
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y29" s="3">
         <v>42100</v>
       </c>
-      <c r="Y29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2443,8 +2504,11 @@
       <c r="AC29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2526,8 +2590,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2609,35 +2676,38 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-5700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-7800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>5000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>9400</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2680,103 +2750,109 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-      <c r="Z32" s="3" t="s">
-        <v>5</v>
+      <c r="Z32" s="3">
+        <v>0</v>
       </c>
       <c r="AA32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB32" s="3">
-        <v>0</v>
+      <c r="AB32" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AC32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-9300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>11500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>9700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>30100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>6200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>41000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>37600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>43400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>35100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>35300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-43800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>9700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>10300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>17400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-20300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>5200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>12500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>24500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>26000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1500</v>
       </c>
-      <c r="Z33" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA33" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AB33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC33" s="3">
         <v>-9700</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2858,179 +2934,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-9300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>11500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>9700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>30100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>6200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>41000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>37600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>43400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>35100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>35300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-43800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>9700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>10300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>17400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-20300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>5200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>12500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>24500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>26000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1500</v>
       </c>
-      <c r="Z35" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA35" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AB35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC35" s="3">
         <v>-9700</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44835</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44744</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44653</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44562</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44471</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44380</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44289</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44198</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44009</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43918</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43827</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43736</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43645</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43554</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43463</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43372</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43099</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42917</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42826</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3060,8 +3145,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3091,91 +3177,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>246900</v>
+      </c>
+      <c r="E41" s="3">
         <v>229400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>256200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>254400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>314600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>305800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>439100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>408300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>453800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>373900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>377000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>256300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>263200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>39300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>94100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>82800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>72500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>17100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>48900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>34600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>58400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>27600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>24900</v>
       </c>
-      <c r="AA41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AC41" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3257,165 +3347,171 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>80000</v>
+      </c>
+      <c r="E43" s="3">
         <v>79900</v>
-      </c>
-      <c r="E43" s="3">
-        <v>63800</v>
       </c>
       <c r="F43" s="3">
         <v>63800</v>
       </c>
       <c r="G43" s="3">
+        <v>63800</v>
+      </c>
+      <c r="H43" s="3">
         <v>62200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>55700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>54100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>54700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>60000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>58000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>49700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>58500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>27600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>44500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>50700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>57400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>58000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>50700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>38900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>45100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>41700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>43200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>39100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>38200</v>
       </c>
-      <c r="AA43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB43" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AC43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>123500</v>
+      </c>
+      <c r="E44" s="3">
         <v>123200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>122000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>129500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>127400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>123700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>124600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>120900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>119500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>111300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>111700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>117900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>130400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>127600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>111900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>105700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>111900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>116000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>99300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>94900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>93700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>91200</v>
-      </c>
-      <c r="Y44" s="3">
-        <v>89400</v>
       </c>
       <c r="Z44" s="3">
         <v>89400</v>
       </c>
-      <c r="AA44" s="3" t="s">
-        <v>5</v>
+      <c r="AA44" s="3">
+        <v>89400</v>
       </c>
       <c r="AB44" s="3" t="s">
         <v>5</v>
@@ -3423,174 +3519,183 @@
       <c r="AC44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E45" s="3">
         <v>41400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>35000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>32800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>28300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>29400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>28600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>24500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>23600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>23500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>17100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>20500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>20100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>23300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>22000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>25000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>27600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>30800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>24100</v>
-      </c>
-      <c r="V45" s="3">
-        <v>24800</v>
       </c>
       <c r="W45" s="3">
         <v>24800</v>
       </c>
       <c r="X45" s="3">
+        <v>24800</v>
+      </c>
+      <c r="Y45" s="3">
         <v>23900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>22700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>22000</v>
       </c>
-      <c r="AA45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB45" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AC45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>486500</v>
+      </c>
+      <c r="E46" s="3">
         <v>473800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>477100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>480500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>532600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>514600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>646400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>608400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>657000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>566700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>555400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>453100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>441200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>234600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>278600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>270900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>270100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>214700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>211100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>199400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>218600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>162500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>178800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>174400</v>
       </c>
-      <c r="AA46" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB46" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AC46" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3672,174 +3777,183 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>751600</v>
+      </c>
+      <c r="E48" s="3">
         <v>742600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>738300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>723000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>712300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>701300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>678200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>679200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>679800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>681400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>666200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>681600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>693500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>714900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>716200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>715900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>695300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>355100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>340600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>328000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>311000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>302300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>290700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>281300</v>
       </c>
-      <c r="AA48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AC48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1050900</v>
+      </c>
+      <c r="E49" s="3">
         <v>1052800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1054600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1056400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1058300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1060200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1062100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1063900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1065800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1067700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1069500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1071400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1073200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1075100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1077000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1078800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1080600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1082700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1099900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1102000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1104100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1106200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1108300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1110400</v>
       </c>
-      <c r="AA49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AC49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3921,8 +4035,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4004,91 +4121,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E52" s="3">
         <v>22000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>21800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>18500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>22300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>17000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>18900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>17700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>17300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>17700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>16300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>12900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>10800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>8100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>6600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>6300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>7100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>8900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>9100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>10000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>10900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>11000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>11100</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>10500</v>
       </c>
-      <c r="AA52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AC52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4170,91 +4293,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2312400</v>
+      </c>
+      <c r="E54" s="3">
         <v>2291200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2291700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2278300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2325500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2293100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2405500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2369200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2419800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2333500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2307500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2219000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2218700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2032700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2078400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2071800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2053100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1661400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1660700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1639400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1644600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1581900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1588900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1576700</v>
       </c>
-      <c r="AA54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB54" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AC54" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4284,8 +4413,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4315,165 +4445,169 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>74600</v>
+      </c>
+      <c r="E57" s="3">
         <v>65300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>69000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>70000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>69400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>64300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>76100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>77700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>79800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>64900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>68600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>52400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>60000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>40800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>45300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>47100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>45100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>43600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>30900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>32800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>46100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>35700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>33600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>34400</v>
       </c>
-      <c r="AA57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AC57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E58" s="3">
         <v>4100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4000</v>
-      </c>
-      <c r="F58" s="3">
-        <v>4700</v>
       </c>
       <c r="G58" s="3">
         <v>4700</v>
       </c>
       <c r="H58" s="3">
+        <v>4700</v>
+      </c>
+      <c r="I58" s="3">
         <v>4000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>13800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>13700</v>
-      </c>
-      <c r="R58" s="3">
-        <v>8500</v>
       </c>
       <c r="S58" s="3">
         <v>8500</v>
       </c>
       <c r="T58" s="3">
+        <v>8500</v>
+      </c>
+      <c r="U58" s="3">
         <v>7600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>7900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>7700</v>
-      </c>
-      <c r="W58" s="3">
-        <v>7300</v>
       </c>
       <c r="X58" s="3">
         <v>7300</v>
       </c>
       <c r="Y58" s="3">
-        <v>9600</v>
+        <v>7300</v>
       </c>
       <c r="Z58" s="3">
         <v>9600</v>
       </c>
-      <c r="AA58" s="3" t="s">
-        <v>5</v>
+      <c r="AA58" s="3">
+        <v>9600</v>
       </c>
       <c r="AB58" s="3" t="s">
         <v>5</v>
@@ -4481,340 +4615,355 @@
       <c r="AC58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>283900</v>
+      </c>
+      <c r="E59" s="3">
         <v>274900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>263700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>279100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>271300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>275500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>268300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>288500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>275900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>260200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>283900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>256200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>224000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>218600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>244800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>232700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>244100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>160400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>158500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>148800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>168200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>169500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>176000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>167900</v>
       </c>
-      <c r="AA59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AC59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>361800</v>
+      </c>
+      <c r="E60" s="3">
         <v>344300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>336600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>353800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>345400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>343800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>348800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>370500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>359800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>328700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>356000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>311900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>287500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>273200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>303900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>288300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>297700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>211700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>197200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>189300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>221700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>211300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>219200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>211900</v>
       </c>
-      <c r="AA60" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB60" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AC60" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>563700</v>
+      </c>
+      <c r="E61" s="3">
         <v>563400</v>
-      </c>
-      <c r="E61" s="3">
-        <v>564200</v>
       </c>
       <c r="F61" s="3">
         <v>564200</v>
       </c>
       <c r="G61" s="3">
+        <v>564200</v>
+      </c>
+      <c r="H61" s="3">
         <v>564700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>566100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>615600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>616200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>733700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>651800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>648100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>644900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>713200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>555900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>584300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>579100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>578400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>570500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>566900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>566600</v>
-      </c>
-      <c r="W61" s="3">
-        <v>562000</v>
       </c>
       <c r="X61" s="3">
         <v>562000</v>
       </c>
       <c r="Y61" s="3">
+        <v>562000</v>
+      </c>
+      <c r="Z61" s="3">
         <v>912700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>913300</v>
       </c>
-      <c r="AA61" s="3">
-        <v>0</v>
-      </c>
       <c r="AB61" s="3">
         <v>0</v>
       </c>
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>490200</v>
+      </c>
+      <c r="E62" s="3">
         <v>482500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>484000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>468700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>464700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>457200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>452500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>444200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>438800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>446600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>438400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>441200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>431900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>427200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>424800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>430000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>414400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>136000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>138400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>154000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>149600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>154100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>202400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>202000</v>
       </c>
-      <c r="AA62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AC62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4896,8 +5045,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4979,8 +5131,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5062,91 +5217,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1415600</v>
+      </c>
+      <c r="E66" s="3">
         <v>1390100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1384800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1386700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1374800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1367100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1416900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1430900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1532300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1427000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1442600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1398100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1432600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1256300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1313000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1297400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1290500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>918200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>902500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>909900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>933300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>927300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1334300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1327200</v>
       </c>
-      <c r="AA66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AC66" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5176,8 +5337,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5259,8 +5421,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5342,8 +5507,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5425,8 +5593,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5508,91 +5679,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>338800</v>
+      </c>
+      <c r="E72" s="3">
         <v>320500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>329800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>318300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>308500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>278400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>272200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>231200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>193600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>142900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>107800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>72500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>116300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>107100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>103200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>102000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>91800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>74800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>100100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>94300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>81200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>32200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>8400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>6900</v>
       </c>
-      <c r="AA72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AC72" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5674,8 +5851,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5757,8 +5937,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5840,91 +6023,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>896700</v>
+      </c>
+      <c r="E76" s="3">
         <v>901100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>906900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>891700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>950700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>926000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>988600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>938300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>887500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>906500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>865000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>820900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>786200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>776400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>765500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>774400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>762600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>743200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>758200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>729600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>711300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>654600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>254600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>249500</v>
       </c>
-      <c r="AA76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB76" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AC76" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6006,179 +6195,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44835</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44744</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44653</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44562</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44471</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44380</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44289</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44198</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44009</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43918</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43827</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43736</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43645</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43554</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43463</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43372</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43099</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42917</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42826</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-9300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>11500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>9700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>30100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>6200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>41000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>37600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>43400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>35100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>35300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-43800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>9700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>10300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>17400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-20300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>5200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>12500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>24500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>26000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1500</v>
       </c>
-      <c r="Z81" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA81" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AB81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC81" s="3">
         <v>-9700</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6208,91 +6406,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E83" s="3">
         <v>24700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>24900</v>
-      </c>
-      <c r="F83" s="3">
-        <v>25200</v>
       </c>
       <c r="G83" s="3">
         <v>25200</v>
       </c>
       <c r="H83" s="3">
+        <v>25200</v>
+      </c>
+      <c r="I83" s="3">
         <v>24500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>25100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>24000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>23600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>22600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>22200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>21900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>24800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>23700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>22300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>20800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>20400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>19600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>15200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>19700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>20000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>19700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>21700</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>14600</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>14400</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>13800</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6374,8 +6576,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6457,8 +6662,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6540,8 +6748,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6623,8 +6834,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6706,91 +6920,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>74100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>33300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>40900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>47100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>25100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>44000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>92200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>97700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>31300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>132300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-14600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>86100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>51700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>36300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>83000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-9300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>35800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>77800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-6000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>28300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>21400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>46500</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>6500</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6820,91 +7040,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-27400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-30400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-27600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-28100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-36600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-20100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-22400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-16400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-36000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-15000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-12700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-13100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-24900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-24400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-26100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-26000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-25700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-30100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-25900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-22800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-26100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-22900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-23500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-20700</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-23300</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-20200</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6986,8 +7210,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7069,91 +7296,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-27600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-24800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-30400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-27600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-28100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-36500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-17700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-22400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-16400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-35900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-15000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-12700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-12900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-24700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-24100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-26000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-25800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-25500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-30100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-25900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-22700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-26100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-24400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-23400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-20700</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-23200</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-21000</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7183,8 +7416,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7258,16 +7492,19 @@
         <v>0</v>
       </c>
       <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-171000</v>
       </c>
-      <c r="AB96" s="3">
-        <v>0</v>
-      </c>
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7349,8 +7586,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7432,8 +7672,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7515,91 +7758,97 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-28700</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-73700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-9900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-122300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>4500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-115400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>3500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>20800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>150600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-24400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-16100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>2800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>8500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>8700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-1400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-3100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-400</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-2100</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7681,87 +7930,93 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-26900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-60400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>9100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-133600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>30800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-45700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>80200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>120800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-6500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>223800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-55000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>11400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>10000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>55900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-32100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>14200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-24200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>54800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-23400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>2600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-5100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>25400</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-18800</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>4100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EYE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EYE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="92">
   <si>
     <t>EYE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,381 +665,393 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E7" s="2">
         <v>45017</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44835</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44744</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44653</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44562</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44471</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44380</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44289</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44198</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44009</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43918</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43827</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43736</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43645</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43554</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43463</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43372</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43099</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42917</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42826</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>525300</v>
+      </c>
+      <c r="E8" s="3">
         <v>562400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>468900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>499200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>509600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>527700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>477900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>518000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>549500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>534200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>496700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>485400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>260000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>469700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>401800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>431900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>429500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>461200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>355900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>387400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>385500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>408000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>321800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>346100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>337500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>369900</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>277100</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>301200</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>247800</v>
+      </c>
+      <c r="E9" s="3">
         <v>254100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>222200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>232800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>234600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>236000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>217700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>226500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>235900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>224700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>216500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>210800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>140800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>218600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>187500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>204500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>202500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>212000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>173500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>182600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>177100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>180500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>152400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>162400</v>
       </c>
-      <c r="AA9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AC9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD9" s="3">
         <v>130300</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>138700</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>277500</v>
+      </c>
+      <c r="E10" s="3">
         <v>308300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>246700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>266400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>275000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>291700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>260200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>291500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>313600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>309500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>280200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>274600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>119200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>251100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>214300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>227400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>227000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>249200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>182400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>204800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>208400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>227500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>169400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>183700</v>
       </c>
-      <c r="AA10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AC10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD10" s="3">
         <v>146800</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>162500</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1070,8 +1082,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1156,8 +1169,11 @@
       <c r="AD12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1242,180 +1258,189 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>900</v>
+      </c>
+      <c r="E14" s="3">
         <v>400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>3700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>3000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>7200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>15800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>13300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1800</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>2100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>15500</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>2100</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>3100</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
       <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
         <v>8000</v>
       </c>
-      <c r="AB14" s="3">
-        <v>0</v>
-      </c>
       <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
         <v>7100</v>
       </c>
-      <c r="AD14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E15" s="3">
         <v>24800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>24700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>24900</v>
-      </c>
-      <c r="G15" s="3">
-        <v>25200</v>
       </c>
       <c r="H15" s="3">
         <v>25200</v>
       </c>
       <c r="I15" s="3">
+        <v>25200</v>
+      </c>
+      <c r="J15" s="3">
         <v>24500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>25100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>24000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>23600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>22600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>22200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>21900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>24800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>23700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>22300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>20800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>20400</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>20300</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>19300</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>17600</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>17900</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>17600</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>15400</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>14600</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>14400</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>13800</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1443,180 +1468,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>517600</v>
+      </c>
+      <c r="E17" s="3">
         <v>529100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>478700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>483800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>491200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>490400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>469900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>467300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>494700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>472700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>439800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>430600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>301600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>452800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>393400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>430600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>407700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>428800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>377800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>389500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>360600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>369100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>327600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>329500</v>
       </c>
-      <c r="AA17" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AC17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD17" s="3">
         <v>280500</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>286900</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E18" s="3">
         <v>33300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-9800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>15400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>18400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>37300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>8000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>50700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>54800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>61500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>56900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>54800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-41600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>16900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>8400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>21800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>32400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-21900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-2100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>24900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>38900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-5800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>16600</v>
       </c>
-      <c r="AA18" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AC18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD18" s="3">
         <v>-3400</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1647,38 +1679,39 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>5700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>7800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-5000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-9400</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1721,106 +1754,112 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-      <c r="AA20" s="3" t="s">
-        <v>5</v>
+      <c r="AA20" s="3">
+        <v>0</v>
       </c>
       <c r="AB20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AC20" s="3">
-        <v>0</v>
+      <c r="AC20" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>34400</v>
+      </c>
+      <c r="E21" s="3">
         <v>56800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>15900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>45900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>43300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>70300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>29700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>70700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>69500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>85000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>79500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>77000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-19700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>41700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>32000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>23700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>42500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>52800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-2300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>17300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>42600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>56700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>11800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>31900</v>
       </c>
-      <c r="AA21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AC21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD21" s="3">
         <v>10400</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>27500</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1828,257 +1867,266 @@
         <v>3500</v>
       </c>
       <c r="E22" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F22" s="3">
         <v>3600</v>
-      </c>
-      <c r="F22" s="3">
-        <v>3700</v>
       </c>
       <c r="G22" s="3">
         <v>3700</v>
       </c>
       <c r="H22" s="3">
+        <v>3700</v>
+      </c>
+      <c r="I22" s="3">
         <v>3600</v>
-      </c>
-      <c r="I22" s="3">
-        <v>700</v>
       </c>
       <c r="J22" s="3">
         <v>700</v>
       </c>
       <c r="K22" s="3">
+        <v>700</v>
+      </c>
+      <c r="L22" s="3">
         <v>800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>6300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>12800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>12500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>15600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>7500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>7400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>7900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>9000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>9100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>9300</v>
-      </c>
-      <c r="V22" s="3">
-        <v>9400</v>
       </c>
       <c r="W22" s="3">
         <v>9400</v>
       </c>
       <c r="X22" s="3">
+        <v>9400</v>
+      </c>
+      <c r="Y22" s="3">
         <v>9300</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>16400</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>14900</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>14600</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>14200</v>
-      </c>
-      <c r="AC22" s="3">
-        <v>9700</v>
       </c>
       <c r="AD22" s="3">
         <v>9700</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>9700</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E23" s="3">
         <v>28400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-12400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>17300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>14400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>41500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>45000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>44600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>55100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>44100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>42300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-57200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>9500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-6500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>12700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>23300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-31200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-11500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>15500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>29500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-22200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>25500</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-13100</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>10200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-3100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>4700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>11300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-1600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>4000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>7000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>11700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>9100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>7000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-13400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-3000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-7700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>5900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-10900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-16700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>3100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>5100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-6100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>200</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>600</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>8500</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-3400</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2163,180 +2211,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E26" s="3">
         <v>18300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-9300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>11500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>9700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>30100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>6200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>41000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>37600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>43400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>35100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>35300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-43800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>9700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>10300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>17400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-20300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>5200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>12500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>24500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-16100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1500</v>
       </c>
-      <c r="AA26" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AC26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD26" s="3">
         <v>-9700</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E27" s="3">
         <v>18300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-9300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>11500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>9700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>30100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>6200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>41000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>37600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>43400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>35100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>35300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-43800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>9700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>10300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>17400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-20300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>5200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>12500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>24500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-16100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1500</v>
       </c>
-      <c r="AA27" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AC27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD27" s="3">
         <v>-9700</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2421,8 +2478,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2471,8 +2531,8 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>5</v>
@@ -2489,12 +2549,12 @@
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z29" s="3">
         <v>42100</v>
       </c>
-      <c r="Z29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2507,8 +2567,11 @@
       <c r="AD29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2593,8 +2656,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2679,38 +2745,41 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E32" s="3">
         <v>1400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-5700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-7800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>5000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>9400</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2753,106 +2822,112 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-      <c r="AA32" s="3" t="s">
-        <v>5</v>
+      <c r="AA32" s="3">
+        <v>0</v>
       </c>
       <c r="AB32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AC32" s="3">
-        <v>0</v>
+      <c r="AC32" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E33" s="3">
         <v>18300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-9300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>11500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>9700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>30100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>6200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>41000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>37600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>43400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>35100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>35300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-43800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>9700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>10300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>17400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-20300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>5200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>12500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>24500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>26000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1500</v>
       </c>
-      <c r="AA33" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB33" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AC33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD33" s="3">
         <v>-9700</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2937,185 +3012,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E35" s="3">
         <v>18300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-9300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>11500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>9700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>30100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>6200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>41000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>37600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>43400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>35100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>35300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-43800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>9700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>10300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>17400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-20300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>5200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>12500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>24500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>26000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1500</v>
       </c>
-      <c r="AA35" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB35" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AC35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD35" s="3">
         <v>-9700</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E38" s="2">
         <v>45017</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44835</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44744</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44653</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44562</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44471</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44380</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44289</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44198</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44009</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43918</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43827</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43736</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43645</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43554</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43463</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43372</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43099</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42917</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42826</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3146,8 +3230,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3178,94 +3263,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>254600</v>
+      </c>
+      <c r="E41" s="3">
         <v>246900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>229400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>256200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>254400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>314600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>305800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>439100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>408300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>453800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>373900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>377000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>256300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>263200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>39300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>94100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>82800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>72500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>17100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>48900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>34600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>58400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>27600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>24900</v>
       </c>
-      <c r="AB41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AC41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AD41" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3350,171 +3439,177 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>78900</v>
+      </c>
+      <c r="E43" s="3">
         <v>80000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>79900</v>
-      </c>
-      <c r="F43" s="3">
-        <v>63800</v>
       </c>
       <c r="G43" s="3">
         <v>63800</v>
       </c>
       <c r="H43" s="3">
+        <v>63800</v>
+      </c>
+      <c r="I43" s="3">
         <v>62200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>55700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>54100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>54700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>60000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>58000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>49700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>58500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>27600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>44500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>50700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>57400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>58000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>50700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>38900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>45100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>41700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>43200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>39100</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>38200</v>
       </c>
-      <c r="AB43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AC43" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AD43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>120900</v>
+      </c>
+      <c r="E44" s="3">
         <v>123500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>123200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>122000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>129500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>127400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>123700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>124600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>120900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>119500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>111300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>111700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>117900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>130400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>127600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>111900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>105700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>111900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>116000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>99300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>94900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>93700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>91200</v>
-      </c>
-      <c r="Z44" s="3">
-        <v>89400</v>
       </c>
       <c r="AA44" s="3">
         <v>89400</v>
       </c>
-      <c r="AB44" s="3" t="s">
-        <v>5</v>
+      <c r="AB44" s="3">
+        <v>89400</v>
       </c>
       <c r="AC44" s="3" t="s">
         <v>5</v>
@@ -3522,203 +3617,212 @@
       <c r="AD44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>39900</v>
+      </c>
+      <c r="E45" s="3">
         <v>36000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>41400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>35000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>32800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>28300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>29400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>28600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>24500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>23600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>23500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>17100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>20500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>20100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>23300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>22000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>25000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>27600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>30800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>24100</v>
-      </c>
-      <c r="W45" s="3">
-        <v>24800</v>
       </c>
       <c r="X45" s="3">
         <v>24800</v>
       </c>
       <c r="Y45" s="3">
+        <v>24800</v>
+      </c>
+      <c r="Z45" s="3">
         <v>23900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>22700</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>22000</v>
       </c>
-      <c r="AB45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AC45" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AD45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>494300</v>
+      </c>
+      <c r="E46" s="3">
         <v>486500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>473800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>477100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>480500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>532600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>514600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>646400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>608400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>657000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>566700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>555400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>453100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>441200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>234600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>278600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>270900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>270100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>214700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>211100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>199400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>218600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>162500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>178800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>174400</v>
       </c>
-      <c r="AB46" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AC46" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AD46" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>900</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -3780,180 +3884,189 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>765800</v>
+      </c>
+      <c r="E48" s="3">
         <v>751600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>742600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>738300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>723000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>712300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>701300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>678200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>679200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>679800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>681400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>666200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>681600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>693500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>714900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>716200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>715900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>695300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>355100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>340600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>328000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>311000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>302300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>290700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>281300</v>
       </c>
-      <c r="AB48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AC48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AD48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1049100</v>
+      </c>
+      <c r="E49" s="3">
         <v>1050900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1052800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1054600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1056400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1058300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1060200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1062100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1063900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1065800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1067700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1069500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1071400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1073200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1075100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1077000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1078800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1080600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1082700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1099900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1102000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1104100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1106200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1108300</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>1110400</v>
       </c>
-      <c r="AB49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AC49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AD49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4038,8 +4151,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4124,94 +4240,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E52" s="3">
         <v>23400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>22000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>21800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>18500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>22300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>17000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>18900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>17700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>17300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>17700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>16300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>12900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>10800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>8100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>6600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>6300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>7100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>8900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>9100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>10000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>10900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>11000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>11100</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>10500</v>
       </c>
-      <c r="AB52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AC52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AD52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4296,94 +4418,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2333900</v>
+      </c>
+      <c r="E54" s="3">
         <v>2312400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2291200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2291700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2278300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2325500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2293100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2405500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2369200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2419800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2333500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2307500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2219000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2218700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2032700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2078400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2071800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2053100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1661400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1660700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1639400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1644600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1581900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1588900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1576700</v>
       </c>
-      <c r="AB54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AC54" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AD54" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4414,8 +4542,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4446,171 +4575,175 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>64100</v>
+      </c>
+      <c r="E57" s="3">
         <v>74600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>65300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>69000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>70000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>69400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>64300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>76100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>77700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>79800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>64900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>68600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>52400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>60000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>40800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>45300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>47100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>45100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>43600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>30900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>32800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>46100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>35700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>33600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>34400</v>
       </c>
-      <c r="AB57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AC57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AD57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E58" s="3">
         <v>3200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4000</v>
-      </c>
-      <c r="G58" s="3">
-        <v>4700</v>
       </c>
       <c r="H58" s="3">
         <v>4700</v>
       </c>
       <c r="I58" s="3">
+        <v>4700</v>
+      </c>
+      <c r="J58" s="3">
         <v>4000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>13800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>13700</v>
-      </c>
-      <c r="S58" s="3">
-        <v>8500</v>
       </c>
       <c r="T58" s="3">
         <v>8500</v>
       </c>
       <c r="U58" s="3">
+        <v>8500</v>
+      </c>
+      <c r="V58" s="3">
         <v>7600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>7900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>7700</v>
-      </c>
-      <c r="X58" s="3">
-        <v>7300</v>
       </c>
       <c r="Y58" s="3">
         <v>7300</v>
       </c>
       <c r="Z58" s="3">
-        <v>9600</v>
+        <v>7300</v>
       </c>
       <c r="AA58" s="3">
         <v>9600</v>
       </c>
-      <c r="AB58" s="3" t="s">
-        <v>5</v>
+      <c r="AB58" s="3">
+        <v>9600</v>
       </c>
       <c r="AC58" s="3" t="s">
         <v>5</v>
@@ -4618,352 +4751,367 @@
       <c r="AD58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>288600</v>
+      </c>
+      <c r="E59" s="3">
         <v>283900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>274900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>263700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>279100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>271300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>275500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>268300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>288500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>275900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>260200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>283900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>256200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>224000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>218600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>244800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>232700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>244100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>160400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>158500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>148800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>168200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>169500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>176000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>167900</v>
       </c>
-      <c r="AB59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AC59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AD59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>363200</v>
+      </c>
+      <c r="E60" s="3">
         <v>361800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>344300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>336600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>353800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>345400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>343800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>348800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>370500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>359800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>328700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>356000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>311900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>287500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>273200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>303900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>288300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>297700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>211700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>197200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>189300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>221700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>211300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>219200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>211900</v>
       </c>
-      <c r="AB60" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AC60" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AD60" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>555200</v>
+      </c>
+      <c r="E61" s="3">
         <v>563700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>563400</v>
-      </c>
-      <c r="F61" s="3">
-        <v>564200</v>
       </c>
       <c r="G61" s="3">
         <v>564200</v>
       </c>
       <c r="H61" s="3">
+        <v>564200</v>
+      </c>
+      <c r="I61" s="3">
         <v>564700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>566100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>615600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>616200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>733700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>651800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>648100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>644900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>713200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>555900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>584300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>579100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>578400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>570500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>566900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>566600</v>
-      </c>
-      <c r="X61" s="3">
-        <v>562000</v>
       </c>
       <c r="Y61" s="3">
         <v>562000</v>
       </c>
       <c r="Z61" s="3">
+        <v>562000</v>
+      </c>
+      <c r="AA61" s="3">
         <v>912700</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>913300</v>
       </c>
-      <c r="AB61" s="3">
-        <v>0</v>
-      </c>
       <c r="AC61" s="3">
         <v>0</v>
       </c>
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>507100</v>
+      </c>
+      <c r="E62" s="3">
         <v>490200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>482500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>484000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>468700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>464700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>457200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>452500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>444200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>438800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>446600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>438400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>441200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>431900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>427200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>424800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>430000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>414400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>136000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>138400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>154000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>149600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>154100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>202400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>202000</v>
       </c>
-      <c r="AB62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AC62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AD62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5048,8 +5196,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5134,8 +5285,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5220,94 +5374,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1425500</v>
+      </c>
+      <c r="E66" s="3">
         <v>1415600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1390100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1384800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1386700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1374800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1367100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1416900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1430900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1532300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1427000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1442600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1398100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1432600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1256300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1313000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1297400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1290500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>918200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>902500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>909900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>933300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>927300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1334300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1327200</v>
       </c>
-      <c r="AB66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AC66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AD66" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5338,8 +5498,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5424,8 +5585,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5510,8 +5674,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5596,8 +5763,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5682,94 +5852,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>344400</v>
+      </c>
+      <c r="E72" s="3">
         <v>338800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>320500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>329800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>318300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>308500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>278400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>272200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>231200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>193600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>142900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>107800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>72500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>116300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>107100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>103200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>102000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>91800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>74800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>100100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>94300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>81200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>32200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>8400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>6900</v>
       </c>
-      <c r="AB72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AC72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AD72" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5854,8 +6030,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5940,8 +6119,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6026,94 +6208,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>908400</v>
+      </c>
+      <c r="E76" s="3">
         <v>896700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>901100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>906900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>891700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>950700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>926000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>988600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>938300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>887500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>906500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>865000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>820900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>786200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>776400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>765500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>774400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>762600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>743200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>758200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>729600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>711300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>654600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>254600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>249500</v>
       </c>
-      <c r="AB76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AC76" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AD76" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6198,185 +6386,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E80" s="2">
         <v>45017</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44835</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44744</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44653</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44562</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44471</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44380</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44289</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44198</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44009</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43918</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43827</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43736</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43645</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43554</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43463</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43372</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43099</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42917</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42826</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E81" s="3">
         <v>18300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-9300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>11500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>9700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>30100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>6200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>41000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>37600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>43400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>35100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>35300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-43800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>9700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>10300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>17400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-20300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>5200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>12500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>24500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>26000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1500</v>
       </c>
-      <c r="AA81" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB81" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AC81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD81" s="3">
         <v>-9700</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6407,94 +6604,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E83" s="3">
         <v>24800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>24700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>24900</v>
-      </c>
-      <c r="G83" s="3">
-        <v>25200</v>
       </c>
       <c r="H83" s="3">
         <v>25200</v>
       </c>
       <c r="I83" s="3">
+        <v>25200</v>
+      </c>
+      <c r="J83" s="3">
         <v>24500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>25100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>24000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>23600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>22600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>22200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>21900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>24800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>23700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>22300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>20800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>20400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>19600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>15200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>19700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>20000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>19700</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>21700</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>14600</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>14400</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>13800</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6579,8 +6780,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6665,8 +6869,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6751,8 +6958,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6837,8 +7047,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6923,94 +7136,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>38200</v>
+      </c>
+      <c r="E89" s="3">
         <v>74100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>33300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>40900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>47100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>25100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>44000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>92200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>97700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>31300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>132300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-14600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>86100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-5900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>51700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>36300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>83000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-9300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>35800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>77800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-6000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>28300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>21400</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>46500</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>6500</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7041,94 +7260,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-26400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-27700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-27400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-30400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-27600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-28100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-36600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-20100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-22400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-16400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-36000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-15000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-12700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-13100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-24900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-24400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-26100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-26000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-25700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-30100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-25900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-22800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-26100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-22900</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-23500</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-20700</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-23300</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-20200</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7213,8 +7436,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7299,94 +7525,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-27600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-24800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-30400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-27600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-28100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-36500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-17700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-22400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-16400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-35900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-15000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-12700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-12900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-24700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-24100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-26000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-25800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-25500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-30100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-25900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-22700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-26100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-24400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-23400</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-20700</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-23200</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-21000</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7417,8 +7649,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7495,16 +7728,19 @@
         <v>0</v>
       </c>
       <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-171000</v>
       </c>
-      <c r="AC96" s="3">
-        <v>0</v>
-      </c>
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7589,8 +7825,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7675,8 +7914,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7761,94 +8003,100 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-28700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-73700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-9900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-122300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>4500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-115400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>3500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>20800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>150600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-24400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-16100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>2800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>8500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>8700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-3100</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-400</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-2100</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7933,90 +8181,96 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E102" s="3">
         <v>17800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-26900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-60400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>9100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-133600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>30800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-45700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>80200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>120800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-6500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>223800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-55000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>11400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>10000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>55900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-32100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>14200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-24200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>54800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-23400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>2600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-5100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>25400</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-18800</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>4100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EYE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EYE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="92">
   <si>
     <t>EYE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,393 +665,406 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45108</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45017</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44835</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44744</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44653</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44562</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44471</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44380</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44289</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44198</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44009</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43918</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43827</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43736</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43645</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43554</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43463</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43372</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43099</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42917</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42826</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>532400</v>
+      </c>
+      <c r="E8" s="3">
         <v>525300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>562400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>468900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>499200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>509600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>527700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>477900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>518000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>549500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>534200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>496700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>485400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>260000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>469700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>401800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>431900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>429500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>461200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>355900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>387400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>385500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>408000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>321800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>346100</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>337500</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>369900</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>277100</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>301200</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>252000</v>
+      </c>
+      <c r="E9" s="3">
         <v>247800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>254100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>222200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>232800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>234600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>236000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>217700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>226500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>235900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>224700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>216500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>210800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>140800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>218600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>187500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>204500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>202500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>212000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>173500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>182600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>177100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>180500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>152400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>162400</v>
       </c>
-      <c r="AB9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AC9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AD9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE9" s="3">
         <v>130300</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>138700</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>280400</v>
+      </c>
+      <c r="E10" s="3">
         <v>277500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>308300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>246700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>266400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>275000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>291700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>260200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>291500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>313600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>309500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>280200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>274600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>119200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>251100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>214300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>227400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>227000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>249200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>182400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>204800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>208400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>227500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>169400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>183700</v>
       </c>
-      <c r="AB10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AC10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AD10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE10" s="3">
         <v>146800</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>162500</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1083,8 +1096,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1172,8 +1186,11 @@
       <c r="AE12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1261,186 +1278,195 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>80800</v>
+      </c>
+      <c r="E14" s="3">
         <v>900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>3700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>3000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>7200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>15800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1500</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>13300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1800</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>2100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>15500</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>2100</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
       <c r="Y14" s="3">
         <v>0</v>
       </c>
       <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>3100</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
       <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
         <v>8000</v>
       </c>
-      <c r="AC14" s="3">
-        <v>0</v>
-      </c>
       <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
         <v>7100</v>
       </c>
-      <c r="AE14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E15" s="3">
         <v>24900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>24800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>24700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>24900</v>
-      </c>
-      <c r="H15" s="3">
-        <v>25200</v>
       </c>
       <c r="I15" s="3">
         <v>25200</v>
       </c>
       <c r="J15" s="3">
+        <v>25200</v>
+      </c>
+      <c r="K15" s="3">
         <v>24500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>25100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>24000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>23600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>22600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>22200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>21900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>24800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>23700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>22300</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>20800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>20400</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>20300</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>19300</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>17600</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>17900</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>17600</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>15400</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>14600</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>14400</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>13800</v>
       </c>
-      <c r="AE15" s="3">
+      <c r="AF15" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1469,186 +1495,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>607000</v>
+      </c>
+      <c r="E17" s="3">
         <v>517600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>529100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>478700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>483800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>491200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>490400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>469900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>467300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>494700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>472700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>439800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>430600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>301600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>452800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>393400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>430600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>407700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>428800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>377800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>389500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>360600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>369100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>327600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>329500</v>
       </c>
-      <c r="AB17" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AC17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AD17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE17" s="3">
         <v>280500</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>286900</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-74600</v>
+      </c>
+      <c r="E18" s="3">
         <v>7700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>33300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-9800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>15400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>18400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>37300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>8000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>50700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>54800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>61500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>56900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>54800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-41600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>16900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>8400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>21800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>32400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-21900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-2100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>24900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>38900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-5800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>16600</v>
       </c>
-      <c r="AB18" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AC18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AD18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE18" s="3">
         <v>-3400</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1680,41 +1713,42 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E20" s="3">
         <v>1700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>5700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>7800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-5000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-9400</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1757,109 +1791,115 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-      <c r="AB20" s="3" t="s">
-        <v>5</v>
+      <c r="AB20" s="3">
+        <v>0</v>
       </c>
       <c r="AC20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AD20" s="3">
-        <v>0</v>
+      <c r="AD20" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AE20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-50400</v>
+      </c>
+      <c r="E21" s="3">
         <v>34400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>56800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>15900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>45900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>43300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>70300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>29700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>70700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>69500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>85000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>79500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>77000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-19700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>41700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>32000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>23700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>42500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>52800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-2300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>17300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>42600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>56700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>11800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>31900</v>
       </c>
-      <c r="AB21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AC21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AD21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE21" s="3">
         <v>10400</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>27500</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1870,263 +1910,272 @@
         <v>3500</v>
       </c>
       <c r="F22" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G22" s="3">
         <v>3600</v>
-      </c>
-      <c r="G22" s="3">
-        <v>3700</v>
       </c>
       <c r="H22" s="3">
         <v>3700</v>
       </c>
       <c r="I22" s="3">
+        <v>3700</v>
+      </c>
+      <c r="J22" s="3">
         <v>3600</v>
-      </c>
-      <c r="J22" s="3">
-        <v>700</v>
       </c>
       <c r="K22" s="3">
         <v>700</v>
       </c>
       <c r="L22" s="3">
+        <v>700</v>
+      </c>
+      <c r="M22" s="3">
         <v>800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>6300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>12800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>12500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>15600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>7500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>7400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>7900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>9000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>9100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>9300</v>
-      </c>
-      <c r="W22" s="3">
-        <v>9400</v>
       </c>
       <c r="X22" s="3">
         <v>9400</v>
       </c>
       <c r="Y22" s="3">
+        <v>9400</v>
+      </c>
+      <c r="Z22" s="3">
         <v>9300</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>16400</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>14900</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>14600</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>14200</v>
-      </c>
-      <c r="AD22" s="3">
-        <v>9700</v>
       </c>
       <c r="AE22" s="3">
         <v>9700</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>9700</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-78300</v>
+      </c>
+      <c r="E23" s="3">
         <v>5900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>28400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-12400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>17300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>14400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>41500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>45000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>44600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>55100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>44100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>42300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-57200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>9500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-6500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>12700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>23300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-31200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-11500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>15500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>29500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-22200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1700</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-900</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>25500</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-13100</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>10200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-3100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>5800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>4700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>11300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-1600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>7000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>11700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>9100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>7000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-13400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-3000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-7700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>5900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-10900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-16700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>3100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>5100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-6100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>200</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>600</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>8500</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>-3400</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2214,186 +2263,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-73800</v>
+      </c>
+      <c r="E26" s="3">
         <v>5600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>18300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-9300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>11500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>9700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>30100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>6200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>41000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>37600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>43400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>35100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>35300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-43800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>9700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>10300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>17400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-20300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>5200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>12500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>24500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-16100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>1500</v>
       </c>
-      <c r="AB26" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AC26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AD26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE26" s="3">
         <v>-9700</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-73800</v>
+      </c>
+      <c r="E27" s="3">
         <v>5600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>18300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-9300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>11500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>9700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>30100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>6200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>41000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>37600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>43400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>35100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>35300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-43800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>9700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>10300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>17400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-20300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>5200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>12500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>24500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-16100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>1500</v>
       </c>
-      <c r="AB27" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AC27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AD27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE27" s="3">
         <v>-9700</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2481,8 +2539,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2534,8 +2595,8 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>5</v>
@@ -2552,12 +2613,12 @@
       <c r="Y29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA29" s="3">
         <v>42100</v>
       </c>
-      <c r="AA29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2570,8 +2631,11 @@
       <c r="AE29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2659,8 +2723,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2748,41 +2815,44 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-5700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-7800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>5000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>9400</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2825,109 +2895,115 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-      <c r="AB32" s="3" t="s">
-        <v>5</v>
+      <c r="AB32" s="3">
+        <v>0</v>
       </c>
       <c r="AC32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AD32" s="3">
-        <v>0</v>
+      <c r="AD32" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AE32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-73800</v>
+      </c>
+      <c r="E33" s="3">
         <v>5600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>18300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-9300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>11500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>9700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>30100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>6200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>41000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>37600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>43400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>35100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>35300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-43800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>9700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>10300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>17400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-20300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>5200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>12500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>24500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>26000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>1500</v>
       </c>
-      <c r="AB33" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AC33" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AD33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE33" s="3">
         <v>-9700</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3015,191 +3091,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-73800</v>
+      </c>
+      <c r="E35" s="3">
         <v>5600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>18300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-9300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>11500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>9700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>30100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>6200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>41000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>37600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>43400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>35100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>35300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-43800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>9700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>10300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>17400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-20300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>5200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>12500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>24500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>26000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>1500</v>
       </c>
-      <c r="AB35" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AC35" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AD35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE35" s="3">
         <v>-9700</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45108</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45017</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44835</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44744</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44653</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44562</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44471</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44380</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44289</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44198</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44009</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43918</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43827</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43736</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43645</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43554</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43463</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43372</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43099</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42917</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42826</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3231,8 +3316,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3264,97 +3350,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>265800</v>
+      </c>
+      <c r="E41" s="3">
         <v>254600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>246900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>229400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>256200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>254400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>314600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>305800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>439100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>408300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>453800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>373900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>377000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>256300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>263200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>39300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>94100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>82800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>72500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>17100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>48900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>34600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>58400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>4200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>27600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>24900</v>
       </c>
-      <c r="AC41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AD41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AE41" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3442,177 +3532,183 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>76600</v>
+      </c>
+      <c r="E43" s="3">
         <v>78900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>80000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>79900</v>
-      </c>
-      <c r="G43" s="3">
-        <v>63800</v>
       </c>
       <c r="H43" s="3">
         <v>63800</v>
       </c>
       <c r="I43" s="3">
+        <v>63800</v>
+      </c>
+      <c r="J43" s="3">
         <v>62200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>55700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>54100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>54700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>60000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>58000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>49700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>58500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>27600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>44500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>50700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>57400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>58000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>50700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>38900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>45100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>41700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>43200</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>39100</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>38200</v>
       </c>
-      <c r="AC43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AD43" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AE43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>120600</v>
+      </c>
+      <c r="E44" s="3">
         <v>120900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>123500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>123200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>122000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>129500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>127400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>123700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>124600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>120900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>119500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>111300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>111700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>117900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>130400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>127600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>111900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>105700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>111900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>116000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>99300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>94900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>93700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>91200</v>
-      </c>
-      <c r="AA44" s="3">
-        <v>89400</v>
       </c>
       <c r="AB44" s="3">
         <v>89400</v>
       </c>
-      <c r="AC44" s="3" t="s">
-        <v>5</v>
+      <c r="AC44" s="3">
+        <v>89400</v>
       </c>
       <c r="AD44" s="3" t="s">
         <v>5</v>
@@ -3620,194 +3716,203 @@
       <c r="AE44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E45" s="3">
         <v>39900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>36000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>41400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>35000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>32800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>28300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>29400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>28600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>24500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>23600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>23500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>17100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>20500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>20100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>23300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>22000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>25000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>27600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>30800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>24100</v>
-      </c>
-      <c r="X45" s="3">
-        <v>24800</v>
       </c>
       <c r="Y45" s="3">
         <v>24800</v>
       </c>
       <c r="Z45" s="3">
+        <v>24800</v>
+      </c>
+      <c r="AA45" s="3">
         <v>23900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>22700</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>22000</v>
       </c>
-      <c r="AC45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AD45" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AE45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>500100</v>
+      </c>
+      <c r="E46" s="3">
         <v>494300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>486500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>473800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>477100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>480500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>532600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>514600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>646400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>608400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>657000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>566700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>555400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>453100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>441200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>234600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>278600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>270900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>270100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>214700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>211100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>199400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>218600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>162500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>178800</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>174400</v>
       </c>
-      <c r="AC46" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AD46" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AE46" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
         <v>900</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>5</v>
+      <c r="E47" s="3">
+        <v>900</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>5</v>
@@ -3824,8 +3929,8 @@
       <c r="J47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -3887,186 +3992,195 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>760800</v>
+      </c>
+      <c r="E48" s="3">
         <v>765800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>751600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>742600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>738300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>723000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>712300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>701300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>678200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>679200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>679800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>681400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>666200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>681600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>693500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>714900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>716200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>715900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>695300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>355100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>340600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>328000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>311000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>302300</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>290700</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>281300</v>
       </c>
-      <c r="AC48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AD48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AE48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>978900</v>
+      </c>
+      <c r="E49" s="3">
         <v>1049100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1050900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1052800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1054600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1056400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1058300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1060200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1062100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1063900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1065800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1067700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1069500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1071400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1073200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1075100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1077000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1078800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1080600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1082700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1099900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1102000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1104100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1106200</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>1108300</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>1110400</v>
       </c>
-      <c r="AC49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AD49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AE49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4154,8 +4268,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4243,97 +4360,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>25800</v>
+      </c>
+      <c r="E52" s="3">
         <v>23900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>23400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>22000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>21800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>18500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>22300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>17000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>18900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>17700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>17300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>17700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>16300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>12900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>10800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>8100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>6600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>6300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>7100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>8900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>9100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>10000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>10900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>11000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>11100</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>10500</v>
       </c>
-      <c r="AC52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AD52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AE52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4421,97 +4544,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2266400</v>
+      </c>
+      <c r="E54" s="3">
         <v>2333900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2312400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2291200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2291700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2278300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2325500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2293100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2405500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2369200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2419800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2333500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2307500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2219000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2218700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2032700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2078400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2071800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2053100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1661400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1660700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1639400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1644600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1581900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1588900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1576700</v>
       </c>
-      <c r="AC54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AD54" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AE54" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4543,8 +4672,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4576,177 +4706,181 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>62900</v>
+      </c>
+      <c r="E57" s="3">
         <v>64100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>74600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>65300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>69000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>70000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>69400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>64300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>76100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>77700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>79800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>64900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>68600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>52400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>60000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>40800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>45300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>47100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>45100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>43600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>30900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>32800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>46100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>35700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>33600</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>34400</v>
       </c>
-      <c r="AC57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AD57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AE57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E58" s="3">
         <v>10500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4000</v>
-      </c>
-      <c r="H58" s="3">
-        <v>4700</v>
       </c>
       <c r="I58" s="3">
         <v>4700</v>
       </c>
       <c r="J58" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K58" s="3">
         <v>4000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>13800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>13700</v>
-      </c>
-      <c r="T58" s="3">
-        <v>8500</v>
       </c>
       <c r="U58" s="3">
         <v>8500</v>
       </c>
       <c r="V58" s="3">
+        <v>8500</v>
+      </c>
+      <c r="W58" s="3">
         <v>7600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>7900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>7700</v>
-      </c>
-      <c r="Y58" s="3">
-        <v>7300</v>
       </c>
       <c r="Z58" s="3">
         <v>7300</v>
       </c>
       <c r="AA58" s="3">
-        <v>9600</v>
+        <v>7300</v>
       </c>
       <c r="AB58" s="3">
         <v>9600</v>
       </c>
-      <c r="AC58" s="3" t="s">
-        <v>5</v>
+      <c r="AC58" s="3">
+        <v>9600</v>
       </c>
       <c r="AD58" s="3" t="s">
         <v>5</v>
@@ -4754,364 +4888,379 @@
       <c r="AE58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>300000</v>
+      </c>
+      <c r="E59" s="3">
         <v>288600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>283900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>274900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>263700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>279100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>271300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>275500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>268300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>288500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>275900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>260200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>283900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>256200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>224000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>218600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>244800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>232700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>244100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>160400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>158500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>148800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>168200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>169500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>176000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>167900</v>
       </c>
-      <c r="AC59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AD59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AE59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>373500</v>
+      </c>
+      <c r="E60" s="3">
         <v>363200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>361800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>344300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>336600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>353800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>345400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>343800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>348800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>370500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>359800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>328700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>356000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>311900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>287500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>273200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>303900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>288300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>297700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>211700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>197200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>189300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>221700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>211300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>219200</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>211900</v>
       </c>
-      <c r="AC60" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AD60" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AE60" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>552200</v>
+      </c>
+      <c r="E61" s="3">
         <v>555200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>563700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>563400</v>
-      </c>
-      <c r="G61" s="3">
-        <v>564200</v>
       </c>
       <c r="H61" s="3">
         <v>564200</v>
       </c>
       <c r="I61" s="3">
+        <v>564200</v>
+      </c>
+      <c r="J61" s="3">
         <v>564700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>566100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>615600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>616200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>733700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>651800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>648100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>644900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>713200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>555900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>584300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>579100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>578400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>570500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>566900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>566600</v>
-      </c>
-      <c r="Y61" s="3">
-        <v>562000</v>
       </c>
       <c r="Z61" s="3">
         <v>562000</v>
       </c>
       <c r="AA61" s="3">
+        <v>562000</v>
+      </c>
+      <c r="AB61" s="3">
         <v>912700</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>913300</v>
       </c>
-      <c r="AC61" s="3">
-        <v>0</v>
-      </c>
       <c r="AD61" s="3">
         <v>0</v>
       </c>
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>500400</v>
+      </c>
+      <c r="E62" s="3">
         <v>507100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>490200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>482500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>484000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>468700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>464700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>457200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>452500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>444200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>438800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>446600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>438400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>441200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>431900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>427200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>424800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>430000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>414400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>136000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>138400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>154000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>149600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>154100</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>202400</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>202000</v>
       </c>
-      <c r="AC62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AD62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AE62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5199,8 +5348,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5288,8 +5440,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5377,97 +5532,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1426100</v>
+      </c>
+      <c r="E66" s="3">
         <v>1425500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1415600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1390100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1384800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1386700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1374800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1367100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1416900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1430900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1532300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1427000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1442600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1398100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1432600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1256300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1313000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1297400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1290500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>918200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>902500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>909900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>933300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>927300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1334300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1327200</v>
       </c>
-      <c r="AC66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AD66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AE66" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5499,8 +5660,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5588,8 +5750,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5677,8 +5842,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5766,8 +5934,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5855,97 +6026,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>270600</v>
+      </c>
+      <c r="E72" s="3">
         <v>344400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>338800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>320500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>329800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>318300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>308500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>278400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>272200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>231200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>193600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>142900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>107800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>72500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>116300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>107100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>103200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>102000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>91800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>74800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>100100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>94300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>81200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>32200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>8400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>6900</v>
       </c>
-      <c r="AC72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AD72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AE72" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6033,8 +6210,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6122,8 +6302,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6211,97 +6394,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>840400</v>
+      </c>
+      <c r="E76" s="3">
         <v>908400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>896700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>901100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>906900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>891700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>950700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>926000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>988600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>938300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>887500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>906500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>865000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>820900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>786200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>776400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>765500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>774400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>762600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>743200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>758200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>729600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>711300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>654600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>254600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>249500</v>
       </c>
-      <c r="AC76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AD76" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AE76" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6389,191 +6578,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45108</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45017</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44835</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44744</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44653</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44562</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44471</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44380</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44289</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44198</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44009</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43918</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43827</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43736</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43645</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43554</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43463</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43372</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43099</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42917</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42826</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-73800</v>
+      </c>
+      <c r="E81" s="3">
         <v>5600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>18300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-9300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>11500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>9700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>30100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>6200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>41000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>37600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>43400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>35100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>35300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-43800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>9700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>10300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>17400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-20300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>5200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>12500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>24500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>26000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>1500</v>
       </c>
-      <c r="AB81" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AC81" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AD81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE81" s="3">
         <v>-9700</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6605,97 +6803,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E83" s="3">
         <v>24900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>24800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>24700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>24900</v>
-      </c>
-      <c r="H83" s="3">
-        <v>25200</v>
       </c>
       <c r="I83" s="3">
         <v>25200</v>
       </c>
       <c r="J83" s="3">
+        <v>25200</v>
+      </c>
+      <c r="K83" s="3">
         <v>24500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>25100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>24000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>23600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>22600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>22200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>21900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>24800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>23700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>22300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>20800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>20400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>19600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>15200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>19700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>20000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>19700</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>21700</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>14600</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>14400</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>13800</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6783,8 +6985,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6872,8 +7077,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6961,8 +7169,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7050,8 +7261,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7139,97 +7353,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>41100</v>
+      </c>
+      <c r="E89" s="3">
         <v>38200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>74100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>33300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>40900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>47100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>25100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>44000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>92200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>97700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>31300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>132300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-14600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>86100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-5900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>51700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>36300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>83000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-9300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>35800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>2300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>77800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-6000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>28300</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>21400</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>46500</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>6500</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7261,97 +7481,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-27800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-26400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-27700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-27400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-30400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-27600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-28100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-36600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-20100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-22400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-16400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-36000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-15000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-12700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-13100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-24900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-24400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-26100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-26000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-25700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-30100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-25900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-22800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-26100</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-22900</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-23500</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-20700</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-23300</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-20200</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7439,8 +7663,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7528,97 +7755,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-27800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-27200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-27600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-24800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-30400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-27600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-28100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-36500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-17700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-22400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-16400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-35900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-15000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-12700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-12900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-24700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-24100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-26000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-25800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-25500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-30100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-25900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-22700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-26100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-24400</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-23400</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-20700</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-23200</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-21000</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7650,8 +7883,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7731,16 +7965,19 @@
         <v>0</v>
       </c>
       <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
         <v>-171000</v>
       </c>
-      <c r="AD96" s="3">
-        <v>0</v>
-      </c>
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7828,8 +8065,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7917,8 +8157,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8006,97 +8249,103 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-28700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-73700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-9900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-122300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-115400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>3500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>20800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>150600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-24400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-16100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>2800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>8500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>8700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-1400</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-3100</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-400</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-2100</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8184,93 +8433,99 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E102" s="3">
         <v>7600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>17800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-26900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-60400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>9100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-133600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>30800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-45700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>80200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>120800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>223800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-55000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>11400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>10000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>55900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-32100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>14200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-24200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>54800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-23400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>2600</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-5100</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>25400</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-18800</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>4100</v>
       </c>
     </row>
